--- a/wpercentage.xlsx
+++ b/wpercentage.xlsx
@@ -450,4799 +450,4799 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05683838708324319</v>
+        <v>0.05683838572271892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666560679958</v>
+        <v>1.166666425659303</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05796802605750374</v>
+        <v>0.05796802498641812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333333121359916</v>
+        <v>2.333332851318607</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05907334476520908</v>
+        <v>0.05907334397172993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.499999682039873</v>
+        <v>3.49999927697791</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06015486680317092</v>
+        <v>0.0601548662758414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666666242719831</v>
+        <v>4.666665702637213</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06121310449556051</v>
+        <v>0.0612131042232884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332803399789</v>
+        <v>5.833332128296517</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06224855913659996</v>
+        <v>0.0622485591086473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.999999364079747</v>
+        <v>6.99999855395582</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0632617212280287</v>
+        <v>0.06326172143400166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166665924759705</v>
+        <v>8.166664979615124</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06425307071145733</v>
+        <v>0.06425307114129639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333332485439662</v>
+        <v>9.333331405274427</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06522307719571922</v>
+        <v>0.06522307783968957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999904611962</v>
+        <v>10.49999783093373</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06617220017932732</v>
+        <v>0.06617220102800955</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666560679958</v>
+        <v>11.66666425659303</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0671008892681416</v>
+        <v>0.06710089031242265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333216747954</v>
+        <v>12.83333068225234</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06800958438835042</v>
+        <v>0.06800958561941473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999872815949</v>
+        <v>13.99999710791164</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06889871599486641</v>
+        <v>0.06889871740418733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666528883945</v>
+        <v>15.16666353357094</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06976870527523586</v>
+        <v>0.06976870685456735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33333184951941</v>
+        <v>16.33332995923025</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07061996434915806</v>
+        <v>0.07061996609052647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999841019937</v>
+        <v>17.49999638488955</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07145289646370911</v>
+        <v>0.07145289835940535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666497087932</v>
+        <v>18.66666281054885</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07226789618436279</v>
+        <v>0.07226789822693459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83333153155928</v>
+        <v>19.83332923620816</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07306534958189877</v>
+        <v>0.07306535176414322</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999809223924</v>
+        <v>20.99999566186746</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07384563441528695</v>
+        <v>0.07384563673024322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.1666646529192</v>
+        <v>22.16666208752676</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07460912031063441</v>
+        <v>0.07460912275157665</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33333121359916</v>
+        <v>23.33332851318607</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07535616893627971</v>
+        <v>0.07535617149671014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999777427911</v>
+        <v>24.49999493884537</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0760871341741176</v>
+        <v>0.07608713684775985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666433495907</v>
+        <v>25.66666136450467</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07680236228723522</v>
+        <v>0.07680236506802778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83333089563903</v>
+        <v>26.83332779016398</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07750219208393924</v>
+        <v>0.07750219496602911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999745631899</v>
+        <v>27.99999421582328</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07818695507825159</v>
+        <v>0.07818695805598815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666401699894</v>
+        <v>29.16666064148258</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07885697564694984</v>
+        <v>0.07885697871487882</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.3333305776789</v>
+        <v>30.33332706714189</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07951257118322666</v>
+        <v>0.0795125743360843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999713835886</v>
+        <v>31.49999349280119</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08015405224704107</v>
+        <v>0.08015405547974848</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.66666369903882</v>
+        <v>32.6666599184605</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08078172271223277</v>
+        <v>0.08078172601989035</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.83333025971878</v>
+        <v>33.8333263441198</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08139587991046916</v>
+        <v>0.08139588328835129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.99999682039874</v>
+        <v>34.9999927697791</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08199681477209338</v>
+        <v>0.08199681821564317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16666338107869</v>
+        <v>36.16665919543841</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08258481196393988</v>
+        <v>0.0825848154687641</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332994175865</v>
+        <v>37.33332562109771</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08316015002418305</v>
+        <v>0.0831601535860472</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999650243861</v>
+        <v>38.49999204675701</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08372310149428255</v>
+        <v>0.08372310510910606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66666306311856</v>
+        <v>39.66665847241632</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08427393304808806</v>
+        <v>0.08427393671193964</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332962379852</v>
+        <v>40.83332489807562</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08481290561816442</v>
+        <v>0.08481290932725749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999618447848</v>
+        <v>41.99999132373492</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08534027451939712</v>
+        <v>0.08534027827008543</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16666274515844</v>
+        <v>43.16665774939423</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08585628956993668</v>
+        <v>0.08585629335871001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.3333293058384</v>
+        <v>44.33332417505353</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08636119520953915</v>
+        <v>0.08636119903301913</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999586651835</v>
+        <v>45.49999060071283</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08685523061535882</v>
+        <v>0.08685523447029492</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66666242719831</v>
+        <v>46.66665702637214</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08733862981524809</v>
+        <v>0.08733863369851363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332898787827</v>
+        <v>47.83332345203144</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08781162179861796</v>
+        <v>0.08781162570720633</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99999554855822</v>
+        <v>48.99998987769074</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08827443062491186</v>
+        <v>0.08827443455593276</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16666210923818</v>
+        <v>50.16665630335005</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08872727552974409</v>
+        <v>0.08872727948041995</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332866991815</v>
+        <v>51.33332272900935</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08917037102875319</v>
+        <v>0.08917037499641564</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.4999952305981</v>
+        <v>52.49998915466865</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08960392701921942</v>
+        <v>0.08960393100130587</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66666179127806</v>
+        <v>53.66665558032796</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09002814887949449</v>
+        <v>0.09002815287354483</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332835195802</v>
+        <v>54.83332200598726</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09044323756629068</v>
+        <v>0.09044324156994403</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99999491263797</v>
+        <v>55.99998843164656</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09084938970987531</v>
+        <v>0.09084939372086691</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16666147331793</v>
+        <v>57.16665485730586</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09124679770721586</v>
+        <v>0.091246801723374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332803399789</v>
+        <v>58.33332128296517</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09163564981311965</v>
+        <v>0.09163565383236276</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49999459467784</v>
+        <v>59.49998770862447</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09201613022941145</v>
+        <v>0.09201613424974515</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.6666611553578</v>
+        <v>60.66665413428377</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09238841919219101</v>
+        <v>0.0923884232117054</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332771603776</v>
+        <v>61.83332055994308</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0927526930572122</v>
+        <v>0.0927526970740791</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99999427671772</v>
+        <v>62.99998698560238</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09310912438342386</v>
+        <v>0.09310912839589418</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16666083739767</v>
+        <v>64.16665341126168</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09345788201471208</v>
+        <v>0.09345788602111328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33332739807764</v>
+        <v>65.33331983692099</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09379913115988274</v>
+        <v>0.09379913515861633</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.4999939587576</v>
+        <v>66.49998626258029</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09413303347092197</v>
+        <v>0.09413303746046112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66666051943756</v>
+        <v>67.66665268823959</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09445974711957179</v>
+        <v>0.09445975109845894</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.83332708011751</v>
+        <v>68.8333191138989</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09477942687225711</v>
+        <v>0.09477943083910174</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.99999364079747</v>
+        <v>69.9999855395582</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09509222416339963</v>
+        <v>0.09509222811687602</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.16666020147743</v>
+        <v>71.1666519652175</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09539828716715328</v>
+        <v>0.09539829110599839</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33332676215738</v>
+        <v>72.33331839087681</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09569776086759535</v>
+        <v>0.09569776479060671</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49999332283734</v>
+        <v>73.49998481653611</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09599078712740641</v>
+        <v>0.0959907910334401</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.6666598835173</v>
+        <v>74.66665124219541</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09627750475507157</v>
+        <v>0.09627750864304029</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83332644419725</v>
+        <v>75.83331766785471</v>
       </c>
       <c r="B67" t="n">
-        <v>0.096558049570635</v>
+        <v>0.09655805343950612</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99999300487721</v>
+        <v>76.99998409351402</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0968325544700388</v>
+        <v>0.09683255831883253</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665956555717</v>
+        <v>78.16665051917333</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09710114948807667</v>
+        <v>0.09710115331586425</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33332612623713</v>
+        <v>79.33331694483263</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09736396185999227</v>
+        <v>0.09736396566589424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49999268691708</v>
+        <v>80.49998337049193</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09762111608175136</v>
+        <v>0.09762111986493588</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66665924759704</v>
+        <v>81.66664979615123</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09787273396901645</v>
+        <v>0.09787273772869762</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.833325808277</v>
+        <v>82.83331622181053</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0981189347148516</v>
+        <v>0.09811893845028789</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99999236895695</v>
+        <v>83.99998264746984</v>
       </c>
       <c r="B74" t="n">
-        <v>0.098359834946185</v>
+        <v>0.09835983865667773</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16665892963692</v>
+        <v>85.16664907312915</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09859554877905594</v>
+        <v>0.09859555246394774</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33332549031688</v>
+        <v>86.33331549878845</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09882618787267231</v>
+        <v>0.09882619153134567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49999205099684</v>
+        <v>87.49998192444775</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09905186148230431</v>
+        <v>0.09905186511418018</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66665861167679</v>
+        <v>88.66664835010705</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09927267651103942</v>
+        <v>0.09927268011557584</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83332517235675</v>
+        <v>89.83331477576635</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09948873756042308</v>
+        <v>0.09948874113711384</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99999173303671</v>
+        <v>90.99998120142565</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09970014698000912</v>
+        <v>0.09970015052838249</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16665829371667</v>
+        <v>92.16664762708497</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09990700491584348</v>
+        <v>0.09990700843546094</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33332485439662</v>
+        <v>93.33331405274427</v>
       </c>
       <c r="B82" t="n">
-        <v>0.100109409357904</v>
+        <v>0.100109412848359</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49999141507658</v>
+        <v>94.49998047840357</v>
       </c>
       <c r="B83" t="n">
-        <v>0.100307456186519</v>
+        <v>0.1003074596474359</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66665797575654</v>
+        <v>95.66664690406287</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1005012392177862</v>
+        <v>0.100501242648819</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83332453643649</v>
+        <v>96.83331332972217</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1006908502480145</v>
+        <v>0.1006908536488458</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99999109711645</v>
+        <v>97.99997975538147</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1008763790972079</v>
+        <v>0.1008763824675478</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16665765779641</v>
+        <v>99.16664618104079</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1010579136516143</v>
+        <v>0.1010579169911994</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333242184764</v>
+        <v>100.3333126067001</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1012355399053576</v>
+        <v>0.10123554321395</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999907791563</v>
+        <v>101.4999790323594</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1014093420011738</v>
+        <v>0.1014093452785601</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666573398363</v>
+        <v>102.6666454580187</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1015794022702698</v>
+        <v>0.10157940551626</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.8333239005162</v>
+        <v>103.833311883678</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1017458012713242</v>
+        <v>0.1017458044857513</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999904611962</v>
+        <v>104.9999783093373</v>
       </c>
       <c r="B92" t="n">
-        <v>0.101908617828649</v>
+        <v>0.1019086210113673</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666570218762</v>
+        <v>106.1666447349966</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1020679290695285</v>
+        <v>0.1020679322204135</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333235825561</v>
+        <v>107.3333111606559</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1022238104607553</v>
+        <v>0.1022238135797025</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999901432361</v>
+        <v>108.4999775863152</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1023763358443797</v>
+        <v>0.1023763389313038</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.666656703916</v>
+        <v>109.6666440119745</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1025255774726888</v>
+        <v>0.102525580527523</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.833323264596</v>
+        <v>110.8333104376338</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1026716060424328</v>
+        <v>0.1026716090651281</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999898252759</v>
+        <v>111.9999768632931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1028144907283151</v>
+        <v>0.1028144937188393</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666563859559</v>
+        <v>113.1666432889524</v>
       </c>
       <c r="B99" t="n">
-        <v>0.10295429921576</v>
+        <v>0.1029543021740974</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333229466359</v>
+        <v>114.3333097146117</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1030910977329766</v>
+        <v>0.1030911006591269</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.4999895073158</v>
+        <v>115.499976140271</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1032249510823308</v>
+        <v>0.1032249539763087</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666560679958</v>
+        <v>116.6666425659303</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1033559226710431</v>
+        <v>0.1033559255328776</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333226286757</v>
+        <v>117.8333089915896</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1034840745412247</v>
+        <v>0.1034840773709586</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999891893557</v>
+        <v>118.9999754172489</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1036094673992676</v>
+        <v>0.1036094701969566</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666557500356</v>
+        <v>120.1666418429082</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1037321606446014</v>
+        <v>0.1037321634103135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333223107156</v>
+        <v>121.3333082685675</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1038522123978309</v>
+        <v>0.1038522151316464</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999888713956</v>
+        <v>122.4999746942269</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1039696795282691</v>
+        <v>0.1039696822302794</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666554320755</v>
+        <v>123.6666411198862</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1040846176808756</v>
+        <v>0.1040846203511831</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333219927555</v>
+        <v>124.8333075455455</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1041970813026164</v>
+        <v>0.1041970839413338</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999885534354</v>
+        <v>125.9999739712048</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1043071236682562</v>
+        <v>0.1043071262755059</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666551141154</v>
+        <v>127.1666403968641</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1044147969055942</v>
+        <v>0.1044147994815081</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333216747953</v>
+        <v>128.3333068225234</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1045201520201579</v>
+        <v>0.1045201545648768</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999882354753</v>
+        <v>129.4999732481827</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1046232389193647</v>
+        <v>0.104623241433038</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.6666547961553</v>
+        <v>130.666639673842</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1047241064361634</v>
+        <v>0.1047241089189482</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333213568352</v>
+        <v>131.8333060995013</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1048228023521664</v>
+        <v>0.1048228048042276</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999879175152</v>
+        <v>132.9999725251606</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1049193734202845</v>
+        <v>0.1049193758417944</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666544781951</v>
+        <v>134.1666389508199</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1050138653868741</v>
+        <v>0.1050138677780115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333210388751</v>
+        <v>135.3333053764792</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1051063230134071</v>
+        <v>0.1051063253743574</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999875995551</v>
+        <v>136.4999718021385</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1051967900976751</v>
+        <v>0.1051967924286299</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.666654160235</v>
+        <v>137.6666382277978</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1052853094945369</v>
+        <v>0.1052853117956934</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.833320720915</v>
+        <v>138.8333046534571</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1053719231362184</v>
+        <v>0.1053719254077792</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999872815949</v>
+        <v>139.9999710791164</v>
       </c>
       <c r="B122" t="n">
-        <v>0.105456672052177</v>
+        <v>0.1054566742943498</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666538422749</v>
+        <v>141.1666375047757</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1055395963885367</v>
+        <v>0.1055395986015342</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.3333204029549</v>
+        <v>142.333303930435</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1056207354271066</v>
+        <v>0.1056207376111456</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999869636348</v>
+        <v>143.4999703560943</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1057001276039879</v>
+        <v>0.1057001297592896</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666535243148</v>
+        <v>144.6666367817536</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1057778105277819</v>
+        <v>0.1057778126545715</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333200849947</v>
+        <v>145.8333032074129</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1058538209974057</v>
+        <v>0.1058538230959117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999866456747</v>
+        <v>146.9999696330722</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1059281950195234</v>
+        <v>0.1059281970899779</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666532063546</v>
+        <v>148.1666360587315</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1060009678256031</v>
+        <v>0.1060009698682414</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333197670346</v>
+        <v>149.3333024843908</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1060721738886063</v>
+        <v>0.1060721759036664</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999863277146</v>
+        <v>150.4999689100501</v>
       </c>
       <c r="B131" t="n">
-        <v>0.106141846939318</v>
+        <v>0.1061418489270405</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666528883945</v>
+        <v>151.6666353357094</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1062100199823248</v>
+        <v>0.106210021942953</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333194490745</v>
+        <v>152.8333017613687</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1062767253116501</v>
+        <v>0.1062767272454291</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.9999860097544</v>
+        <v>153.999968187028</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1063419945260512</v>
+        <v>0.1063419964332284</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666525704344</v>
+        <v>155.1666346126873</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1064058585439884</v>
+        <v>0.106405860424813</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333191311143</v>
+        <v>156.3333010383467</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1064683476182711</v>
+        <v>0.1064683494729938</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999856917943</v>
+        <v>157.4999674640059</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1065294913503888</v>
+        <v>0.1065294931792617</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666522524743</v>
+        <v>158.6666338896653</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1065893187045334</v>
+        <v>0.1065893205078098</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333188131542</v>
+        <v>159.8333003153245</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1066478580213198</v>
+        <v>0.1066478597992542</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999853738342</v>
+        <v>160.9999667409839</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1067051370312112</v>
+        <v>0.1067051387840589</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666519345141</v>
+        <v>162.1666331666432</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1067611828676548</v>
+        <v>0.106761184595672</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3333184951941</v>
+        <v>163.3332995923025</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1068160220799356</v>
+        <v>0.106816023783379</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.499985055874</v>
+        <v>164.4999660179618</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1068696806457526</v>
+        <v>0.1068696823248793</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.666651616554</v>
+        <v>165.6666324436211</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1069221839835247</v>
+        <v>0.1069221856385922</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.833318177234</v>
+        <v>166.8332988692804</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1069735569644317</v>
+        <v>0.1069735585956977</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999847379139</v>
+        <v>167.9999652949397</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1070238239241958</v>
+        <v>0.1070238255319179</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.1666512985939</v>
+        <v>169.166631720599</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1070730086746096</v>
+        <v>0.1070730102590456</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3333178592738</v>
+        <v>170.3332981462583</v>
       </c>
       <c r="B148" t="n">
-        <v>0.107121134514816</v>
+        <v>0.1071211360762233</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999844199538</v>
+        <v>171.4999645719176</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1071682242423451</v>
+        <v>0.1071682257809809</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666509806338</v>
+        <v>172.6666309975769</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1072143001639135</v>
+        <v>0.1072143016800346</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8333175413137</v>
+        <v>173.8332974232362</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1072593841059912</v>
+        <v>0.1072593855998539</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999841019937</v>
+        <v>174.9999638488955</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1073034974251411</v>
+        <v>0.107303498897001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666506626736</v>
+        <v>176.1666302745548</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1073466610181352</v>
+        <v>0.1073466624682474</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3333172233536</v>
+        <v>177.3332967002141</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1073888953318542</v>
+        <v>0.1073888967604728</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999837840335</v>
+        <v>178.4999631258734</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1074302203729731</v>
+        <v>0.1074302217803515</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666503447135</v>
+        <v>179.6666295515327</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1074706557174381</v>
+        <v>0.1074706571038287</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.8333169053934</v>
+        <v>180.833295977192</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1075102205197405</v>
+        <v>0.1075102218853946</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999834660734</v>
+        <v>181.9999624028513</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1075489335219899</v>
+        <v>0.1075489348671578</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666500267534</v>
+        <v>183.1666288285106</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1075868130627924</v>
+        <v>0.1075868143877233</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3333165874333</v>
+        <v>184.3332952541699</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1076238770859382</v>
+        <v>0.1076238783908799</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999831481133</v>
+        <v>185.4999616798292</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1076601431489011</v>
+        <v>0.1076601444341001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666497087932</v>
+        <v>186.6666281054885</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1076956284311559</v>
+        <v>0.1076956296968576</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8333162694732</v>
+        <v>187.8332945311478</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1077303497423165</v>
+        <v>0.1077303509887647</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999828301532</v>
+        <v>188.9999609568071</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1077643235300985</v>
+        <v>0.1077643247575355</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666493908331</v>
+        <v>190.1666273824665</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1077975658881109</v>
+        <v>0.1077975670967776</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3333159515131</v>
+        <v>191.3332938081257</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1078300925634794</v>
+        <v>0.1078300937536151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.499982512193</v>
+        <v>192.4999602337851</v>
       </c>
       <c r="B167" t="n">
-        <v>0.107861918964306</v>
+        <v>0.1078619201361484</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.666649072873</v>
+        <v>193.6666266594443</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1078930601669683</v>
+        <v>0.1078930613207534</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.833315633553</v>
+        <v>194.8332930851037</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1079235309232606</v>
+        <v>0.1079235320592228</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999821942329</v>
+        <v>195.9999595107629</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1079533456673827</v>
+        <v>0.1079533467857545</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666487549129</v>
+        <v>197.1666259364223</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1079825185227767</v>
+        <v>0.1079825196237891</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3333153155928</v>
+        <v>198.3332923620816</v>
       </c>
       <c r="B172" t="n">
-        <v>0.108011063308818</v>
+        <v>0.1080110643927001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999818762728</v>
+        <v>199.4999587877409</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1080389935473613</v>
+        <v>0.1080389946143404</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666484369527</v>
+        <v>200.6666252134002</v>
       </c>
       <c r="B174" t="n">
-        <v>0.108066322469146</v>
+        <v>0.1080663235194475</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8333149976327</v>
+        <v>201.8332916390595</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1080930630200639</v>
+        <v>0.1080930640539114</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999815583126</v>
+        <v>202.9999580647188</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1081192278672916</v>
+        <v>0.1081192288849067</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666481189926</v>
+        <v>204.1666244903781</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1081448294052909</v>
+        <v>0.1081448304068933</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3333146796726</v>
+        <v>205.3332909160374</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1081698797616803</v>
+        <v>0.1081698807474879</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999812403525</v>
+        <v>206.4999573416967</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1081943908029801</v>
+        <v>0.1081943917732087</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.6666478010325</v>
+        <v>207.666623767356</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1082183741402332</v>
+        <v>0.1082183750950968</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8333143617124</v>
+        <v>208.8332901930153</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1082418411345058</v>
+        <v>0.1082418420742162</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999809223924</v>
+        <v>209.9999566186746</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1082648029022689</v>
+        <v>0.1082648038270359</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666474830724</v>
+        <v>211.1666230443339</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1082872703206644</v>
+        <v>0.108287271230696</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3333140437523</v>
+        <v>212.3332894699932</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1083092540326576</v>
+        <v>0.1083092549281595</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999806044323</v>
+        <v>213.4999558956525</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1083307644520787</v>
+        <v>0.1083307653332549</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666471651122</v>
+        <v>214.6666223213118</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1083518117685564</v>
+        <v>0.1083518126356085</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8333137257922</v>
+        <v>215.8332887469711</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1083724059523442</v>
+        <v>0.108372406805472</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999802864722</v>
+        <v>216.9999551726304</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1083925567590437</v>
+        <v>0.1083925575984449</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666468471521</v>
+        <v>218.1666215982897</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1084122737342259</v>
+        <v>0.1084122745600961</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.3333134078321</v>
+        <v>219.333288023949</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1084315662179528</v>
+        <v>0.1084315670304856</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.499979968512</v>
+        <v>220.4999544496083</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1084504433492022</v>
+        <v>0.108450444148589</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.666646529192</v>
+        <v>221.6666208752676</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1084689140701963</v>
+        <v>0.1084689148566267</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8333130898719</v>
+        <v>222.8332873009269</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1084869871306385</v>
+        <v>0.1084869879042997</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999796505519</v>
+        <v>223.9999537265862</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1085046710918575</v>
+        <v>0.1085046718529348</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666462112319</v>
+        <v>225.1666201522455</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1085219743308631</v>
+        <v>0.1085219750795398</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3333127719118</v>
+        <v>226.3332865779049</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1085389050443145</v>
+        <v>0.1085389057807718</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999793325918</v>
+        <v>227.4999530035641</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1085554712524031</v>
+        <v>0.1085554719768201</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666458932717</v>
+        <v>228.6666194292235</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1085716808026518</v>
+        <v>0.1085716815152056</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8333124539517</v>
+        <v>229.8332858548827</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1085875413736321</v>
+        <v>0.1085875420744977</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999790146316</v>
+        <v>230.9999522805421</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1086030604786018</v>
+        <v>0.1086030611679522</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666455753116</v>
+        <v>232.1666187062014</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1086182454690639</v>
+        <v>0.1086182461470701</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3333121359915</v>
+        <v>233.3332851318607</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1086331035382493</v>
+        <v>0.1086331042050803</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.4999786966715</v>
+        <v>234.49995155752</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1086476417245241</v>
+        <v>0.1086476423803468</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666452573515</v>
+        <v>235.6666179831793</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1086618669147236</v>
+        <v>0.1086618675597029</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8333118180314</v>
+        <v>236.8332844088386</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1086757858474149</v>
+        <v>0.1086757864817137</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999783787114</v>
+        <v>237.9999508344979</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1086894051160888</v>
+        <v>0.108689405739868</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666449393913</v>
+        <v>239.1666172601572</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1087027311722833</v>
+        <v>0.1087027317857019</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3333115000713</v>
+        <v>240.3332836858165</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1087157703286398</v>
+        <v>0.1087157709318548</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999780607513</v>
+        <v>241.4999501114758</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1087285287618932</v>
+        <v>0.1087285293550596</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666446214312</v>
+        <v>242.6666165371351</v>
       </c>
       <c r="B210" t="n">
-        <v>0.108741012515798</v>
+        <v>0.1087410130990689</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8333111821112</v>
+        <v>243.8332829627944</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1087532275039913</v>
+        <v>0.1087532280775179</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999777427911</v>
+        <v>244.9999493884537</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1087651795127943</v>
+        <v>0.1087651800767257</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.1666443034711</v>
+        <v>246.166615814113</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1087768742039528</v>
+        <v>0.1087768747584364</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3333108641511</v>
+        <v>247.3332822397723</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1087883171173197</v>
+        <v>0.1087883176625009</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.499977424831</v>
+        <v>248.4999486654316</v>
       </c>
       <c r="B215" t="n">
-        <v>0.108799513673479</v>
+        <v>0.1087995142095014</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.666643985511</v>
+        <v>249.6666150910909</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1088104691763138</v>
+        <v>0.108810469703319</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8333105461909</v>
+        <v>250.8332815167502</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1088211888155185</v>
+        <v>0.1088211893336463</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999771068709</v>
+        <v>251.9999479424095</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1088316776690573</v>
+        <v>0.1088316781784457</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666436675508</v>
+        <v>253.1666143680688</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1088419407055698</v>
+        <v>0.108841941206355</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3333102282308</v>
+        <v>254.3332807937281</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1088519827867247</v>
+        <v>0.1088519832790409</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999767889107</v>
+        <v>255.4999472193874</v>
       </c>
       <c r="B221" t="n">
-        <v>0.1088618086695223</v>
+        <v>0.1088618091535022</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666433495907</v>
+        <v>256.6666136450467</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1088714230085487</v>
+        <v>0.108871423484323</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8333099102707</v>
+        <v>257.8332800707061</v>
       </c>
       <c r="B223" t="n">
-        <v>0.10888083035818</v>
+        <v>0.1088808308258777</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999764709506</v>
+        <v>258.9999464963653</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1088900351747404</v>
+        <v>0.1088900356344887</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666430316306</v>
+        <v>260.1666129220246</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1088990418186124</v>
+        <v>0.1088990422705368</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.3333095923106</v>
+        <v>261.333279347684</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1089078545563031</v>
+        <v>0.1089078550005275</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999761529905</v>
+        <v>262.4999457733433</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1089164775624649</v>
+        <v>0.1089164779991113</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666427136705</v>
+        <v>263.6666121990025</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1089249149218731</v>
+        <v>0.1089249153510619</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8333092743504</v>
+        <v>264.8332786246619</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1089331706313608</v>
+        <v>0.1089331710532107</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999758350304</v>
+        <v>265.9999450503212</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1089412486017125</v>
+        <v>0.1089412490163405</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666423957103</v>
+        <v>267.1666114759805</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1089491526595162</v>
+        <v>0.1089491530670379</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3333089563903</v>
+        <v>268.3332779016397</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1089568865489768</v>
+        <v>0.1089568869495059</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999755170703</v>
+        <v>269.4999443272991</v>
       </c>
       <c r="B233" t="n">
-        <v>0.108964453933689</v>
+        <v>0.1089644543273378</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666420777502</v>
+        <v>270.6666107529584</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1089718583983732</v>
+        <v>0.1089718587852522</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8333086384301</v>
+        <v>271.8332771786177</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1089791034505735</v>
+        <v>0.1089791038307917</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.9999751991101</v>
+        <v>272.999943604277</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1089861925223191</v>
+        <v>0.1089861928959841</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666417597901</v>
+        <v>274.1666100299363</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1089931289717506</v>
+        <v>0.1089931293389683</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3333083204701</v>
+        <v>275.3332764555956</v>
       </c>
       <c r="B238" t="n">
-        <v>0.10899991608471</v>
+        <v>0.1089999164455848</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.49997488115</v>
+        <v>276.4999428812549</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1090065570762978</v>
+        <v>0.1090065574309326</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666414418299</v>
+        <v>277.6666093069142</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1090130550923959</v>
+        <v>0.1090130554408921</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8333080025099</v>
+        <v>278.8332757325735</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1090194132111575</v>
+        <v>0.1090194135536151</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999745631899</v>
+        <v>279.9999421582328</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1090256344444659</v>
+        <v>0.1090256347809833</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666411238699</v>
+        <v>281.1666085838921</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1090317217393604</v>
+        <v>0.1090317220700348</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3333076845498</v>
+        <v>282.3332750095514</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1090376779794332</v>
+        <v>0.1090376783043601</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999742452297</v>
+        <v>283.4999414352107</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1090435059861947</v>
+        <v>0.1090435063054683</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.6666408059097</v>
+        <v>284.66660786087</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1090492085204104</v>
+        <v>0.1090492088341235</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8333073665897</v>
+        <v>285.8332742865293</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1090547882834087</v>
+        <v>0.1090547885916527</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999739272696</v>
+        <v>286.9999407121886</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1090602479183602</v>
+        <v>0.1090602482212253</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666404879496</v>
+        <v>288.1666071378479</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1090655900115304</v>
+        <v>0.1090655903091053</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3333070486295</v>
+        <v>289.3332735635072</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1090708170935043</v>
+        <v>0.1090708173858764</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999736093095</v>
+        <v>290.4999399891665</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1090759316403853</v>
+        <v>0.1090759319276407</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666401699894</v>
+        <v>291.6666064148258</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1090809360749682</v>
+        <v>0.1090809363571916</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8333067306694</v>
+        <v>292.8332728404852</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1090858327678869</v>
+        <v>0.109085833045162</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999732913494</v>
+        <v>293.9999392661445</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1090906240387373</v>
+        <v>0.1090906243111463</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666398520293</v>
+        <v>295.1666056918037</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1090953121571764</v>
+        <v>0.1090953124248003</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.3333064127092</v>
+        <v>296.333272117463</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1090998993439969</v>
+        <v>0.1090998996069154</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999729733892</v>
+        <v>297.4999385431224</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1091043877721797</v>
+        <v>0.1091043880304714</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666395340692</v>
+        <v>298.6666049687817</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1091087795679229</v>
+        <v>0.1091087798216652</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8333060947492</v>
+        <v>299.8332713944409</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1091130768116496</v>
+        <v>0.1091130770609186</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999726554291</v>
+        <v>300.9999378201003</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1091172815389924</v>
+        <v>0.1091172817838631</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.166639216109</v>
+        <v>302.1666042457596</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1091213957417587</v>
+        <v>0.109121395982305</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.333305776789</v>
+        <v>303.3332706714189</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1091254213688736</v>
+        <v>0.1091254216051683</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.499972337469</v>
+        <v>304.4999370970781</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1091293603273035</v>
+        <v>0.109129360559418</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.666638898149</v>
+        <v>305.6666035227375</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1091332144829591</v>
+        <v>0.1091332147109639</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8333054588289</v>
+        <v>306.8332699483968</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1091369856615795</v>
+        <v>0.1091369858855441</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999720195088</v>
+        <v>307.9999363740561</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1091406756495971</v>
+        <v>0.1091406758695897</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666385801888</v>
+        <v>309.1666027997154</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1091442861949838</v>
+        <v>0.1091442864110715</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3333051408688</v>
+        <v>310.3332692253747</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1091478190080788</v>
+        <v>0.1091478192203279</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.4999717015487</v>
+        <v>311.499935651034</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1091512757623991</v>
+        <v>0.1091512759708747</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666382622287</v>
+        <v>312.6666020766933</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1091546580954323</v>
+        <v>0.1091546583001985</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8333048229086</v>
+        <v>313.8332685023526</v>
       </c>
       <c r="B271" t="n">
-        <v>0.109157967609412</v>
+        <v>0.1091579678105319</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999713835886</v>
+        <v>314.9999349280119</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1091612058720768</v>
+        <v>0.1091612060696126</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666379442685</v>
+        <v>316.1666013536712</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1091643744174134</v>
+        <v>0.1091643746114261</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3333045049485</v>
+        <v>317.3332677793305</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1091674747463828</v>
+        <v>0.1091674749369324</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999710656285</v>
+        <v>318.4999342049898</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1091705083276312</v>
+        <v>0.1091705085147771</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666376263084</v>
+        <v>319.6666006306491</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1091734765981863</v>
+        <v>0.1091734767819867</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8333041869884</v>
+        <v>320.8332670563084</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1091763809641377</v>
+        <v>0.1091763811446498</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999707476683</v>
+        <v>321.9999334819677</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1091792228013026</v>
+        <v>0.1091792229785829</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.1666373083483</v>
+        <v>323.166599907627</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1091820034558783</v>
+        <v>0.1091820036299822</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3333038690283</v>
+        <v>324.3332663332863</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1091847242450793</v>
+        <v>0.1091847244160615</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999704297082</v>
+        <v>325.4999327589456</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1091873864577615</v>
+        <v>0.1091873866256756</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6666369903882</v>
+        <v>326.6665991846049</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1091899913550327</v>
+        <v>0.1091899915199317</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8333035510681</v>
+        <v>327.8332656102642</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1091925401708501</v>
+        <v>0.1091925403327859</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999701117481</v>
+        <v>328.9999320359236</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1091950341126046</v>
+        <v>0.1091950342716284</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1666366724281</v>
+        <v>330.1665984615829</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1091974743616931</v>
+        <v>0.1091974745178552</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.333303233108</v>
+        <v>331.3332648872421</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1091998620740776</v>
+        <v>0.1091998622274275</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.499969793788</v>
+        <v>332.4999313129014</v>
       </c>
       <c r="B287" t="n">
-        <v>0.1092021983808335</v>
+        <v>0.10920219853142</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6666363544679</v>
+        <v>333.6665977385608</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1092044843886847</v>
+        <v>0.1092044845365556</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8333029151479</v>
+        <v>334.8332641642201</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1092067211805284</v>
+        <v>0.1092067213257309</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999694758278</v>
+        <v>335.9999305898793</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1092089098159477</v>
+        <v>0.1092089099585281</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1666360365078</v>
+        <v>337.1665970155387</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1092110513317137</v>
+        <v>0.1092110514717176</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.3333025971878</v>
+        <v>338.333263441198</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1092131467422766</v>
+        <v>0.1092131468797489</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999691578677</v>
+        <v>339.4999298668573</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1092151970402465</v>
+        <v>0.1092151971752313</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6666357185477</v>
+        <v>340.6665962925166</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1092172031968629</v>
+        <v>0.1092172033294036</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8333022792276</v>
+        <v>341.8332627181759</v>
       </c>
       <c r="B295" t="n">
-        <v>0.1092191661624557</v>
+        <v>0.109219166292595</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999688399076</v>
+        <v>342.9999291438352</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1092210868668947</v>
+        <v>0.1092210869946745</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1666354005876</v>
+        <v>344.1665955694945</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1092229662200303</v>
+        <v>0.1092229663454919</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3333019612675</v>
+        <v>345.3332619951538</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1092248051121246</v>
+        <v>0.1092248052353086</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999685219474</v>
+        <v>346.4999284208131</v>
       </c>
       <c r="B299" t="n">
-        <v>0.109226604414273</v>
+        <v>0.1092266045352192</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6666350826274</v>
+        <v>347.6665948464724</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1092283649788168</v>
+        <v>0.1092283650975646</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8333016433074</v>
+        <v>348.8332612721317</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1092300876397472</v>
+        <v>0.1092300877563352</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.9999682039874</v>
+        <v>349.999927697791</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1068102956136357</v>
+        <v>0.1068102950997803</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1666347646673</v>
+        <v>351.1665941234503</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1044946961453664</v>
+        <v>0.1044946950522083</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3333013253472</v>
+        <v>352.3332605491096</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1022788028621467</v>
+        <v>0.1022788012375914</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999678860272</v>
+        <v>353.4999269747689</v>
       </c>
       <c r="B305" t="n">
-        <v>0.1001583225675609</v>
+        <v>0.1001583204564626</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6666344467072</v>
+        <v>354.6665934004282</v>
       </c>
       <c r="B306" t="n">
-        <v>0.09812914692369001</v>
+        <v>0.0981291443680252</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8333010073871</v>
+        <v>355.8332598260875</v>
       </c>
       <c r="B307" t="n">
-        <v>0.09618734449138629</v>
+        <v>0.09618734153041876</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999675680671</v>
+        <v>356.9999262517468</v>
       </c>
       <c r="B308" t="n">
-        <v>0.09432915311328172</v>
+        <v>0.09432914978371822</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.166634128747</v>
+        <v>358.1665926774061</v>
       </c>
       <c r="B309" t="n">
-        <v>0.09255097262477252</v>
+        <v>0.09255096896091015</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.333300689427</v>
+        <v>359.3332591030654</v>
       </c>
       <c r="B310" t="n">
-        <v>0.09084935787885756</v>
+        <v>0.09084935391272325</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.499967250107</v>
+        <v>360.4999255287248</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08922101207131651</v>
+        <v>0.08922100783279893</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.6666338107869</v>
+        <v>361.666591954384</v>
       </c>
       <c r="B312" t="n">
-        <v>0.08766278035329575</v>
+        <v>0.08766277587027008</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8333003714669</v>
+        <v>362.8332583800433</v>
       </c>
       <c r="B313" t="n">
-        <v>0.08617164371892658</v>
+        <v>0.08617163901737247</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999669321468</v>
+        <v>363.9999248057026</v>
       </c>
       <c r="B314" t="n">
-        <v>0.08474471315613322</v>
+        <v>0.08474470826024637</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.1666334928268</v>
+        <v>365.166591231362</v>
       </c>
       <c r="B315" t="n">
-        <v>0.08337922404929816</v>
+        <v>0.08337921898159577</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3333000535067</v>
+        <v>366.3332576570212</v>
       </c>
       <c r="B316" t="n">
-        <v>0.08207253082294025</v>
+        <v>0.08207252560436068</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999666141867</v>
+        <v>367.4999240826805</v>
       </c>
       <c r="B317" t="n">
-        <v>0.0808221018160277</v>
+        <v>0.08082209646602473</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6666331748667</v>
+        <v>368.6665905083399</v>
       </c>
       <c r="B318" t="n">
-        <v>0.07962551437699551</v>
+        <v>0.07962550891362737</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332997355466</v>
+        <v>369.8332569339992</v>
       </c>
       <c r="B319" t="n">
-        <v>0.07848045016996394</v>
+        <v>0.07848044460997737</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999662962265</v>
+        <v>370.9999233596585</v>
       </c>
       <c r="B320" t="n">
-        <v>0.07738469068306399</v>
+        <v>0.07738468504197375</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1666328569065</v>
+        <v>372.1665897853177</v>
       </c>
       <c r="B321" t="n">
-        <v>0.07633611293016759</v>
+        <v>0.07633610722233151</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332994175865</v>
+        <v>373.3332562109771</v>
       </c>
       <c r="B322" t="n">
-        <v>0.0753326853376948</v>
+        <v>0.07533267957638459</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999659782665</v>
+        <v>374.4999226366364</v>
       </c>
       <c r="B323" t="n">
-        <v>0.07437246380852867</v>
+        <v>0.0743724580059969</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6666325389464</v>
+        <v>375.6665890622957</v>
       </c>
       <c r="B324" t="n">
-        <v>0.07345358795541213</v>
+        <v>0.07345358212295533</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.8332990996263</v>
+        <v>376.833255487955</v>
       </c>
       <c r="B325" t="n">
-        <v>0.07257427749652884</v>
+        <v>0.07257427164454718</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999656603063</v>
+        <v>377.9999219136143</v>
       </c>
       <c r="B326" t="n">
-        <v>0.07173282880628509</v>
+        <v>0.07173282294433855</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1666322209863</v>
+        <v>379.1665883392736</v>
       </c>
       <c r="B327" t="n">
-        <v>0.07092761161460956</v>
+        <v>0.07092760575147107</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332987816663</v>
+        <v>380.3332547649329</v>
       </c>
       <c r="B328" t="n">
-        <v>0.07015706584837632</v>
+        <v>0.07015705999208177</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999653423462</v>
+        <v>381.4999211905922</v>
       </c>
       <c r="B329" t="n">
-        <v>0.06941969860883131</v>
+        <v>0.06941969276672678</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6666319030261</v>
+        <v>382.6665876162515</v>
       </c>
       <c r="B330" t="n">
-        <v>0.06871408127916623</v>
+        <v>0.06871407545795249</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332984637061</v>
+        <v>383.8332540419108</v>
       </c>
       <c r="B331" t="n">
-        <v>0.06803884675663591</v>
+        <v>0.06803884096241038</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999650243861</v>
+        <v>384.9999204675701</v>
       </c>
       <c r="B332" t="n">
-        <v>0.06739268680385645</v>
+        <v>0.06739268104215272</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.166631585066</v>
+        <v>386.1665868932294</v>
       </c>
       <c r="B333" t="n">
-        <v>0.06677434951415248</v>
+        <v>0.06677434378997757</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.333298145746</v>
+        <v>387.3332533188887</v>
       </c>
       <c r="B334" t="n">
-        <v>0.06618263688604267</v>
+        <v>0.0661826312039121</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.4999647064259</v>
+        <v>388.499919744548</v>
       </c>
       <c r="B335" t="n">
-        <v>0.06561640250216419</v>
+        <v>0.06561639686613505</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6666312671059</v>
+        <v>389.6665861702073</v>
       </c>
       <c r="B336" t="n">
-        <v>0.06507454930813915</v>
+        <v>0.0650745437218412</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332978277858</v>
+        <v>390.8332525958666</v>
       </c>
       <c r="B337" t="n">
-        <v>0.06455602748707973</v>
+        <v>0.06455602195374464</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999643884658</v>
+        <v>391.9999190215259</v>
       </c>
       <c r="B338" t="n">
-        <v>0.06405983242561376</v>
+        <v>0.06405982694810275</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1666309491458</v>
+        <v>393.1665854471852</v>
       </c>
       <c r="B339" t="n">
-        <v>0.06358500276749028</v>
+        <v>0.06358499734831993</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332975098257</v>
+        <v>394.3332518728445</v>
       </c>
       <c r="B340" t="n">
-        <v>0.06313061855099374</v>
+        <v>0.06313061319236044</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999640705057</v>
+        <v>395.4999182985038</v>
       </c>
       <c r="B341" t="n">
-        <v>0.06269579942655842</v>
+        <v>0.06269579413036122</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6666306311856</v>
+        <v>396.6665847241632</v>
       </c>
       <c r="B342" t="n">
-        <v>0.0622797029511296</v>
+        <v>0.06227969771899179</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332971918656</v>
+        <v>397.8332511498224</v>
       </c>
       <c r="B343" t="n">
-        <v>0.06188152295596695</v>
+        <v>0.06188151778925626</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999637525456</v>
+        <v>398.9999175754817</v>
       </c>
       <c r="B344" t="n">
-        <v>0.0615004879847278</v>
+        <v>0.06150048288457541</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.1666303132255</v>
+        <v>400.166584001141</v>
       </c>
       <c r="B345" t="n">
-        <v>0.06113585979880421</v>
+        <v>0.06113585476612259</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332968739055</v>
+        <v>401.3332504268004</v>
       </c>
       <c r="B346" t="n">
-        <v>0.06078693194701792</v>
+        <v>0.06078692698251754</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999634345854</v>
+        <v>402.4999168524596</v>
       </c>
       <c r="B347" t="n">
-        <v>0.06045302839690207</v>
+        <v>0.06045302350110714</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6666299952654</v>
+        <v>403.6665832781189</v>
       </c>
       <c r="B348" t="n">
-        <v>0.06013350222491777</v>
+        <v>0.06013349739818095</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332965559454</v>
+        <v>404.8332497037783</v>
       </c>
       <c r="B349" t="n">
-        <v>0.05982773436306811</v>
+        <v>0.05982772960558429</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999631166253</v>
+        <v>405.9999161294376</v>
       </c>
       <c r="B350" t="n">
-        <v>0.05953513239948089</v>
+        <v>0.05953512771130016</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1666296773053</v>
+        <v>407.1665825550969</v>
       </c>
       <c r="B351" t="n">
-        <v>0.05925512943063653</v>
+        <v>0.05925512481167627</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332962379852</v>
+        <v>408.3332489807562</v>
       </c>
       <c r="B352" t="n">
-        <v>0.05898718296301727</v>
+        <v>0.05898717841307346</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999627986652</v>
+        <v>409.4999154064155</v>
       </c>
       <c r="B353" t="n">
-        <v>0.05873077386204967</v>
+        <v>0.05873076938080755</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6666293593452</v>
+        <v>410.6665818320748</v>
       </c>
       <c r="B354" t="n">
-        <v>0.05848540534630409</v>
+        <v>0.05848540093334802</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332959200251</v>
+        <v>411.8332482577341</v>
       </c>
       <c r="B355" t="n">
-        <v>0.05825060202500233</v>
+        <v>0.05825059767982511</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999624807051</v>
+        <v>412.9999146833934</v>
       </c>
       <c r="B356" t="n">
-        <v>0.0580259089769688</v>
+        <v>0.05802590469898029</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.166629041385</v>
+        <v>414.1665811090527</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0578108908692406</v>
+        <v>0.05781088665777583</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333295602065</v>
+        <v>415.333247534712</v>
       </c>
       <c r="B358" t="n">
-        <v>0.05760513111362896</v>
+        <v>0.05760512696795566</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999621627449</v>
+        <v>416.4999139603713</v>
       </c>
       <c r="B359" t="n">
-        <v>0.0574082310595978</v>
+        <v>0.0574082269789234</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6666287234249</v>
+        <v>417.6665803860306</v>
       </c>
       <c r="B360" t="n">
-        <v>0.05721980922189573</v>
+        <v>0.05721980520537395</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332952841048</v>
+        <v>418.8332468116899</v>
       </c>
       <c r="B361" t="n">
-        <v>0.05703950054144504</v>
+        <v>0.05703949658818196</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999618447848</v>
+        <v>419.9999132373492</v>
       </c>
       <c r="B362" t="n">
-        <v>0.05686695567805573</v>
+        <v>0.05686695178711548</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1666284054647</v>
+        <v>421.1665796630085</v>
       </c>
       <c r="B363" t="n">
-        <v>0.05670184033359411</v>
+        <v>0.05670183650400413</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332949661447</v>
+        <v>422.3332460886678</v>
       </c>
       <c r="B364" t="n">
-        <v>0.05654383460429478</v>
+        <v>0.05654383083505071</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999615268247</v>
+        <v>423.4999125143271</v>
       </c>
       <c r="B365" t="n">
-        <v>0.05639263236096109</v>
+        <v>0.05639262865103133</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6666280875046</v>
+        <v>424.6665789399864</v>
       </c>
       <c r="B366" t="n">
-        <v>0.05624794065585317</v>
+        <v>0.05624793700418305</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332946481846</v>
+        <v>425.8332453656457</v>
       </c>
       <c r="B367" t="n">
-        <v>0.05610947915511449</v>
+        <v>0.05610947556063022</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.9999612088645</v>
+        <v>426.999911791305</v>
       </c>
       <c r="B368" t="n">
-        <v>0.05597697959563728</v>
+        <v>0.05597697605724951</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1666277695445</v>
+        <v>428.1665782169644</v>
       </c>
       <c r="B369" t="n">
-        <v>0.05585018526531444</v>
+        <v>0.05585018178192161</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332943302245</v>
+        <v>429.3332446426236</v>
       </c>
       <c r="B370" t="n">
-        <v>0.05572885050567109</v>
+        <v>0.0557288470761625</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999608909044</v>
+        <v>430.4999110682829</v>
       </c>
       <c r="B371" t="n">
-        <v>0.05561274023591199</v>
+        <v>0.05561273685917063</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6666274515844</v>
+        <v>431.6665774939422</v>
       </c>
       <c r="B372" t="n">
-        <v>0.05550162949746277</v>
+        <v>0.05550162617236792</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332940122643</v>
+        <v>432.8332439196016</v>
       </c>
       <c r="B373" t="n">
-        <v>0.05539530301812252</v>
+        <v>0.05539529974355215</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999605729443</v>
+        <v>433.9999103452608</v>
       </c>
       <c r="B374" t="n">
-        <v>0.05529355479498334</v>
+        <v>0.05529355156981627</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1666271336243</v>
+        <v>435.1665767709201</v>
       </c>
       <c r="B375" t="n">
-        <v>0.05519618769530864</v>
+        <v>0.05519618451842657</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332936943042</v>
+        <v>436.3332431965795</v>
       </c>
       <c r="B376" t="n">
-        <v>0.05510301307459713</v>
+        <v>0.0551030099448865</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999602549842</v>
+        <v>437.4999096222388</v>
       </c>
       <c r="B377" t="n">
-        <v>0.05501385041109234</v>
+        <v>0.05501384732744593</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.6666268156641</v>
+        <v>438.666576047898</v>
       </c>
       <c r="B378" t="n">
-        <v>0.05492852695602957</v>
+        <v>0.05492852391734807</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332933763441</v>
+        <v>439.8332424735573</v>
       </c>
       <c r="B379" t="n">
-        <v>0.05484687739894274</v>
+        <v>0.05484687440413609</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.999959937024</v>
+        <v>440.9999088992167</v>
       </c>
       <c r="B380" t="n">
-        <v>0.05476874354738256</v>
+        <v>0.05476874059537123</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166626497704</v>
+        <v>442.166575324876</v>
       </c>
       <c r="B381" t="n">
-        <v>0.05469397402042561</v>
+        <v>0.05469397111014166</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.333293058384</v>
+        <v>443.3332417505353</v>
       </c>
       <c r="B382" t="n">
-        <v>0.05462242395538034</v>
+        <v>0.05462242108576849</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999596190639</v>
+        <v>444.4999081761946</v>
       </c>
       <c r="B383" t="n">
-        <v>0.05455395472712204</v>
+        <v>0.0545539518971405</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6666261797438</v>
+        <v>445.6665746018539</v>
       </c>
       <c r="B384" t="n">
-        <v>0.05448843367951262</v>
+        <v>0.05448843088813392</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332927404238</v>
+        <v>446.8332410275132</v>
       </c>
       <c r="B385" t="n">
-        <v>0.05442573386838521</v>
+        <v>0.05442573111459688</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999593011038</v>
+        <v>447.9999074531725</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05436573381559533</v>
+        <v>0.05436573109840051</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1666258617838</v>
+        <v>449.1665738788318</v>
       </c>
       <c r="B387" t="n">
-        <v>0.05430831727366232</v>
+        <v>0.05430831459208032</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332924224637</v>
+        <v>450.3332403044911</v>
       </c>
       <c r="B388" t="n">
-        <v>0.05425337300054495</v>
+        <v>0.05425337035361166</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999589831436</v>
+        <v>451.4999067301504</v>
       </c>
       <c r="B389" t="n">
-        <v>0.05420079454411475</v>
+        <v>0.0542007919308831</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6666255438236</v>
+        <v>452.6665731558097</v>
       </c>
       <c r="B390" t="n">
-        <v>0.05415048003590974</v>
+        <v>0.05415047745544996</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.8332921045036</v>
+        <v>453.833239581469</v>
       </c>
       <c r="B391" t="n">
-        <v>0.05410233199376871</v>
+        <v>0.05410232944516861</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999586651836</v>
+        <v>454.9999060071283</v>
       </c>
       <c r="B392" t="n">
-        <v>0.05405625713296378</v>
+        <v>0.05405625461532896</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1666252258635</v>
+        <v>456.1665724327876</v>
       </c>
       <c r="B393" t="n">
-        <v>0.05401216618546531</v>
+        <v>0.05401216369791934</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332917865434</v>
+        <v>457.3332388584469</v>
       </c>
       <c r="B394" t="n">
-        <v>0.05396997372698904</v>
+        <v>0.05396997126867354</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999583472234</v>
+        <v>458.4999052841062</v>
       </c>
       <c r="B395" t="n">
-        <v>0.05392959801149019</v>
+        <v>0.05392959558156494</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6666249079034</v>
+        <v>459.6665717097655</v>
       </c>
       <c r="B396" t="n">
-        <v>0.05389096081278417</v>
+        <v>0.05389095841042708</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332914685833</v>
+        <v>460.8332381354248</v>
       </c>
       <c r="B397" t="n">
-        <v>0.05385398727298669</v>
+        <v>0.05385398489739385</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999580292633</v>
+        <v>461.9999045610841</v>
       </c>
       <c r="B398" t="n">
-        <v>0.05381860575747989</v>
+        <v>0.0538186034078655</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1666245899432</v>
+        <v>463.1665709867434</v>
       </c>
       <c r="B399" t="n">
-        <v>0.05378474771612343</v>
+        <v>0.05378474539171976</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332911506232</v>
+        <v>464.3332374124028</v>
       </c>
       <c r="B400" t="n">
-        <v>0.05375234755044157</v>
+        <v>0.05375234525049881</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.4999577113031</v>
+        <v>465.499903838062</v>
       </c>
       <c r="B401" t="n">
-        <v>0.05372134248652899</v>
+        <v>0.05372134021031517</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6666242719831</v>
+        <v>466.6665702637213</v>
       </c>
       <c r="B402" t="n">
-        <v>0.05369167245342907</v>
+        <v>0.05369167020022991</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332908326631</v>
+        <v>467.8332366893806</v>
       </c>
       <c r="B403" t="n">
-        <v>0.05366327996674909</v>
+        <v>0.05366327773586782</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.999957393343</v>
+        <v>468.99990311504</v>
       </c>
       <c r="B404" t="n">
-        <v>0.05363611001728667</v>
+        <v>0.05363610780804386</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.166623954023</v>
+        <v>470.1665695406992</v>
       </c>
       <c r="B405" t="n">
-        <v>0.05361010996445189</v>
+        <v>0.05361010777618524</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332905147029</v>
+        <v>471.3332359663585</v>
       </c>
       <c r="B406" t="n">
-        <v>0.05358522943427842</v>
+        <v>0.05358522726634254</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999570753829</v>
+        <v>472.4999023920179</v>
       </c>
       <c r="B407" t="n">
-        <v>0.05356142022182617</v>
+        <v>0.05356141807359237</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6666236360629</v>
+        <v>473.6665688176772</v>
       </c>
       <c r="B408" t="n">
-        <v>0.05353863619778633</v>
+        <v>0.05353863406864236</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332901967428</v>
+        <v>474.8332352433364</v>
       </c>
       <c r="B409" t="n">
-        <v>0.05351683321910784</v>
+        <v>0.05351683110845765</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999567574228</v>
+        <v>475.9999016689958</v>
       </c>
       <c r="B410" t="n">
-        <v>0.05349596904347216</v>
+        <v>0.05349596695073564</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1666233181027</v>
+        <v>477.1665680946551</v>
       </c>
       <c r="B411" t="n">
-        <v>0.05347600324745064</v>
+        <v>0.05347600117206334</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332898787827</v>
+        <v>478.3332345203144</v>
       </c>
       <c r="B412" t="n">
-        <v>0.05345689714818586</v>
+        <v>0.05345689508959873</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999564394627</v>
+        <v>479.4999009459736</v>
       </c>
       <c r="B413" t="n">
-        <v>0.05343861372844531</v>
+        <v>0.05343861168612442</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.6666230001426</v>
+        <v>480.666567371633</v>
       </c>
       <c r="B414" t="n">
-        <v>0.05342111756490212</v>
+        <v>0.05342111553832836</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332895608225</v>
+        <v>481.8332337972923</v>
       </c>
       <c r="B415" t="n">
-        <v>0.05340437475950389</v>
+        <v>0.05340437274817271</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999561215025</v>
+        <v>482.9999002229516</v>
       </c>
       <c r="B416" t="n">
-        <v>0.05338835287379672</v>
+        <v>0.05338835087721783</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1666226821825</v>
+        <v>484.1665666486109</v>
       </c>
       <c r="B417" t="n">
-        <v>0.05337302086607711</v>
+        <v>0.05337301888377417</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332892428624</v>
+        <v>485.3332330742702</v>
       </c>
       <c r="B418" t="n">
-        <v>0.05335834903125002</v>
+        <v>0.05335834706276035</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4999558035424</v>
+        <v>486.4998994999295</v>
       </c>
       <c r="B419" t="n">
-        <v>0.05334430894327653</v>
+        <v>0.05334430698815084</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6666223642223</v>
+        <v>487.6665659255888</v>
       </c>
       <c r="B420" t="n">
-        <v>0.05333087340009966</v>
+        <v>0.05333087145790175</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332889249023</v>
+        <v>488.8332323512481</v>
       </c>
       <c r="B421" t="n">
-        <v>0.05331801637094155</v>
+        <v>0.05331801444124799</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9999554855823</v>
+        <v>489.9998987769074</v>
       </c>
       <c r="B422" t="n">
-        <v>0.05330571294586998</v>
+        <v>0.05330571102826985</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1666220462622</v>
+        <v>491.1665652025667</v>
       </c>
       <c r="B423" t="n">
-        <v>0.05329393928753647</v>
+        <v>0.05329393738163103</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.3332886069422</v>
+        <v>492.333231628226</v>
       </c>
       <c r="B424" t="n">
-        <v>0.0532826725849924</v>
+        <v>0.05328267069039486</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4999551676221</v>
+        <v>493.4998980538853</v>
       </c>
       <c r="B425" t="n">
-        <v>0.05327189100949391</v>
+        <v>0.05327188912582909</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6666217283021</v>
+        <v>494.6665644795446</v>
       </c>
       <c r="B426" t="n">
-        <v>0.05326157367220955</v>
+        <v>0.0532615717991136</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.833288288982</v>
+        <v>495.8332309052039</v>
       </c>
       <c r="B427" t="n">
-        <v>0.05325170058374912</v>
+        <v>0.05325169872086927</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.999954849662</v>
+        <v>496.9998973308632</v>
       </c>
       <c r="B428" t="n">
-        <v>0.05324225261543514</v>
+        <v>0.0532422507624294</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.166621410342</v>
+        <v>498.1665637565225</v>
       </c>
       <c r="B429" t="n">
-        <v>0.0532332114622418</v>
+        <v>0.05323320961877871</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332879710219</v>
+        <v>499.3332301821818</v>
       </c>
       <c r="B430" t="n">
-        <v>0.05322455960732984</v>
+        <v>0.05322455777308815</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4999545317019</v>
+        <v>500.4998966078412</v>
       </c>
       <c r="B431" t="n">
-        <v>0.0532162802881084</v>
+        <v>0.05321627846277684</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6666210923818</v>
+        <v>501.6665630335004</v>
       </c>
       <c r="B432" t="n">
-        <v>0.05320835746375823</v>
+        <v>0.05320835564703525</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332876530618</v>
+        <v>502.8332294591597</v>
       </c>
       <c r="B433" t="n">
-        <v>0.05320077578415335</v>
+        <v>0.05320077397574683</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9999542137418</v>
+        <v>503.9998958848191</v>
       </c>
       <c r="B434" t="n">
-        <v>0.05319352056012078</v>
+        <v>0.05319351875974782</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1666207744217</v>
+        <v>505.1665623104784</v>
       </c>
       <c r="B435" t="n">
-        <v>0.05318657773498097</v>
+        <v>0.05318657594236759</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332873351017</v>
+        <v>506.3332287361376</v>
       </c>
       <c r="B436" t="n">
-        <v>0.05317993385731358</v>
+        <v>0.05317993207219451</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4999538957816</v>
+        <v>507.4998951617969</v>
       </c>
       <c r="B437" t="n">
-        <v>0.05317357605489591</v>
+        <v>0.05317357427701434</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6666204564616</v>
+        <v>508.6665615874563</v>
       </c>
       <c r="B438" t="n">
-        <v>0.05316749200976359</v>
+        <v>0.05316749023887092</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332870171416</v>
+        <v>509.8332280131156</v>
       </c>
       <c r="B439" t="n">
-        <v>0.05316166993434499</v>
+        <v>0.05316166817020063</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9999535778215</v>
+        <v>510.9998944387748</v>
       </c>
       <c r="B440" t="n">
-        <v>0.05315609854862339</v>
+        <v>0.05315609679099449</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1666201385015</v>
+        <v>512.1665608644341</v>
       </c>
       <c r="B441" t="n">
-        <v>0.05315076705828237</v>
+        <v>0.05315076530694364</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332866991814</v>
+        <v>513.3332272900934</v>
       </c>
       <c r="B442" t="n">
-        <v>0.05314566513379237</v>
+        <v>0.05314566338852583</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4999532598614</v>
+        <v>514.4998937157528</v>
       </c>
       <c r="B443" t="n">
-        <v>0.0531407828903976</v>
+        <v>0.05314078115099238</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6666198205413</v>
+        <v>515.6665601414121</v>
       </c>
       <c r="B444" t="n">
-        <v>0.05313611086896481</v>
+        <v>0.05313610913521694</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332863812213</v>
+        <v>516.8332265670714</v>
       </c>
       <c r="B445" t="n">
-        <v>0.05313164001765661</v>
+        <v>0.05313163828936882</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9999529419013</v>
+        <v>517.9998929927307</v>
       </c>
       <c r="B446" t="n">
-        <v>0.05312736167439393</v>
+        <v>0.05312735995137546</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.1666195025812</v>
+        <v>519.16655941839</v>
       </c>
       <c r="B447" t="n">
-        <v>0.05312326755007366</v>
+        <v>0.05312326583214003</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332860632612</v>
+        <v>520.3332258440493</v>
       </c>
       <c r="B448" t="n">
-        <v>0.05311934971250879</v>
+        <v>0.05311934799948166</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4999526239411</v>
+        <v>521.4998922697085</v>
       </c>
       <c r="B449" t="n">
-        <v>0.05311560057106024</v>
+        <v>0.05311559886276719</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6666191846211</v>
+        <v>522.6665586953679</v>
       </c>
       <c r="B450" t="n">
-        <v>0.05311201286193026</v>
+        <v>0.05311201115820463</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332857453011</v>
+        <v>523.8332251210272</v>
       </c>
       <c r="B451" t="n">
-        <v>0.05310857963408917</v>
+        <v>0.05310857793476987</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.999952305981</v>
+        <v>524.9998915466865</v>
       </c>
       <c r="B452" t="n">
-        <v>0.05310529423580804</v>
+        <v>0.05310529254073939</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.166618866661</v>
+        <v>526.1665579723458</v>
       </c>
       <c r="B453" t="n">
-        <v>0.05310215030177125</v>
+        <v>0.0531021486108028</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332854273409</v>
+        <v>527.3332243980051</v>
       </c>
       <c r="B454" t="n">
-        <v>0.05309914174074399</v>
+        <v>0.05309914005373036</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4999519880208</v>
+        <v>528.4998908236644</v>
       </c>
       <c r="B455" t="n">
-        <v>0.05309626272377071</v>
+        <v>0.05309626104057144</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6666185487009</v>
+        <v>529.6665572493238</v>
       </c>
       <c r="B456" t="n">
-        <v>0.05309350767288182</v>
+        <v>0.05309350599336122</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332851093808</v>
+        <v>530.8332236749831</v>
       </c>
       <c r="B457" t="n">
-        <v>0.05309087125028659</v>
+        <v>0.0530908695743136</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9999516700608</v>
+        <v>531.9998901006423</v>
       </c>
       <c r="B458" t="n">
-        <v>0.05308834834803147</v>
+        <v>0.05308834667547944</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1666182307407</v>
+        <v>533.1665565263016</v>
       </c>
       <c r="B459" t="n">
-        <v>0.05308593407810354</v>
+        <v>0.05308593240885021</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332847914206</v>
+        <v>534.3332229519609</v>
       </c>
       <c r="B460" t="n">
-        <v>0.05308362376296032</v>
+        <v>0.05308362209688759</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4999513521007</v>
+        <v>535.4998893776202</v>
       </c>
       <c r="B461" t="n">
-        <v>0.05308141292646716</v>
+        <v>0.053081411263461</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6666179127806</v>
+        <v>536.6665558032795</v>
       </c>
       <c r="B462" t="n">
-        <v>0.05307929728522497</v>
+        <v>0.05307929562517524</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332844734605</v>
+        <v>537.8332222289389</v>
       </c>
       <c r="B463" t="n">
-        <v>0.05307727274027126</v>
+        <v>0.05307727108307166</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9999510341405</v>
+        <v>538.9998886545982</v>
       </c>
       <c r="B464" t="n">
-        <v>0.05307533536913866</v>
+        <v>0.05307533371468653</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1666175948204</v>
+        <v>540.1665550802575</v>
       </c>
       <c r="B465" t="n">
-        <v>0.05307348141825524</v>
+        <v>0.05307347976645149</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332841555005</v>
+        <v>541.3332215059168</v>
       </c>
       <c r="B466" t="n">
-        <v>0.05307170729567218</v>
+        <v>0.05307170564642116</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.4999507161804</v>
+        <v>542.499887931576</v>
       </c>
       <c r="B467" t="n">
-        <v>0.05307000956410449</v>
+        <v>0.05307000791731388</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6666172768603</v>
+        <v>543.6665543572353</v>
       </c>
       <c r="B468" t="n">
-        <v>0.05306838493427143</v>
+        <v>0.05306838328985213</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332838375403</v>
+        <v>544.8332207828946</v>
       </c>
       <c r="B469" t="n">
-        <v>0.0530668302585237</v>
+        <v>0.05306682861638969</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.9999503982202</v>
+        <v>545.999887208554</v>
       </c>
       <c r="B470" t="n">
-        <v>0.05306534252474495</v>
+        <v>0.05306534088481327</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1666169589002</v>
+        <v>547.1665536342133</v>
       </c>
       <c r="B471" t="n">
-        <v>0.053063918850516</v>
+        <v>0.05306391721270656</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332835195802</v>
+        <v>548.3332200598726</v>
       </c>
       <c r="B472" t="n">
-        <v>0.05306255647753023</v>
+        <v>0.05306255484176578</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4999500802601</v>
+        <v>549.4998864855319</v>
       </c>
       <c r="B473" t="n">
-        <v>0.05306125276624952</v>
+        <v>0.0530612511324555</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6666166409401</v>
+        <v>550.6665529111912</v>
       </c>
       <c r="B474" t="n">
-        <v>0.05306000519079022</v>
+        <v>0.05306000355889472</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.83328320162</v>
+        <v>551.8332193368504</v>
       </c>
       <c r="B475" t="n">
-        <v>0.05305881133402938</v>
+        <v>0.05305880970396303</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9999497622999</v>
+        <v>552.9998857625097</v>
       </c>
       <c r="B476" t="n">
-        <v>0.0530576688829217</v>
+        <v>0.05305766725461757</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.16661632298</v>
+        <v>554.1665521881691</v>
       </c>
       <c r="B477" t="n">
-        <v>0.05305657562401807</v>
+        <v>0.05305657399741161</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332828836599</v>
+        <v>555.3332186138284</v>
       </c>
       <c r="B478" t="n">
-        <v>0.05305552943917715</v>
+        <v>0.0530555278142061</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4999494443399</v>
+        <v>556.4998850394877</v>
       </c>
       <c r="B479" t="n">
-        <v>0.05305452830146151</v>
+        <v>0.05305452667806582</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.6666160050198</v>
+        <v>557.666551465147</v>
       </c>
       <c r="B480" t="n">
-        <v>0.05305357027121056</v>
+        <v>0.05305356864933234</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332825656997</v>
+        <v>558.8332178908063</v>
       </c>
       <c r="B481" t="n">
-        <v>0.05305265349228256</v>
+        <v>0.05305265187186597</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9999491263798</v>
+        <v>559.9998843164656</v>
       </c>
       <c r="B482" t="n">
-        <v>0.0530517761884584</v>
+        <v>0.05305177456944958</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1666156870597</v>
+        <v>561.1665507421249</v>
       </c>
       <c r="B483" t="n">
-        <v>0.05305093666000023</v>
+        <v>0.05305093504234728</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332822477397</v>
+        <v>562.3332171677843</v>
       </c>
       <c r="B484" t="n">
-        <v>0.05305013328035837</v>
+        <v>0.05305013166401122</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4999488084196</v>
+        <v>563.4998835934435</v>
       </c>
       <c r="B485" t="n">
-        <v>0.05304936449301986</v>
+        <v>0.05304936287793025</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6666153690995</v>
+        <v>564.6665500191028</v>
       </c>
       <c r="B486" t="n">
-        <v>0.05304862880849282</v>
+        <v>0.05304862719461423</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332819297796</v>
+        <v>565.8332164447621</v>
       </c>
       <c r="B487" t="n">
-        <v>0.05304792480142062</v>
+        <v>0.0530479231887082</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9999484904595</v>
+        <v>566.9998828704214</v>
       </c>
       <c r="B488" t="n">
-        <v>0.05304725110782033</v>
+        <v>0.05304724949623084</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1666150511394</v>
+        <v>568.1665492960807</v>
       </c>
       <c r="B489" t="n">
-        <v>0.05304660642244002</v>
+        <v>0.0530466048119318</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.3332816118194</v>
+        <v>569.33321572174</v>
       </c>
       <c r="B490" t="n">
-        <v>0.05304598949622993</v>
+        <v>0.05304598788676282</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4999481724993</v>
+        <v>570.4998821473994</v>
       </c>
       <c r="B491" t="n">
-        <v>0.05304539913392251</v>
+        <v>0.05304539752545778</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6666147331794</v>
+        <v>571.6665485730587</v>
       </c>
       <c r="B492" t="n">
-        <v>0.05304483419171657</v>
+        <v>0.05304483258421692</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332812938593</v>
+        <v>572.8332149987179</v>
       </c>
       <c r="B493" t="n">
-        <v>0.05304429357506126</v>
+        <v>0.05304429196849075</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9999478545392</v>
+        <v>573.9998814243772</v>
       </c>
       <c r="B494" t="n">
-        <v>0.05304377623653545</v>
+        <v>0.05304377463085943</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1666144152192</v>
+        <v>575.1665478500365</v>
       </c>
       <c r="B495" t="n">
-        <v>0.05304328117381835</v>
+        <v>0.05304327956900342</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332809758991</v>
+        <v>576.3332142756958</v>
       </c>
       <c r="B496" t="n">
-        <v>0.05304280742774756</v>
+        <v>0.05304280582376156</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.499947536579</v>
+        <v>577.4998807013552</v>
       </c>
       <c r="B497" t="n">
-        <v>0.05304235408046078</v>
+        <v>0.05304235247727272</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6666140972591</v>
+        <v>578.6665471270145</v>
       </c>
       <c r="B498" t="n">
-        <v>0.05304192025361745</v>
+        <v>0.05304191865119746</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.833280657939</v>
+        <v>579.8332135526738</v>
       </c>
       <c r="B499" t="n">
-        <v>0.05304150510669701</v>
+        <v>0.05304150350501632</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.999947218619</v>
+        <v>580.9998799783331</v>
       </c>
       <c r="B500" t="n">
-        <v>0.05304110783537044</v>
+        <v>0.05304110623440134</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1666137792989</v>
+        <v>582.1665464039924</v>
       </c>
       <c r="B501" t="n">
-        <v>0.05304072766994192</v>
+        <v>0.05304072606965769</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332803399788</v>
+        <v>583.3332128296516</v>
       </c>
       <c r="B502" t="n">
-        <v>0.05304036387385752</v>
+        <v>0.05304036227423246</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4999469006589</v>
+        <v>584.4998792553109</v>
       </c>
       <c r="B503" t="n">
-        <v>0.05304001574227824</v>
+        <v>0.05304001414328757</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6666134613388</v>
+        <v>585.6665456809703</v>
       </c>
       <c r="B504" t="n">
-        <v>0.05303968260071435</v>
+        <v>0.05303968100233421</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332800220188</v>
+        <v>586.8332121066296</v>
       </c>
       <c r="B505" t="n">
-        <v>0.05303936380371863</v>
+        <v>0.05303936220592602</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9999465826987</v>
+        <v>587.9998785322889</v>
       </c>
       <c r="B506" t="n">
-        <v>0.05303905873363581</v>
+        <v>0.05303905713640861</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1666131433786</v>
+        <v>589.1665449579482</v>
       </c>
       <c r="B507" t="n">
-        <v>0.05303876679940596</v>
+        <v>0.05303876520272285</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332797040587</v>
+        <v>590.3332113836075</v>
       </c>
       <c r="B508" t="n">
-        <v>0.05303848743541925</v>
+        <v>0.05303848583925969</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4999462647386</v>
+        <v>591.4998778092668</v>
       </c>
       <c r="B509" t="n">
-        <v>0.05303822010042018</v>
+        <v>0.0530382185047644</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6666128254185</v>
+        <v>592.6665442349261</v>
       </c>
       <c r="B510" t="n">
-        <v>0.05303796427645885</v>
+        <v>0.0530379626812878</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332793860985</v>
+        <v>593.8332106605855</v>
       </c>
       <c r="B511" t="n">
-        <v>0.05303771946788752</v>
+        <v>0.05303771787318288</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9999459467784</v>
+        <v>594.9998770862447</v>
       </c>
       <c r="B512" t="n">
-        <v>0.05303748520040028</v>
+        <v>0.05303748360614439</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.1666125074585</v>
+        <v>596.166543511904</v>
       </c>
       <c r="B513" t="n">
-        <v>0.05303726102011411</v>
+        <v>0.05303725942628996</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332790681384</v>
+        <v>597.3332099375633</v>
       </c>
       <c r="B514" t="n">
-        <v>0.0530370464926895</v>
+        <v>0.05303704489928074</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4999456288183</v>
+        <v>598.4998763632226</v>
       </c>
       <c r="B515" t="n">
-        <v>0.05303684120248894</v>
+        <v>0.0530368396094798</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6666121894983</v>
+        <v>599.6665427888819</v>
       </c>
       <c r="B516" t="n">
-        <v>0.05303664475177164</v>
+        <v>0.05303664315914695</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332787501782</v>
+        <v>600.8332092145412</v>
       </c>
       <c r="B517" t="n">
-        <v>0.05303645675992291</v>
+        <v>0.05303645516766806</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9999453108583</v>
+        <v>601.9998756402006</v>
       </c>
       <c r="B518" t="n">
-        <v>0.05303627686271677</v>
+        <v>0.0530362752708177</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1666118715382</v>
+        <v>603.1665420658599</v>
       </c>
       <c r="B519" t="n">
-        <v>0.05303610471161022</v>
+        <v>0.0530361031200534</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332784322181</v>
+        <v>604.3332084915191</v>
       </c>
       <c r="B520" t="n">
-        <v>0.05303593997306804</v>
+        <v>0.05303593838184043</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4999449928981</v>
+        <v>605.4998749171784</v>
       </c>
       <c r="B521" t="n">
-        <v>0.05303578232791648</v>
+        <v>0.05303578073700555</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.666611553578</v>
+        <v>606.6665413428377</v>
       </c>
       <c r="B522" t="n">
-        <v>0.05303563147072497</v>
+        <v>0.05303562988011864</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833278114258</v>
+        <v>607.833207768497</v>
       </c>
       <c r="B523" t="n">
-        <v>0.05303548710921427</v>
+        <v>0.05303548551890092</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.999944674938</v>
+        <v>608.9998741941563</v>
       </c>
       <c r="B524" t="n">
-        <v>0.05303534896369027</v>
+        <v>0.05303534737365873</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1666112356179</v>
+        <v>610.1665406198157</v>
       </c>
       <c r="B525" t="n">
-        <v>0.05303521676650206</v>
+        <v>0.05303521517674155</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.3332777962979</v>
+        <v>611.333207045475</v>
       </c>
       <c r="B526" t="n">
-        <v>0.05303509026152336</v>
+        <v>0.05303508867202352</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4999443569778</v>
+        <v>612.4998734711343</v>
       </c>
       <c r="B527" t="n">
-        <v>0.05303496920365629</v>
+        <v>0.05303496761440717</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6666109176577</v>
+        <v>613.6665398967936</v>
       </c>
       <c r="B528" t="n">
-        <v>0.05303485335835654</v>
+        <v>0.05303485176934852</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332774783378</v>
+        <v>614.8332063224528</v>
       </c>
       <c r="B529" t="n">
-        <v>0.05303474250117889</v>
+        <v>0.05303474091240275</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9999440390177</v>
+        <v>615.9998727481121</v>
       </c>
       <c r="B530" t="n">
-        <v>0.05303463641734241</v>
+        <v>0.05303463482878927</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1666105996977</v>
+        <v>617.1665391737714</v>
       </c>
       <c r="B531" t="n">
-        <v>0.0530345349013143</v>
+        <v>0.05303453331297561</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332771603776</v>
+        <v>618.3332055994308</v>
       </c>
       <c r="B532" t="n">
-        <v>0.05303443775641169</v>
+        <v>0.05303443616827921</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4999437210575</v>
+        <v>619.4998720250901</v>
       </c>
       <c r="B533" t="n">
-        <v>0.05303434479442058</v>
+        <v>0.0530343432064864</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6666102817376</v>
+        <v>620.6665384507494</v>
       </c>
       <c r="B534" t="n">
-        <v>0.05303425583523116</v>
+        <v>0.05303425424748767</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332768424175</v>
+        <v>621.8332048764087</v>
       </c>
       <c r="B535" t="n">
-        <v>0.05303417070648891</v>
+        <v>0.05303416911892877</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.9999434030974</v>
+        <v>622.999871302068</v>
       </c>
       <c r="B536" t="n">
-        <v>0.05303408924326059</v>
+        <v>0.05303408765587676</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1666099637774</v>
+        <v>624.1665377277272</v>
       </c>
       <c r="B537" t="n">
-        <v>0.05303401128771477</v>
+        <v>0.05303400970050046</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332765244573</v>
+        <v>625.3332041533866</v>
       </c>
       <c r="B538" t="n">
-        <v>0.05303393668881597</v>
+        <v>0.05303393510176466</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4999430851374</v>
+        <v>626.4998705790459</v>
       </c>
       <c r="B539" t="n">
-        <v>0.0530338653020321</v>
+        <v>0.05303386371513751</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6666096458173</v>
+        <v>627.6665370047052</v>
       </c>
       <c r="B540" t="n">
-        <v>0.05303379698905437</v>
+        <v>0.05303379540231046</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332762064972</v>
+        <v>628.8332034303645</v>
       </c>
       <c r="B541" t="n">
-        <v>0.05303373161752939</v>
+        <v>0.05303373003093034</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9999427671772</v>
+        <v>629.9998698560238</v>
       </c>
       <c r="B542" t="n">
-        <v>0.05303366906080267</v>
+        <v>0.0530336674743429</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1666093278571</v>
+        <v>631.1665362816831</v>
       </c>
       <c r="B543" t="n">
-        <v>0.0530336091976733</v>
+        <v>0.05303360761134742</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332758885371</v>
+        <v>632.3332027073424</v>
       </c>
       <c r="B544" t="n">
-        <v>0.05303355191215906</v>
+        <v>0.05303355032596192</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4999424492171</v>
+        <v>633.4998691330018</v>
       </c>
       <c r="B545" t="n">
-        <v>0.05303349709327179</v>
+        <v>0.05303349550719839</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.666609009897</v>
+        <v>634.6665355586611</v>
       </c>
       <c r="B546" t="n">
-        <v>0.05303344463480229</v>
+        <v>0.05303344304884786</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.833275570577</v>
+        <v>635.8332019843203</v>
       </c>
       <c r="B547" t="n">
-        <v>0.05303339443511455</v>
+        <v>0.05303339284927448</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9999421312569</v>
+        <v>636.9998684099796</v>
       </c>
       <c r="B548" t="n">
-        <v>0.05303334639694888</v>
+        <v>0.05303334481121875</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1666086919369</v>
+        <v>638.1665348356389</v>
       </c>
       <c r="B549" t="n">
-        <v>0.05303330042723343</v>
+        <v>0.05303329884160899</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332752526169</v>
+        <v>639.3332012612982</v>
       </c>
       <c r="B550" t="n">
-        <v>0.0530332564369039</v>
+        <v>0.05303325485138104</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4999418132968</v>
+        <v>640.4998676869575</v>
       </c>
       <c r="B551" t="n">
-        <v>0.05303321434073092</v>
+        <v>0.05303321275530572</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6666083739768</v>
+        <v>641.6665341126169</v>
       </c>
       <c r="B552" t="n">
-        <v>0.05303317405715503</v>
+        <v>0.05303317247182368</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332749346567</v>
+        <v>642.8332005382762</v>
       </c>
       <c r="B553" t="n">
-        <v>0.05303313550812853</v>
+        <v>0.0530331339228874</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9999414953367</v>
+        <v>643.9998669639355</v>
       </c>
       <c r="B554" t="n">
-        <v>0.05303309861896437</v>
+        <v>0.05303309703380997</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1666080560167</v>
+        <v>645.1665333895947</v>
       </c>
       <c r="B555" t="n">
-        <v>0.05303306331819143</v>
+        <v>0.05303306173312037</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.3332746166966</v>
+        <v>646.333199815254</v>
       </c>
       <c r="B556" t="n">
-        <v>0.05303302953741598</v>
+        <v>0.05303302795242503</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4999411773765</v>
+        <v>647.4998662409133</v>
       </c>
       <c r="B557" t="n">
-        <v>0.05303299721118926</v>
+        <v>0.0530329956262753</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6666077380565</v>
+        <v>648.6665326665726</v>
       </c>
       <c r="B558" t="n">
-        <v>0.0530329662768806</v>
+        <v>0.05303296469204065</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.8332742987365</v>
+        <v>649.833199092232</v>
       </c>
       <c r="B559" t="n">
-        <v>0.05303293667455614</v>
+        <v>0.05303293508978731</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9999408594165</v>
+        <v>650.9998655178913</v>
       </c>
       <c r="B560" t="n">
-        <v>0.05303290834686267</v>
+        <v>0.0530329067621622</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1666074200964</v>
+        <v>652.1665319435506</v>
       </c>
       <c r="B561" t="n">
-        <v>0.05303288123891653</v>
+        <v>0.05303287965428174</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3332739807763</v>
+        <v>653.3331983692099</v>
       </c>
       <c r="B562" t="n">
-        <v>0.05303285529819724</v>
+        <v>0.05303285371362559</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4999405414563</v>
+        <v>654.4998647948692</v>
       </c>
       <c r="B563" t="n">
-        <v>0.05303283047444581</v>
+        <v>0.05303282888993482</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6666071021363</v>
+        <v>655.6665312205284</v>
       </c>
       <c r="B564" t="n">
-        <v>0.05303280671956728</v>
+        <v>0.0530328051351146</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8332736628163</v>
+        <v>656.8331976461877</v>
       </c>
       <c r="B565" t="n">
-        <v>0.05303278398753764</v>
+        <v>0.05303278240314098</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9999402234962</v>
+        <v>657.9998640718471</v>
       </c>
       <c r="B566" t="n">
-        <v>0.05303276223431455</v>
+        <v>0.05303276064997173</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1666067841761</v>
+        <v>659.1665304975064</v>
       </c>
       <c r="B567" t="n">
-        <v>0.05303274141775211</v>
+        <v>0.05303273983346103</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3332733448561</v>
+        <v>660.3331969231657</v>
       </c>
       <c r="B568" t="n">
-        <v>0.05303272149751913</v>
+        <v>0.05303271991327777</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.4999399055361</v>
+        <v>661.499863348825</v>
       </c>
       <c r="B569" t="n">
-        <v>0.05303270243502103</v>
+        <v>0.05303270085082745</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.666606466216</v>
+        <v>662.6665297744843</v>
       </c>
       <c r="B570" t="n">
-        <v>0.05303268419332506</v>
+        <v>0.05303268260917738</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.833273026896</v>
+        <v>663.8331962001436</v>
       </c>
       <c r="B571" t="n">
-        <v>0.05303266673708872</v>
+        <v>0.05303266515298515</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9999395875759</v>
+        <v>664.9998626258028</v>
       </c>
       <c r="B572" t="n">
-        <v>0.05303265003249132</v>
+        <v>0.05303264844843013</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1666061482559</v>
+        <v>666.1665290514622</v>
       </c>
       <c r="B573" t="n">
-        <v>0.05303263404716844</v>
+        <v>0.05303263246314797</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3332727089359</v>
+        <v>667.3331954771215</v>
       </c>
       <c r="B574" t="n">
-        <v>0.0530326187501492</v>
+        <v>0.05303261716616787</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4999392696158</v>
+        <v>668.4998619027808</v>
       </c>
       <c r="B575" t="n">
-        <v>0.05303260411179631</v>
+        <v>0.05303260252785257</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6666058302958</v>
+        <v>669.6665283284401</v>
       </c>
       <c r="B576" t="n">
-        <v>0.05303259010374858</v>
+        <v>0.05303258851984097</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8332723909757</v>
+        <v>670.8331947540994</v>
       </c>
       <c r="B577" t="n">
-        <v>0.05303257669886605</v>
+        <v>0.05303257511499315</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9999389516556</v>
+        <v>671.9998611797587</v>
       </c>
       <c r="B578" t="n">
-        <v>0.05303256387117734</v>
+        <v>0.05303256228733778</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1666055123357</v>
+        <v>673.1665276054181</v>
       </c>
       <c r="B579" t="n">
-        <v>0.05303255159582936</v>
+        <v>0.05303255001202184</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3332720730156</v>
+        <v>674.3331940310774</v>
       </c>
       <c r="B580" t="n">
-        <v>0.05303253984903916</v>
+        <v>0.05303253826526242</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4999386336956</v>
+        <v>675.4998604567367</v>
       </c>
       <c r="B581" t="n">
-        <v>0.05303252860804785</v>
+        <v>0.05303252702430068</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6666051943755</v>
+        <v>676.6665268823959</v>
       </c>
       <c r="B582" t="n">
-        <v>0.0530325178510765</v>
+        <v>0.05303251626735773</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8332717550554</v>
+        <v>677.8331933080552</v>
       </c>
       <c r="B583" t="n">
-        <v>0.05303250755728395</v>
+        <v>0.05303250597359247</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9999383157354</v>
+        <v>678.9998597337145</v>
       </c>
       <c r="B584" t="n">
-        <v>0.05303249770672642</v>
+        <v>0.05303249612306116</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1666048764154</v>
+        <v>680.1665261593738</v>
       </c>
       <c r="B585" t="n">
-        <v>0.05303248828031889</v>
+        <v>0.05303248669667881</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3332714370954</v>
+        <v>681.3331925850332</v>
       </c>
       <c r="B586" t="n">
-        <v>0.0530324792597981</v>
+        <v>0.05303247767618222</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4999379977753</v>
+        <v>682.4998590106925</v>
       </c>
       <c r="B587" t="n">
-        <v>0.05303247062768719</v>
+        <v>0.05303246904409455</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6666045584552</v>
+        <v>683.6665254363518</v>
       </c>
       <c r="B588" t="n">
-        <v>0.05303246236726183</v>
+        <v>0.05303246078369152</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8332711191352</v>
+        <v>684.8331918620111</v>
       </c>
       <c r="B589" t="n">
-        <v>0.0530324544625178</v>
+        <v>0.05303245287896894</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9999376798152</v>
+        <v>685.9998582876703</v>
       </c>
       <c r="B590" t="n">
-        <v>0.05303244689814</v>
+        <v>0.05303244531461175</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1666042404951</v>
+        <v>687.1665247133296</v>
       </c>
       <c r="B591" t="n">
-        <v>0.05303243965947279</v>
+        <v>0.05303243807596433</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3332708011751</v>
+        <v>688.3331911389889</v>
       </c>
       <c r="B592" t="n">
-        <v>0.05303243273249156</v>
+        <v>0.05303243114900211</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.499937361855</v>
+        <v>689.4998575646483</v>
       </c>
       <c r="B593" t="n">
-        <v>0.05303242610377559</v>
+        <v>0.05303242452030439</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.666603922535</v>
+        <v>690.6665239903076</v>
       </c>
       <c r="B594" t="n">
-        <v>0.05303241976048202</v>
+        <v>0.05303241817702837</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.833270483215</v>
+        <v>691.8331904159669</v>
       </c>
       <c r="B595" t="n">
-        <v>0.05303241369032102</v>
+        <v>0.05303241210688421</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9999370438949</v>
+        <v>692.9998568416262</v>
       </c>
       <c r="B596" t="n">
-        <v>0.05303240788153189</v>
+        <v>0.05303240629811127</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1666036045749</v>
+        <v>694.1665232672855</v>
       </c>
       <c r="B597" t="n">
-        <v>0.05303240232286038</v>
+        <v>0.0530324007394553</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3332701652548</v>
+        <v>695.3331896929448</v>
       </c>
       <c r="B598" t="n">
-        <v>0.05303239700353679</v>
+        <v>0.05303239542014664</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.4999367259348</v>
+        <v>696.499856118604</v>
       </c>
       <c r="B599" t="n">
-        <v>0.05303239191325517</v>
+        <v>0.05303239032987936</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6666032866148</v>
+        <v>697.6665225442634</v>
       </c>
       <c r="B600" t="n">
-        <v>0.05303238704215332</v>
+        <v>0.05303238545879128</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8332698472947</v>
+        <v>698.8331889699227</v>
       </c>
       <c r="B601" t="n">
-        <v>0.0530323823807937</v>
+        <v>0.05303238079744489</v>
       </c>
     </row>
   </sheetData>

--- a/wpercentage.xlsx
+++ b/wpercentage.xlsx
@@ -450,4799 +450,4799 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05683838572271892</v>
+        <v>0.0526743812154182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666425659303</v>
+        <v>1.017377804163516</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05796802498641812</v>
+        <v>0.05377983824263338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333332851318607</v>
+        <v>2.034755608327031</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05907334397172993</v>
+        <v>0.05486371750266332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.49999927697791</v>
+        <v>3.052133412490547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0601548662758414</v>
+        <v>0.05592644017880618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666665702637213</v>
+        <v>4.069511216654062</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0612131042232884</v>
+        <v>0.05696841923314942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332128296517</v>
+        <v>5.086889020817578</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0622485591086473</v>
+        <v>0.0579900595670422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.99999855395582</v>
+        <v>6.104266824981093</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06326172143400166</v>
+        <v>0.05899175817843554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166664979615124</v>
+        <v>7.121644629144608</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06425307114129639</v>
+        <v>0.0599739043161512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333331405274427</v>
+        <v>8.139022433308124</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06522307783968957</v>
+        <v>0.06093687963113945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999783093373</v>
+        <v>9.15640023747164</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06617220102800955</v>
+        <v>0.06188105832478431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666425659303</v>
+        <v>10.17377804163516</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06710089031242265</v>
+        <v>0.06280680729431401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333068225234</v>
+        <v>11.19115584579867</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06800958561941473</v>
+        <v>0.06371448627537314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999710791164</v>
+        <v>12.20853364996219</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06889871740418733</v>
+        <v>0.06460444798181188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666353357094</v>
+        <v>13.2259114541257</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06976870685456735</v>
+        <v>0.06547703824274657</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33332995923025</v>
+        <v>14.24328925828922</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07061996609052647</v>
+        <v>0.06633259613694514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999638488955</v>
+        <v>15.26066706245273</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07145289835940535</v>
+        <v>0.06717145412458921</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666281054885</v>
+        <v>16.27804486661625</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07226789822693459</v>
+        <v>0.0679939381764644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83332923620816</v>
+        <v>17.29542267077976</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07306535176414322</v>
+        <v>0.06880036790062898</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999566186746</v>
+        <v>18.31280047494328</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07384563673024322</v>
+        <v>0.06959105666660984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.16666208752676</v>
+        <v>19.3301782791068</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07460912275157665</v>
+        <v>0.07036631172717447</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33332851318607</v>
+        <v>20.34755608327031</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07535617149671014</v>
+        <v>0.07112643433772595</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999493884537</v>
+        <v>21.36493388743382</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07608713684775985</v>
+        <v>0.0718717198733673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666136450467</v>
+        <v>22.38231169159734</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07680236506802778</v>
+        <v>0.07260245794368102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83332779016398</v>
+        <v>23.39968949576086</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07750219496602911</v>
+        <v>0.07331893250526808</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999421582328</v>
+        <v>24.41706729992437</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07818695805598815</v>
+        <v>0.0740214219720903</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666064148258</v>
+        <v>25.43444510408789</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07885697871487882</v>
+        <v>0.07471019932365883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.33332706714189</v>
+        <v>26.4518229082514</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0795125743360843</v>
+        <v>0.07538553221111095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999349280119</v>
+        <v>27.46920071241492</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08015405547974848</v>
+        <v>0.07604768306121633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.6666599184605</v>
+        <v>28.48657851657843</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08078172601989035</v>
+        <v>0.07669690917835305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.8333263441198</v>
+        <v>29.50395632074195</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08139588328835129</v>
+        <v>0.07733346284449323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.9999927697791</v>
+        <v>30.52133412490547</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08199681821564317</v>
+        <v>0.07795759141723699</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16665919543841</v>
+        <v>31.53871192906898</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0825848154687641</v>
+        <v>0.07856953742593278</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332562109771</v>
+        <v>32.5560897332325</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0831601535860472</v>
+        <v>0.07916953866592162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999204675701</v>
+        <v>33.57346753739601</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08372310510910606</v>
+        <v>0.07975782829094162</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66665847241632</v>
+        <v>34.59084534155953</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08427393671193964</v>
+        <v>0.08033463490372897</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332489807562</v>
+        <v>35.60822314572304</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08481290932725749</v>
+        <v>0.08090018264485038</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999132373492</v>
+        <v>36.62560094988656</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08534027827008543</v>
+        <v>0.08145469127980155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16665774939423</v>
+        <v>37.64297875405008</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08585629335871001</v>
+        <v>0.08199837628440562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.33332417505353</v>
+        <v>38.66035655821359</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08636119903301913</v>
+        <v>0.08253144892854462</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999060071283</v>
+        <v>39.67773436237711</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08685523447029492</v>
+        <v>0.08305411635825659</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66665702637214</v>
+        <v>40.69511216654062</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08733863369851363</v>
+        <v>0.08356658167623017</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332345203144</v>
+        <v>41.71248997070413</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08781162570720633</v>
+        <v>0.08406904402072805</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99998987769074</v>
+        <v>42.72986777486765</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08827443455593276</v>
+        <v>0.08456169864296989</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16665630335005</v>
+        <v>43.74724557903117</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08872727948041995</v>
+        <v>0.08504473698300467</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332272900935</v>
+        <v>44.76462338319468</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08917037499641564</v>
+        <v>0.08551834674410223</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.49998915466865</v>
+        <v>45.7820011873582</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08960393100130587</v>
+        <v>0.08598271196569257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66665558032796</v>
+        <v>46.79937899152171</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09002815287354483</v>
+        <v>0.08643801309488157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332200598726</v>
+        <v>47.81675679568523</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09044324156994403</v>
+        <v>0.08688442705657065</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99998843164656</v>
+        <v>48.83413459984875</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09084939372086691</v>
+        <v>0.08732212732220784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16665485730586</v>
+        <v>49.85151240401226</v>
       </c>
       <c r="B51" t="n">
-        <v>0.091246801723374</v>
+        <v>0.08775128397719685</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332128296517</v>
+        <v>50.86889020817578</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09163565383236276</v>
+        <v>0.08817206378699027</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49998770862447</v>
+        <v>51.88626801233929</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09201613424974515</v>
+        <v>0.08858463026189284</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.66665413428377</v>
+        <v>52.90364581650281</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0923884232117054</v>
+        <v>0.08898914372059964</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332055994308</v>
+        <v>53.92102362066633</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0927526970740791</v>
+        <v>0.08938576135249419</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99998698560238</v>
+        <v>54.93840142482984</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09310912839589418</v>
+        <v>0.08977463727873046</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16665341126168</v>
+        <v>55.95577922899336</v>
       </c>
       <c r="B57" t="n">
-        <v>0.09345788602111328</v>
+        <v>0.0901559226121226</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33331983692099</v>
+        <v>56.97315703315687</v>
       </c>
       <c r="B58" t="n">
-        <v>0.09379913515861633</v>
+        <v>0.0905297655158657</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.49998626258029</v>
+        <v>57.99053483732038</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09413303746046112</v>
+        <v>0.09089631126111034</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66665268823959</v>
+        <v>59.0079126414839</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09445975109845894</v>
+        <v>0.09125570228341333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.8333191138989</v>
+        <v>60.02529044564741</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09477943083910174</v>
+        <v>0.09160807823808655</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.9999855395582</v>
+        <v>61.04266824981093</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09509222811687602</v>
+        <v>0.09195357605446544</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.1666519652175</v>
+        <v>62.06004605397445</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09539829110599839</v>
+        <v>0.09229232998911822</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33331839087681</v>
+        <v>63.07742385813796</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09569776479060671</v>
+        <v>0.09262447167801648</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49998481653611</v>
+        <v>64.09480166230148</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0959907910334401</v>
+        <v>0.09295013018768739</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.66665124219541</v>
+        <v>65.11217946646499</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09627750864304029</v>
+        <v>0.09326943206536757</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83331766785471</v>
+        <v>66.12955727062851</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09655805343950612</v>
+        <v>0.09358250138817789</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99998409351402</v>
+        <v>67.14693507479203</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09683255831883253</v>
+        <v>0.09388945981133845</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665051917333</v>
+        <v>68.16431287895554</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09710115331586425</v>
+        <v>0.09419042661544241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33331694483263</v>
+        <v>69.18169068311906</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09736396566589424</v>
+        <v>0.09448551875280714</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49998337049193</v>
+        <v>70.19906848728257</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09762111986493588</v>
+        <v>0.09477485089292051</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66664979615123</v>
+        <v>71.21644629144609</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09787273772869762</v>
+        <v>0.09505853546700022</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.83331622181053</v>
+        <v>72.23382409560961</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09811893845028789</v>
+        <v>0.09533668271168326</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99998264746984</v>
+        <v>73.25120189977312</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09835983865667773</v>
+        <v>0.09560940071186269</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16664907312915</v>
+        <v>74.26857970393664</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09859555246394774</v>
+        <v>0.09587679544268816</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33331549878845</v>
+        <v>75.28595750810015</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09882619153134567</v>
+        <v>0.09613897081074668</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49998192444775</v>
+        <v>76.30333531226367</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09905186511418018</v>
+        <v>0.09639602869443956</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66664835010705</v>
+        <v>77.32071311642719</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09927268011557584</v>
+        <v>0.09664806898357117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83331477576635</v>
+        <v>78.3380909205907</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09948874113711384</v>
+        <v>0.09689518961816508</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99998120142565</v>
+        <v>79.35546872475422</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09970015052838249</v>
+        <v>0.09713748662652237</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16664762708497</v>
+        <v>80.37284652891773</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09990700843546094</v>
+        <v>0.09737505416253718</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33331405274427</v>
+        <v>81.39022433308125</v>
       </c>
       <c r="B82" t="n">
-        <v>0.100109412848359</v>
+        <v>0.09760798454228385</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49998047840357</v>
+        <v>82.40760213724475</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1003074596474359</v>
+        <v>0.09783636827988994</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66664690406287</v>
+        <v>83.42497994140827</v>
       </c>
       <c r="B84" t="n">
-        <v>0.100501242648819</v>
+        <v>0.09806029412270895</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83331332972217</v>
+        <v>84.44235774557178</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1006908536488458</v>
+        <v>0.09827984908580659</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99997975538147</v>
+        <v>85.4597355497353</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1008763824675478</v>
+        <v>0.09849511848577382</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16664618104079</v>
+        <v>86.47711335389882</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1010579169911994</v>
+        <v>0.09870618597387994</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333126067001</v>
+        <v>87.49449115806233</v>
       </c>
       <c r="B88" t="n">
-        <v>0.10123554321395</v>
+        <v>0.09891313356857853</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999790323594</v>
+        <v>88.51186896222585</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1014093452785601</v>
+        <v>0.09911604168737891</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666454580187</v>
+        <v>89.52924676638936</v>
       </c>
       <c r="B90" t="n">
-        <v>0.10157940551626</v>
+        <v>0.09931498917809543</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.833311883678</v>
+        <v>90.54662457055288</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1017458044857513</v>
+        <v>0.09951005334948694</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999783093373</v>
+        <v>91.5640023747164</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1019086210113673</v>
+        <v>0.09970131000129799</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666447349966</v>
+        <v>92.58138017887991</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1020679322204135</v>
+        <v>0.09988883345371385</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333111606559</v>
+        <v>93.59875798304343</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1022238135797025</v>
+        <v>0.1000726965762405</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999775863152</v>
+        <v>94.61613578720694</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1023763389313038</v>
+        <v>0.1002529708160207</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.6666440119745</v>
+        <v>95.63351359137046</v>
       </c>
       <c r="B96" t="n">
-        <v>0.102525580527523</v>
+        <v>0.1004297262255979</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.8333104376338</v>
+        <v>96.65089139553398</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1026716090651281</v>
+        <v>0.1006030314901377</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999768632931</v>
+        <v>97.66826919969749</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1028144937188393</v>
+        <v>0.1007729539541179</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666432889524</v>
+        <v>98.68564700386101</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1029543021740974</v>
+        <v>0.1009395596474983</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333097146117</v>
+        <v>99.70302480802452</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1030911006591269</v>
+        <v>0.1011029133113786</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.499976140271</v>
+        <v>100.720402612188</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1032249539763087</v>
+        <v>0.1012630784231567</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666425659303</v>
+        <v>101.7377804163516</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1033559255328776</v>
+        <v>0.1014201172211948</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333089915896</v>
+        <v>102.7551582205151</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1034840773709586</v>
+        <v>0.1015740907290048</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999754172489</v>
+        <v>103.7725360246786</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1036094701969566</v>
+        <v>0.1017250587789612</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666418429082</v>
+        <v>104.7899138288421</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1037321634103135</v>
+        <v>0.1018730800355515</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333082685675</v>
+        <v>105.8072916330056</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1038522151316464</v>
+        <v>0.1020182120181722</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999746942269</v>
+        <v>106.8246694371691</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1039696822302794</v>
+        <v>0.1021605111234807</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666411198862</v>
+        <v>107.8420472413327</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1040846203511831</v>
+        <v>0.1023000326473097</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333075455455</v>
+        <v>108.8594250454962</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1041970839413338</v>
+        <v>0.1024368308061555</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999739712048</v>
+        <v>109.8768028496597</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1043071262755059</v>
+        <v>0.1025709587582448</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666403968641</v>
+        <v>110.8941806538232</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1044147994815081</v>
+        <v>0.1027024686241925</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333068225234</v>
+        <v>111.9115584579867</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1045201545648768</v>
+        <v>0.1028314115072542</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999732481827</v>
+        <v>112.9289362621502</v>
       </c>
       <c r="B113" t="n">
-        <v>0.104623241433038</v>
+        <v>0.1029578375131851</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.666639673842</v>
+        <v>113.9463140663137</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1047241089189482</v>
+        <v>0.1030817957697101</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333060995013</v>
+        <v>114.9636918704772</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1048228048042276</v>
+        <v>0.1032033344456146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999725251606</v>
+        <v>115.9810696746408</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1049193758417944</v>
+        <v>0.1033225007694618</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666389508199</v>
+        <v>116.9984474788043</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1050138677780115</v>
+        <v>0.1034393410479458</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333053764792</v>
+        <v>118.0158252829678</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1051063253743574</v>
+        <v>0.1035539006838857</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999718021385</v>
+        <v>119.0332030871313</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1051967924286299</v>
+        <v>0.1036662241938685</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.6666382277978</v>
+        <v>120.0505808912948</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1052853117956934</v>
+        <v>0.1037763552255475</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.8333046534571</v>
+        <v>121.0679586954583</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1053719254077792</v>
+        <v>0.1038843365746039</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999710791164</v>
+        <v>122.0853364996219</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1054566742943498</v>
+        <v>0.1039902102013763</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666375047757</v>
+        <v>123.1027143037854</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1055395986015342</v>
+        <v>0.104094017247166</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.333303930435</v>
+        <v>124.1200921079489</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1056207376111456</v>
+        <v>0.1041957980502244</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999703560943</v>
+        <v>125.1374699121124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1057001297592896</v>
+        <v>0.1042955921614276</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666367817536</v>
+        <v>126.1548477162759</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1057778126545715</v>
+        <v>0.1043934383596454</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333032074129</v>
+        <v>127.1722255204394</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1058538230959117</v>
+        <v>0.1044893746668108</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999696330722</v>
+        <v>128.189603324603</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1059281970899779</v>
+        <v>0.1045834383626945</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666360587315</v>
+        <v>129.2069811287665</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1060009698682414</v>
+        <v>0.1046756659993914</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333024843908</v>
+        <v>130.22435893293</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1060721759036664</v>
+        <v>0.1047660934155247</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999689100501</v>
+        <v>131.2417367370935</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1061418489270405</v>
+        <v>0.1048547557501718</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666353357094</v>
+        <v>132.259114541257</v>
       </c>
       <c r="B132" t="n">
-        <v>0.106210021942953</v>
+        <v>0.1049416874565194</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333017613687</v>
+        <v>133.2764923454205</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1062767272454291</v>
+        <v>0.1050269223152516</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.999968187028</v>
+        <v>134.2938701495841</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1063419964332284</v>
+        <v>0.1051104934476765</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666346126873</v>
+        <v>135.3112479537476</v>
       </c>
       <c r="B135" t="n">
-        <v>0.106405860424813</v>
+        <v>0.1051924333285968</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333010383467</v>
+        <v>136.3286257579111</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1064683494729938</v>
+        <v>0.1052727737989294</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999674640059</v>
+        <v>137.3460035620746</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1065294931792617</v>
+        <v>0.1053515460780779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666338896653</v>
+        <v>138.3633813662381</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1065893205078098</v>
+        <v>0.1054287807760647</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333003153245</v>
+        <v>139.3807591704016</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1066478597992542</v>
+        <v>0.1055045079054253</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999667409839</v>
+        <v>140.3981369745651</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1067051387840589</v>
+        <v>0.1055787568928712</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666331666432</v>
+        <v>141.4155147787287</v>
       </c>
       <c r="B141" t="n">
-        <v>0.106761184595672</v>
+        <v>0.1056515565907242</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3332995923025</v>
+        <v>142.4328925828922</v>
       </c>
       <c r="B142" t="n">
-        <v>0.106816023783379</v>
+        <v>0.1057229352881288</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.4999660179618</v>
+        <v>143.4502703870557</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1068696823248793</v>
+        <v>0.1057929207220445</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.6666324436211</v>
+        <v>144.4676481912192</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1069221856385922</v>
+        <v>0.1058615400880242</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.8332988692804</v>
+        <v>145.4850259953827</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1069735585956977</v>
+        <v>0.1059288200507825</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999652949397</v>
+        <v>146.5024037995462</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1070238255319179</v>
+        <v>0.1059947867545565</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.166631720599</v>
+        <v>147.5197816037098</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1070730102590456</v>
+        <v>0.106059465833266</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3332981462583</v>
+        <v>148.5371594078733</v>
       </c>
       <c r="B148" t="n">
-        <v>0.1071211360762233</v>
+        <v>0.106122882420474</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999645719176</v>
+        <v>149.5545372120368</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1071682257809809</v>
+        <v>0.1061850611591535</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666309975769</v>
+        <v>150.5719150162003</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1072143016800346</v>
+        <v>0.1062460262112635</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8332974232362</v>
+        <v>151.5892928203638</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1072593855998539</v>
+        <v>0.106305801267138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999638488955</v>
+        <v>152.6066706245273</v>
       </c>
       <c r="B152" t="n">
-        <v>0.107303498897001</v>
+        <v>0.1063644095546919</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666302745548</v>
+        <v>153.6240484286909</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1073466624682474</v>
+        <v>0.106421873848447</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3332967002141</v>
+        <v>154.6414262328544</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1073888967604728</v>
+        <v>0.106478216478382</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999631258734</v>
+        <v>155.6588040370179</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1074302217803515</v>
+        <v>0.1065334593386097</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666295515327</v>
+        <v>156.6761818411814</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1074706571038287</v>
+        <v>0.1065876238958845</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.833295977192</v>
+        <v>157.6935596453449</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1075102218853946</v>
+        <v>0.1066407311979447</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999624028513</v>
+        <v>158.7109374495084</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1075489348671578</v>
+        <v>0.1066928018816909</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666288285106</v>
+        <v>159.728315253672</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1075868143877233</v>
+        <v>0.1067438561812057</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3332952541699</v>
+        <v>160.7456930578355</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1076238783908799</v>
+        <v>0.106793913935616</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999616798292</v>
+        <v>161.763070861999</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1076601444341001</v>
+        <v>0.1068429945968024</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666281054885</v>
+        <v>162.7804486661625</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1076956296968576</v>
+        <v>0.1068911172369583</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8332945311478</v>
+        <v>163.797826470326</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1077303509887647</v>
+        <v>0.1069383005560009</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999609568071</v>
+        <v>164.8152042744895</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1077643247575355</v>
+        <v>0.1069845628888375</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666273824665</v>
+        <v>165.832582078653</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1077975670967776</v>
+        <v>0.1070299222124907</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3332938081257</v>
+        <v>166.8499598828165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1078300937536151</v>
+        <v>0.107074396153084</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.4999602337851</v>
+        <v>167.8673376869801</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1078619201361484</v>
+        <v>0.1071180019926906</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.6666266594443</v>
+        <v>168.8847154911436</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1078930613207534</v>
+        <v>0.1071607566760499</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.8332930851037</v>
+        <v>169.9020932953071</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1079235320592228</v>
+        <v>0.1072026768171512</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999595107629</v>
+        <v>170.9194710994706</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1079533467857545</v>
+        <v>0.1072437787056901</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666259364223</v>
+        <v>171.9368489036341</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1079825196237891</v>
+        <v>0.1072840783133987</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3332923620816</v>
+        <v>172.9542267077976</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1080110643927001</v>
+        <v>0.1073235913002514</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999587877409</v>
+        <v>173.9716045119611</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1080389946143404</v>
+        <v>0.107362333020551</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666252134002</v>
+        <v>174.9889823161247</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1080663235194475</v>
+        <v>0.1074003185288944</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8332916390595</v>
+        <v>176.0063601202882</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1080930640539114</v>
+        <v>0.1074375625860232</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999580647188</v>
+        <v>177.0237379244517</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1081192288849067</v>
+        <v>0.1074740796645595</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666244903781</v>
+        <v>178.0411157286152</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1081448304068933</v>
+        <v>0.1075098839546296</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3332909160374</v>
+        <v>179.0584935327787</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1081698807474879</v>
+        <v>0.1075449893693781</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999573416967</v>
+        <v>180.0758713369422</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1081943917732087</v>
+        <v>0.1075794095503747</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.666623767356</v>
+        <v>181.0932491411058</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1082183750950968</v>
+        <v>0.1076131578729147</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8332901930153</v>
+        <v>182.1106269452693</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1082418420742162</v>
+        <v>0.1076462474512171</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999566186746</v>
+        <v>183.1280047494328</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1082648038270359</v>
+        <v>0.1076786911435201</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666230443339</v>
+        <v>184.1453825535963</v>
       </c>
       <c r="B183" t="n">
-        <v>0.108287271230696</v>
+        <v>0.1077105015570778</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3332894699932</v>
+        <v>185.1627603577598</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1083092549281595</v>
+        <v>0.1077416910530594</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999558956525</v>
+        <v>186.1801381619233</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1083307653332549</v>
+        <v>0.1077722717513524</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666223213118</v>
+        <v>187.1975159660869</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1083518126356085</v>
+        <v>0.1078022555352727</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8332887469711</v>
+        <v>188.2148937702504</v>
       </c>
       <c r="B187" t="n">
-        <v>0.108372406805472</v>
+        <v>0.1078316540561814</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999551726304</v>
+        <v>189.2322715744139</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1083925575984449</v>
+        <v>0.1078604787380136</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666215982897</v>
+        <v>190.2496493785774</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1084122745600961</v>
+        <v>0.1078887407817165</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.333288023949</v>
+        <v>191.2670271827409</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1084315670304856</v>
+        <v>0.1079164511696026</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.4999544496083</v>
+        <v>192.2844049869044</v>
       </c>
       <c r="B191" t="n">
-        <v>0.108450444148589</v>
+        <v>0.1079436206696174</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.6666208752676</v>
+        <v>193.301782791068</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1084689148566267</v>
+        <v>0.107970259839523</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8332873009269</v>
+        <v>194.3191605952315</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1084869879042997</v>
+        <v>0.1079963790310015</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999537265862</v>
+        <v>195.336538399395</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1085046718529348</v>
+        <v>0.1080219883936771</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666201522455</v>
+        <v>196.3539162035585</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1085219750795398</v>
+        <v>0.1080470978790605</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3332865779049</v>
+        <v>197.371294007722</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1085389057807718</v>
+        <v>0.1080717172444152</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999530035641</v>
+        <v>198.3886718118855</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1085554719768201</v>
+        <v>0.1080958560565501</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666194292235</v>
+        <v>199.406049616049</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1085716815152056</v>
+        <v>0.1081195236955362</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8332858548827</v>
+        <v>200.4234274202126</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1085875420744977</v>
+        <v>0.108142729358352</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999522805421</v>
+        <v>201.4408052243761</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1086030611679522</v>
+        <v>0.1081654820624572</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666187062014</v>
+        <v>202.4581830285396</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1086182461470701</v>
+        <v>0.1081877906492969</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3332851318607</v>
+        <v>203.4755608327031</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1086331042050803</v>
+        <v>0.1082096637877373</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.49995155752</v>
+        <v>204.4929386368666</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1086476423803468</v>
+        <v>0.1082311099774341</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666179831793</v>
+        <v>205.5103164410301</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1086618675597029</v>
+        <v>0.1082521375521356</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8332844088386</v>
+        <v>206.5276942451937</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1086757864817137</v>
+        <v>0.1082727546829209</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999508344979</v>
+        <v>207.5450720493572</v>
       </c>
       <c r="B206" t="n">
-        <v>0.108689405739868</v>
+        <v>0.1082929693813754</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666172601572</v>
+        <v>208.5624498535207</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1087027317857019</v>
+        <v>0.1083127895027036</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3332836858165</v>
+        <v>209.5798276576842</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1087157709318548</v>
+        <v>0.108332222748782</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999501114758</v>
+        <v>210.5972054618477</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1087285293550596</v>
+        <v>0.1083512766711516</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666165371351</v>
+        <v>211.6145832660112</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1087410130990689</v>
+        <v>0.1083699586739524</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8332829627944</v>
+        <v>212.6319610701748</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1087532280775179</v>
+        <v>0.1083882760168007</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999493884537</v>
+        <v>213.6493388743383</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1087651800767257</v>
+        <v>0.1084062358176101</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.166615814113</v>
+        <v>214.6667166785018</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1087768747584364</v>
+        <v>0.1084238450553573</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3332822397723</v>
+        <v>215.6840944826653</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1087883176625009</v>
+        <v>0.1084411105727943</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.4999486654316</v>
+        <v>216.7014722868288</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1087995142095014</v>
+        <v>0.1084580390791069</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.6666150910909</v>
+        <v>217.7188500909923</v>
       </c>
       <c r="B216" t="n">
-        <v>0.108810469703319</v>
+        <v>0.1084746371525226</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8332815167502</v>
+        <v>218.7362278951558</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1088211893336463</v>
+        <v>0.108490911242866</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999479424095</v>
+        <v>219.7536056993194</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1088316781784457</v>
+        <v>0.1085068676740658</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666143680688</v>
+        <v>220.7709835034829</v>
       </c>
       <c r="B219" t="n">
-        <v>0.108841941206355</v>
+        <v>0.1085225126466118</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3332807937281</v>
+        <v>221.7883613076464</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1088519832790409</v>
+        <v>0.1085378522399645</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999472193874</v>
+        <v>222.8057391118099</v>
       </c>
       <c r="B221" t="n">
-        <v>0.1088618091535022</v>
+        <v>0.1085528924149175</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666136450467</v>
+        <v>223.8231169159734</v>
       </c>
       <c r="B222" t="n">
-        <v>0.108871423484323</v>
+        <v>0.1085676390159136</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8332800707061</v>
+        <v>224.8404947201369</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1088808308258777</v>
+        <v>0.1085820977733163</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999464963653</v>
+        <v>225.8578725243005</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1088900356344887</v>
+        <v>0.1085962743056363</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666129220246</v>
+        <v>226.875250328464</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1088990422705368</v>
+        <v>0.1086101741217145</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.333279347684</v>
+        <v>227.8926281326275</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1089078550005275</v>
+        <v>0.1086238026228634</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999457733433</v>
+        <v>228.910005936791</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1089164779991113</v>
+        <v>0.1086371651049653</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666121990025</v>
+        <v>229.9273837409545</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1089249153510619</v>
+        <v>0.1086502667605306</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8332786246619</v>
+        <v>230.944761545118</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1089331710532107</v>
+        <v>0.1086631126807154</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999450503212</v>
+        <v>231.9621393492815</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1089412490163405</v>
+        <v>0.1086757078572997</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666114759805</v>
+        <v>232.979517153445</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1089491530670379</v>
+        <v>0.1086880571846278</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3332779016397</v>
+        <v>233.9968949576086</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1089568869495059</v>
+        <v>0.1087001654615095</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999443272991</v>
+        <v>235.0142727617721</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1089644543273378</v>
+        <v>0.1087120373930849</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666107529584</v>
+        <v>236.0316505659356</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1089718587852522</v>
+        <v>0.1087236775926533</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8332771786177</v>
+        <v>237.0490283700991</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1089791038307917</v>
+        <v>0.1087350905834655</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.999943604277</v>
+        <v>238.0664061742626</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1089861928959841</v>
+        <v>0.1087462808004813</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666100299363</v>
+        <v>239.0837839784261</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1089931293389683</v>
+        <v>0.1087572525920934</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3332764555956</v>
+        <v>240.1011617825897</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1089999164455848</v>
+        <v>0.1087680102218166</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.4999428812549</v>
+        <v>241.1185395867532</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1090065574309326</v>
+        <v>0.1087785578699449</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666093069142</v>
+        <v>242.1359173909167</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1090130554408921</v>
+        <v>0.1087888996351758</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8332757325735</v>
+        <v>243.1532951950802</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1090194135536151</v>
+        <v>0.1087990395362032</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999421582328</v>
+        <v>244.1706729992437</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1090256347809833</v>
+        <v>0.1088089815132785</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666085838921</v>
+        <v>245.1880508034072</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1090317220700348</v>
+        <v>0.1088187294297423</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3332750095514</v>
+        <v>246.2054286075708</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1090376783043601</v>
+        <v>0.1088282870735253</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999414352107</v>
+        <v>247.2228064117343</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1090435063054683</v>
+        <v>0.1088376581586206</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.66660786087</v>
+        <v>248.2401842158978</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1090492088341235</v>
+        <v>0.1088468463265265</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8332742865293</v>
+        <v>249.2575620200613</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1090547885916527</v>
+        <v>0.1088558551476616</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999407121886</v>
+        <v>250.2749398242248</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1090602482212253</v>
+        <v>0.1088646881227528</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666071378479</v>
+        <v>251.2923176283883</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1090655903091053</v>
+        <v>0.1088733486841948</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3332735635072</v>
+        <v>252.3096954325518</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1090708173858764</v>
+        <v>0.1088818401973845</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999399891665</v>
+        <v>253.3270732367154</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1090759319276407</v>
+        <v>0.1088901659620284</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666064148258</v>
+        <v>254.3444510408789</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1090809363571916</v>
+        <v>0.1088983292134251</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8332728404852</v>
+        <v>255.3618288450424</v>
       </c>
       <c r="B253" t="n">
-        <v>0.109085833045162</v>
+        <v>0.1089063331237223</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999392661445</v>
+        <v>256.3792066492059</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1090906243111463</v>
+        <v>0.1089141808031497</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666056918037</v>
+        <v>257.3965844533694</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1090953124248003</v>
+        <v>0.1089218753012272</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.333272117463</v>
+        <v>258.4139622575329</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1090998996069154</v>
+        <v>0.1089294196079504</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999385431224</v>
+        <v>259.4313400616965</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1091043880304714</v>
+        <v>0.108936816654952</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666049687817</v>
+        <v>260.44871786586</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1091087798216652</v>
+        <v>0.1089440693166413</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8332713944409</v>
+        <v>261.4660956700235</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1091130770609186</v>
+        <v>0.1089511804113212</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999378201003</v>
+        <v>262.483473474187</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1091172817838631</v>
+        <v>0.1089581527022831</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.1666042457596</v>
+        <v>263.5008512783505</v>
       </c>
       <c r="B261" t="n">
-        <v>0.109121395982305</v>
+        <v>0.1089649888988809</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.3332706714189</v>
+        <v>264.518229082514</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1091254216051683</v>
+        <v>0.1089716916575839</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.4999370970781</v>
+        <v>265.5356068866776</v>
       </c>
       <c r="B263" t="n">
-        <v>0.109129360559418</v>
+        <v>0.1089782635830086</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.6666035227375</v>
+        <v>266.5529846908411</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1091332147109639</v>
+        <v>0.1089847072289315</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8332699483968</v>
+        <v>267.5703624950046</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1091369858855441</v>
+        <v>0.1089910250992809</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999363740561</v>
+        <v>268.5877402991681</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1091406758695897</v>
+        <v>0.1089972196491102</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666027997154</v>
+        <v>269.6051181033316</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1091442864110715</v>
+        <v>0.1090032932855519</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3332692253747</v>
+        <v>270.6224959074951</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1091478192203279</v>
+        <v>0.1090092483687529</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.499935651034</v>
+        <v>271.6398737116587</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1091512759708747</v>
+        <v>0.1090150872127914</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666020766933</v>
+        <v>272.6572515158222</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1091546583001985</v>
+        <v>0.1090208120865768</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8332685023526</v>
+        <v>273.6746293199857</v>
       </c>
       <c r="B271" t="n">
-        <v>0.1091579678105319</v>
+        <v>0.1090264252147306</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999349280119</v>
+        <v>274.6920071241492</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1091612060696126</v>
+        <v>0.1090319287784513</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666013536712</v>
+        <v>275.7093849283127</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1091643746114261</v>
+        <v>0.1090373249163619</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3332677793305</v>
+        <v>276.7267627324762</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1091674749369324</v>
+        <v>0.109042615725341</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999342049898</v>
+        <v>277.7441405366397</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1091705085147771</v>
+        <v>0.1090478032613374</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666006306491</v>
+        <v>278.7615183408033</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1091734767819867</v>
+        <v>0.1090528895401694</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8332670563084</v>
+        <v>279.7788961449668</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1091763811446498</v>
+        <v>0.1090578765383078</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999334819677</v>
+        <v>280.7962739491303</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1091792229785829</v>
+        <v>0.1090627661936439</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.166599907627</v>
+        <v>281.8136517532938</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1091820036299822</v>
+        <v>0.1090675604062428</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3332663332863</v>
+        <v>282.8310295574573</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1091847244160615</v>
+        <v>0.1090722610390818</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999327589456</v>
+        <v>283.8484073616208</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1091873866256756</v>
+        <v>0.1090768699187739</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6665991846049</v>
+        <v>284.8657851657844</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1091899915199317</v>
+        <v>0.1090813888362779</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8332656102642</v>
+        <v>285.8831629699479</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1091925403327859</v>
+        <v>0.1090858195475943</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999320359236</v>
+        <v>286.9005407741114</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1091950342716284</v>
+        <v>0.1090901637744479</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1665984615829</v>
+        <v>287.9179185782749</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1091974745178552</v>
+        <v>0.1090944232049563</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.3332648872421</v>
+        <v>288.9352963824384</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1091998622274275</v>
+        <v>0.1090985994942864</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.4999313129014</v>
+        <v>289.9526741866019</v>
       </c>
       <c r="B287" t="n">
-        <v>0.10920219853142</v>
+        <v>0.1091026942652972</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6665977385608</v>
+        <v>290.9700519907655</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1092044845365556</v>
+        <v>0.1091067091091708</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8332641642201</v>
+        <v>291.987429794929</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1092067213257309</v>
+        <v>0.1091106455860303</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999305898793</v>
+        <v>293.0048075990925</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1092089099585281</v>
+        <v>0.1091145052255464</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1665970155387</v>
+        <v>294.022185403256</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1092110514717176</v>
+        <v>0.1091182895275317</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.333263441198</v>
+        <v>295.0395632074195</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1092131468797489</v>
+        <v>0.1091219999625233</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999298668573</v>
+        <v>296.056941011583</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1092151971752313</v>
+        <v>0.1091256379723546</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6665962925166</v>
+        <v>297.0743188157466</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1092172033294036</v>
+        <v>0.1091292049707153</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8332627181759</v>
+        <v>298.0916966199101</v>
       </c>
       <c r="B295" t="n">
-        <v>0.109219166292595</v>
+        <v>0.109132702343701</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999291438352</v>
+        <v>299.1090744240736</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1092210869946745</v>
+        <v>0.1091361314503514</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1665955694945</v>
+        <v>300.1264522282371</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1092229663454919</v>
+        <v>0.1091394936231788</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3332619951538</v>
+        <v>301.1438300324006</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1092248052353086</v>
+        <v>0.1091427901686858</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999284208131</v>
+        <v>302.1612078365641</v>
       </c>
       <c r="B299" t="n">
-        <v>0.1092266045352192</v>
+        <v>0.109146022367873</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6665948464724</v>
+        <v>303.1785856407276</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1092283650975646</v>
+        <v>0.1091491914767365</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8332612721317</v>
+        <v>304.1959634448912</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1092300877563352</v>
+        <v>0.1091522987267566</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.999927697791</v>
+        <v>305.2133412490547</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1068102950997803</v>
+        <v>0.1068076383741779</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1665941234503</v>
+        <v>306.2307190532182</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1044946950522083</v>
+        <v>0.1045545103633743</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3332605491096</v>
+        <v>307.2480968573817</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1022788012375914</v>
+        <v>0.1023893413965838</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999269747689</v>
+        <v>308.2654746615452</v>
       </c>
       <c r="B305" t="n">
-        <v>0.1001583204564626</v>
+        <v>0.1003086976727144</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6665934004282</v>
+        <v>309.2828524657087</v>
       </c>
       <c r="B306" t="n">
-        <v>0.0981291443680252</v>
+        <v>0.09830927944158473</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8332598260875</v>
+        <v>310.3002302698723</v>
       </c>
       <c r="B307" t="n">
-        <v>0.09618734153041876</v>
+        <v>0.09638791577075929</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999262517468</v>
+        <v>311.3176080740358</v>
       </c>
       <c r="B308" t="n">
-        <v>0.09432914978371822</v>
+        <v>0.09454155951667929</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.1665926774061</v>
+        <v>312.3349858781993</v>
       </c>
       <c r="B309" t="n">
-        <v>0.09255096896091015</v>
+        <v>0.09276728249211384</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.3332591030654</v>
+        <v>313.3523636823628</v>
       </c>
       <c r="B310" t="n">
-        <v>0.09084935391272325</v>
+        <v>0.09106227082226713</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.4999255287248</v>
+        <v>314.3697414865263</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08922100783279893</v>
+        <v>0.08942382048217695</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.666591954384</v>
+        <v>315.3871192906898</v>
       </c>
       <c r="B312" t="n">
-        <v>0.08766277587027008</v>
+        <v>0.08784933300832701</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8332583800433</v>
+        <v>316.4044970948534</v>
       </c>
       <c r="B313" t="n">
-        <v>0.08617163901737247</v>
+        <v>0.08633631137767207</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999248057026</v>
+        <v>317.4218748990169</v>
       </c>
       <c r="B314" t="n">
-        <v>0.08474470826024637</v>
+        <v>0.08488235604754038</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.166591231362</v>
+        <v>318.4392527031804</v>
       </c>
       <c r="B315" t="n">
-        <v>0.08337921898159577</v>
+        <v>0.0834851611501328</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3332576570212</v>
+        <v>319.4566305073439</v>
       </c>
       <c r="B316" t="n">
-        <v>0.08207252560436068</v>
+        <v>0.0821425108355836</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999240826805</v>
+        <v>320.4740083115074</v>
       </c>
       <c r="B317" t="n">
-        <v>0.08082209646602473</v>
+        <v>0.08085227575778318</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6665905083399</v>
+        <v>321.4913861156709</v>
       </c>
       <c r="B318" t="n">
-        <v>0.07962550891362737</v>
+        <v>0.07961240969738934</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332569339992</v>
+        <v>322.5087639198345</v>
       </c>
       <c r="B319" t="n">
-        <v>0.07848044460997737</v>
+        <v>0.07842094631667171</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999233596585</v>
+        <v>323.526141723998</v>
       </c>
       <c r="B320" t="n">
-        <v>0.07738468504197375</v>
+        <v>0.07727599604104263</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1665897853177</v>
+        <v>324.5435195281615</v>
       </c>
       <c r="B321" t="n">
-        <v>0.07633610722233151</v>
+        <v>0.07617574306232872</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332562109771</v>
+        <v>325.560897332325</v>
       </c>
       <c r="B322" t="n">
-        <v>0.07533267957638459</v>
+        <v>0.07511844245903072</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999226366364</v>
+        <v>326.5782751364885</v>
       </c>
       <c r="B323" t="n">
-        <v>0.0743724580059969</v>
+        <v>0.07410241742900446</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6665890622957</v>
+        <v>327.595652940652</v>
       </c>
       <c r="B324" t="n">
-        <v>0.07345358212295533</v>
+        <v>0.07312605663017407</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.833255487955</v>
+        <v>328.6130307448155</v>
       </c>
       <c r="B325" t="n">
-        <v>0.07257427164454718</v>
+        <v>0.0721878116250603</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999219136143</v>
+        <v>329.630408548979</v>
       </c>
       <c r="B326" t="n">
-        <v>0.07173282294433855</v>
+        <v>0.07128619442507082</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1665883392736</v>
+        <v>330.6477863531425</v>
       </c>
       <c r="B327" t="n">
-        <v>0.07092760575147107</v>
+        <v>0.07041977513065818</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332547649329</v>
+        <v>331.665164157306</v>
       </c>
       <c r="B328" t="n">
-        <v>0.07015705999208177</v>
+        <v>0.06958717966360269</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999211905922</v>
+        <v>332.6825419614696</v>
       </c>
       <c r="B329" t="n">
-        <v>0.06941969276672678</v>
+        <v>0.06878708758782395</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6665876162515</v>
+        <v>333.6999197656331</v>
       </c>
       <c r="B330" t="n">
-        <v>0.06871407545795249</v>
+        <v>0.06801823001526494</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332540419108</v>
+        <v>334.7172975697966</v>
       </c>
       <c r="B331" t="n">
-        <v>0.06803884096241038</v>
+        <v>0.06727938759352746</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999204675701</v>
+        <v>335.7346753739601</v>
       </c>
       <c r="B332" t="n">
-        <v>0.06739268104215272</v>
+        <v>0.06656938857206758</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.1665868932294</v>
+        <v>336.7520531781236</v>
       </c>
       <c r="B333" t="n">
-        <v>0.06677434378997757</v>
+        <v>0.06588710694388424</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.3332533188887</v>
+        <v>337.7694309822871</v>
       </c>
       <c r="B334" t="n">
-        <v>0.0661826312039121</v>
+        <v>0.06523146065975365</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.499919744548</v>
+        <v>338.7868087864506</v>
       </c>
       <c r="B335" t="n">
-        <v>0.06561639686613505</v>
+        <v>0.06460140991217769</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6665861702073</v>
+        <v>339.8041865906142</v>
       </c>
       <c r="B336" t="n">
-        <v>0.0650745437218412</v>
+        <v>0.06399595548632458</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332525958666</v>
+        <v>340.8215643947777</v>
       </c>
       <c r="B337" t="n">
-        <v>0.06455602195374464</v>
+        <v>0.06341413717534651</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999190215259</v>
+        <v>341.8389421989412</v>
       </c>
       <c r="B338" t="n">
-        <v>0.06405982694810275</v>
+        <v>0.06285503225756116</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1665854471852</v>
+        <v>342.8563200031047</v>
       </c>
       <c r="B339" t="n">
-        <v>0.06358499734831993</v>
+        <v>0.06231775403308198</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332518728445</v>
+        <v>343.8736978072682</v>
       </c>
       <c r="B340" t="n">
-        <v>0.06313061319236044</v>
+        <v>0.06180145041757647</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999182985038</v>
+        <v>344.8910756114317</v>
       </c>
       <c r="B341" t="n">
-        <v>0.06269579413036122</v>
+        <v>0.06130530259092209</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6665847241632</v>
+        <v>345.9084534155953</v>
       </c>
       <c r="B342" t="n">
-        <v>0.06227969771899179</v>
+        <v>0.06082852369861694</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332511498224</v>
+        <v>346.9258312197588</v>
       </c>
       <c r="B343" t="n">
-        <v>0.06188151778925626</v>
+        <v>0.06037035760388551</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999175754817</v>
+        <v>347.9432090239223</v>
       </c>
       <c r="B344" t="n">
-        <v>0.06150048288457541</v>
+        <v>0.05993007768850053</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.166584001141</v>
+        <v>348.9605868280858</v>
       </c>
       <c r="B345" t="n">
-        <v>0.06113585476612259</v>
+        <v>0.05950698570041916</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332504268004</v>
+        <v>349.9779646322493</v>
       </c>
       <c r="B346" t="n">
-        <v>0.06078692698251754</v>
+        <v>0.05910041064640578</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999168524596</v>
+        <v>350.9953424364128</v>
       </c>
       <c r="B347" t="n">
-        <v>0.06045302350110714</v>
+        <v>0.05870970772788541</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6665832781189</v>
+        <v>352.0127202405764</v>
       </c>
       <c r="B348" t="n">
-        <v>0.06013349739818095</v>
+        <v>0.05833425731833984</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332497037783</v>
+        <v>353.0300980447399</v>
       </c>
       <c r="B349" t="n">
-        <v>0.05982772960558429</v>
+        <v>0.05797346398062489</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999161294376</v>
+        <v>354.0474758489034</v>
       </c>
       <c r="B350" t="n">
-        <v>0.05953512771130016</v>
+        <v>0.05762675552265024</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1665825550969</v>
+        <v>355.0648536530669</v>
       </c>
       <c r="B351" t="n">
-        <v>0.05925512481167627</v>
+        <v>0.05729358208992425</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332489807562</v>
+        <v>356.0822314572304</v>
       </c>
       <c r="B352" t="n">
-        <v>0.05898717841307346</v>
+        <v>0.05697341529352456</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999154064155</v>
+        <v>357.0996092613939</v>
       </c>
       <c r="B353" t="n">
-        <v>0.05873076938080755</v>
+        <v>0.05666574737211155</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6665818320748</v>
+        <v>358.1169870655575</v>
       </c>
       <c r="B354" t="n">
-        <v>0.05848540093334802</v>
+        <v>0.05637009038665567</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332482577341</v>
+        <v>359.134364869721</v>
       </c>
       <c r="B355" t="n">
-        <v>0.05825059767982511</v>
+        <v>0.05608597544660146</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999146833934</v>
+        <v>360.1517426738845</v>
       </c>
       <c r="B356" t="n">
-        <v>0.05802590469898029</v>
+        <v>0.05581295196624113</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.1665811090527</v>
+        <v>361.169120478048</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05781088665777583</v>
+        <v>0.05555058695011827</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333247534712</v>
+        <v>362.1864982822115</v>
       </c>
       <c r="B358" t="n">
-        <v>0.05760512696795566</v>
+        <v>0.05529846430632845</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999139603713</v>
+        <v>363.203876086375</v>
       </c>
       <c r="B359" t="n">
-        <v>0.0574082269789234</v>
+        <v>0.05505618418662756</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6665803860306</v>
+        <v>364.2212538905385</v>
       </c>
       <c r="B360" t="n">
-        <v>0.05721980520537395</v>
+        <v>0.05482336235230152</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332468116899</v>
+        <v>365.2386316947021</v>
       </c>
       <c r="B361" t="n">
-        <v>0.05703949658818196</v>
+        <v>0.0545996295647915</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999132373492</v>
+        <v>366.2560094988656</v>
       </c>
       <c r="B362" t="n">
-        <v>0.05686695178711548</v>
+        <v>0.05438463100010833</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1665796630085</v>
+        <v>367.2733873030291</v>
       </c>
       <c r="B363" t="n">
-        <v>0.05670183650400413</v>
+        <v>0.05417802568610732</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332460886678</v>
+        <v>368.2907651071926</v>
       </c>
       <c r="B364" t="n">
-        <v>0.05654383083505071</v>
+        <v>0.05397948596173123</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999125143271</v>
+        <v>369.3081429113561</v>
       </c>
       <c r="B365" t="n">
-        <v>0.05639262865103133</v>
+        <v>0.0537886969573635</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6665789399864</v>
+        <v>370.3255207155196</v>
       </c>
       <c r="B366" t="n">
-        <v>0.05624793700418305</v>
+        <v>0.05360535609546788</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332453656457</v>
+        <v>371.3428985196832</v>
       </c>
       <c r="B367" t="n">
-        <v>0.05610947556063022</v>
+        <v>0.05342917261072241</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.999911791305</v>
+        <v>372.3602763238467</v>
       </c>
       <c r="B368" t="n">
-        <v>0.05597697605724951</v>
+        <v>0.05325986708888663</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1665782169644</v>
+        <v>373.3776541280102</v>
       </c>
       <c r="B369" t="n">
-        <v>0.05585018178192161</v>
+        <v>0.05309717102367089</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332446426236</v>
+        <v>374.3950319321737</v>
       </c>
       <c r="B370" t="n">
-        <v>0.0557288470761625</v>
+        <v>0.05294082639090481</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999110682829</v>
+        <v>375.4124097363372</v>
       </c>
       <c r="B371" t="n">
-        <v>0.05561273685917063</v>
+        <v>0.05279058523932965</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6665774939422</v>
+        <v>376.4297875405007</v>
       </c>
       <c r="B372" t="n">
-        <v>0.05550162617236792</v>
+        <v>0.05264620929736558</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332439196016</v>
+        <v>377.4471653446643</v>
       </c>
       <c r="B373" t="n">
-        <v>0.05539529974355215</v>
+        <v>0.05250746959523019</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999103452608</v>
+        <v>378.4645431488278</v>
       </c>
       <c r="B374" t="n">
-        <v>0.05529355156981627</v>
+        <v>0.05237414610180908</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1665767709201</v>
+        <v>379.4819209529913</v>
       </c>
       <c r="B375" t="n">
-        <v>0.05519618451842657</v>
+        <v>0.05224602737570237</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332431965795</v>
+        <v>380.4992987571548</v>
       </c>
       <c r="B376" t="n">
-        <v>0.0551030099448865</v>
+        <v>0.05212291022989402</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999096222388</v>
+        <v>381.5166765613183</v>
       </c>
       <c r="B377" t="n">
-        <v>0.05501384732744593</v>
+        <v>0.05200459940951192</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.666576047898</v>
+        <v>382.5340543654818</v>
       </c>
       <c r="B378" t="n">
-        <v>0.05492852391734807</v>
+        <v>0.05189090728216782</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332424735573</v>
+        <v>383.5514321696454</v>
       </c>
       <c r="B379" t="n">
-        <v>0.05484687440413609</v>
+        <v>0.05178165354038593</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.9999088992167</v>
+        <v>384.5688099738089</v>
       </c>
       <c r="B380" t="n">
-        <v>0.05476874059537123</v>
+        <v>0.0516766649156484</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166575324876</v>
+        <v>385.5861877779724</v>
       </c>
       <c r="B381" t="n">
-        <v>0.05469397111014166</v>
+        <v>0.05157577490360392</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.3332417505353</v>
+        <v>386.6035655821359</v>
       </c>
       <c r="B382" t="n">
-        <v>0.05462242108576849</v>
+        <v>0.05147882350000394</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999081761946</v>
+        <v>387.6209433862994</v>
       </c>
       <c r="B383" t="n">
-        <v>0.0545539518971405</v>
+        <v>0.05138565694694752</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6665746018539</v>
+        <v>388.6383211904629</v>
       </c>
       <c r="B384" t="n">
-        <v>0.05448843088813392</v>
+        <v>0.05129612748903239</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332410275132</v>
+        <v>389.6556989946264</v>
       </c>
       <c r="B385" t="n">
-        <v>0.05442573111459688</v>
+        <v>0.05121009313902568</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999074531725</v>
+        <v>390.67307679879</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05436573109840051</v>
+        <v>0.05112741745268237</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1665738788318</v>
+        <v>391.6904546029535</v>
       </c>
       <c r="B387" t="n">
-        <v>0.05430831459208032</v>
+        <v>0.05104796931235464</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332403044911</v>
+        <v>392.707832407117</v>
       </c>
       <c r="B388" t="n">
-        <v>0.05425337035361166</v>
+        <v>0.0509716227190488</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999067301504</v>
+        <v>393.7252102112805</v>
       </c>
       <c r="B389" t="n">
-        <v>0.0542007919308831</v>
+        <v>0.05089825659259999</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6665731558097</v>
+        <v>394.742588015444</v>
       </c>
       <c r="B390" t="n">
-        <v>0.05415047745544996</v>
+        <v>0.0508277545796478</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.833239581469</v>
+        <v>395.7599658196075</v>
       </c>
       <c r="B391" t="n">
-        <v>0.05410232944516861</v>
+        <v>0.05076000486910832</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999060071283</v>
+        <v>396.7773436237711</v>
       </c>
       <c r="B392" t="n">
-        <v>0.05405625461532896</v>
+        <v>0.05069490001484982</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1665724327876</v>
+        <v>397.7947214279346</v>
       </c>
       <c r="B393" t="n">
-        <v>0.05401216369791934</v>
+        <v>0.05063233676529097</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332388584469</v>
+        <v>398.8120992320981</v>
       </c>
       <c r="B394" t="n">
-        <v>0.05396997126867354</v>
+        <v>0.05057221589965135</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999052841062</v>
+        <v>399.8294770362616</v>
       </c>
       <c r="B395" t="n">
-        <v>0.05392959558156494</v>
+        <v>0.05051444207059444</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6665717097655</v>
+        <v>400.8468548404251</v>
       </c>
       <c r="B396" t="n">
-        <v>0.05389095841042708</v>
+        <v>0.05045892365301369</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332381354248</v>
+        <v>401.8642326445886</v>
       </c>
       <c r="B397" t="n">
-        <v>0.05385398489739385</v>
+        <v>0.05040557259872171</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999045610841</v>
+        <v>402.8816104487522</v>
       </c>
       <c r="B398" t="n">
-        <v>0.0538186034078655</v>
+        <v>0.05035430429681224</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1665709867434</v>
+        <v>403.8989882529157</v>
       </c>
       <c r="B399" t="n">
-        <v>0.05378474539171976</v>
+        <v>0.0503050374394734</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332374124028</v>
+        <v>404.9163660570792</v>
       </c>
       <c r="B400" t="n">
-        <v>0.05375234525049881</v>
+        <v>0.05025769389303934</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.499903838062</v>
+        <v>405.9337438612427</v>
       </c>
       <c r="B401" t="n">
-        <v>0.05372134021031517</v>
+        <v>0.05021219857407595</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6665702637213</v>
+        <v>406.9511216654062</v>
       </c>
       <c r="B402" t="n">
-        <v>0.05369167020022991</v>
+        <v>0.05016847933030399</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332366893806</v>
+        <v>407.9684994695697</v>
       </c>
       <c r="B403" t="n">
-        <v>0.05366327773586782</v>
+        <v>0.05012646682617076</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.99990311504</v>
+        <v>408.9858772737333</v>
       </c>
       <c r="B404" t="n">
-        <v>0.05363610780804386</v>
+        <v>0.05008609443288894</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.1665695406992</v>
+        <v>410.0032550778968</v>
       </c>
       <c r="B405" t="n">
-        <v>0.05361010777618524</v>
+        <v>0.0500472981227682</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332359663585</v>
+        <v>411.0206328820603</v>
       </c>
       <c r="B406" t="n">
-        <v>0.05358522726634254</v>
+        <v>0.05001001636767189</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999023920179</v>
+        <v>412.0380106862238</v>
       </c>
       <c r="B407" t="n">
-        <v>0.05356141807359237</v>
+        <v>0.04997419004143789</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6665688176772</v>
+        <v>413.0553884903873</v>
       </c>
       <c r="B408" t="n">
-        <v>0.05353863406864236</v>
+        <v>0.04993976232610879</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332352433364</v>
+        <v>414.0727662945508</v>
       </c>
       <c r="B409" t="n">
-        <v>0.05351683110845765</v>
+        <v>0.04990667862182273</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999016689958</v>
+        <v>415.0901440987143</v>
       </c>
       <c r="B410" t="n">
-        <v>0.05349596695073564</v>
+        <v>0.04987488646022197</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1665680946551</v>
+        <v>416.1075219028779</v>
       </c>
       <c r="B411" t="n">
-        <v>0.05347600117206334</v>
+        <v>0.04984433542124191</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332345203144</v>
+        <v>417.1248997070414</v>
       </c>
       <c r="B412" t="n">
-        <v>0.05345689508959873</v>
+        <v>0.04981497705314845</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999009459736</v>
+        <v>418.1422775112049</v>
       </c>
       <c r="B413" t="n">
-        <v>0.05343861168612442</v>
+        <v>0.04978676479569713</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.666567371633</v>
+        <v>419.1596553153684</v>
       </c>
       <c r="B414" t="n">
-        <v>0.05342111553832836</v>
+        <v>0.04975965390629191</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332337972923</v>
+        <v>420.1770331195319</v>
       </c>
       <c r="B415" t="n">
-        <v>0.05340437274817271</v>
+        <v>0.04973360138902666</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999002229516</v>
+        <v>421.1944109236954</v>
       </c>
       <c r="B416" t="n">
-        <v>0.05338835087721783</v>
+        <v>0.04970856592649678</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1665666486109</v>
+        <v>422.211788727859</v>
       </c>
       <c r="B417" t="n">
-        <v>0.05337301888377417</v>
+        <v>0.04968450781427278</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332330742702</v>
+        <v>423.2291665320225</v>
       </c>
       <c r="B418" t="n">
-        <v>0.05335834706276035</v>
+        <v>0.04966138889793195</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4998994999295</v>
+        <v>424.246544336186</v>
       </c>
       <c r="B419" t="n">
-        <v>0.05334430698815084</v>
+        <v>0.04963917251254817</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6665659255888</v>
+        <v>425.2639221403495</v>
       </c>
       <c r="B420" t="n">
-        <v>0.05333087145790175</v>
+        <v>0.04961782342454404</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332323512481</v>
+        <v>426.281299944513</v>
       </c>
       <c r="B421" t="n">
-        <v>0.05331801444124799</v>
+        <v>0.04959730777581295</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9998987769074</v>
+        <v>427.2986777486765</v>
       </c>
       <c r="B422" t="n">
-        <v>0.05330571102826985</v>
+        <v>0.04957759303002258</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1665652025667</v>
+        <v>428.3160555528401</v>
       </c>
       <c r="B423" t="n">
-        <v>0.05329393738163103</v>
+        <v>0.04955864792101467</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.333231628226</v>
+        <v>429.3334333570036</v>
       </c>
       <c r="B424" t="n">
-        <v>0.05328267069039486</v>
+        <v>0.04954044240321909</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4998980538853</v>
+        <v>430.3508111611671</v>
       </c>
       <c r="B425" t="n">
-        <v>0.05327188912582909</v>
+        <v>0.04952294760400381</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6665644795446</v>
+        <v>431.3681889653306</v>
       </c>
       <c r="B426" t="n">
-        <v>0.0532615717991136</v>
+        <v>0.04950613577788495</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.8332309052039</v>
+        <v>432.3855667694941</v>
       </c>
       <c r="B427" t="n">
-        <v>0.05325169872086927</v>
+        <v>0.04948998026252448</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.9998973308632</v>
+        <v>433.4029445736576</v>
       </c>
       <c r="B428" t="n">
-        <v>0.0532422507624294</v>
+        <v>0.04947445543644569</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.1665637565225</v>
+        <v>434.4203223778212</v>
       </c>
       <c r="B429" t="n">
-        <v>0.05323320961877871</v>
+        <v>0.04945953667839934</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332301821818</v>
+        <v>435.4377001819847</v>
       </c>
       <c r="B430" t="n">
-        <v>0.05322455777308815</v>
+        <v>0.0494452003283162</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4998966078412</v>
+        <v>436.4550779861482</v>
       </c>
       <c r="B431" t="n">
-        <v>0.05321627846277684</v>
+        <v>0.04943142364978386</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6665630335004</v>
+        <v>437.4724557903117</v>
       </c>
       <c r="B432" t="n">
-        <v>0.05320835564703525</v>
+        <v>0.04941818479398843</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332294591597</v>
+        <v>438.4898335944752</v>
       </c>
       <c r="B433" t="n">
-        <v>0.05320077397574683</v>
+        <v>0.04940546276506391</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9998958848191</v>
+        <v>439.5072113986387</v>
       </c>
       <c r="B434" t="n">
-        <v>0.05319351875974782</v>
+        <v>0.04939323738679428</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1665623104784</v>
+        <v>440.5245892028022</v>
       </c>
       <c r="B435" t="n">
-        <v>0.05318657594236759</v>
+        <v>0.04938148927061545</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332287361376</v>
+        <v>441.5419670069658</v>
       </c>
       <c r="B436" t="n">
-        <v>0.05317993207219451</v>
+        <v>0.04937019978486645</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4998951617969</v>
+        <v>442.5593448111293</v>
       </c>
       <c r="B437" t="n">
-        <v>0.05317357427701434</v>
+        <v>0.04935935102524092</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6665615874563</v>
+        <v>443.5767226152928</v>
       </c>
       <c r="B438" t="n">
-        <v>0.05316749023887092</v>
+        <v>0.0493489257863922</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332280131156</v>
+        <v>444.5941004194563</v>
       </c>
       <c r="B439" t="n">
-        <v>0.05316166817020063</v>
+        <v>0.0493389075346469</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9998944387748</v>
+        <v>445.6114782236198</v>
       </c>
       <c r="B440" t="n">
-        <v>0.05315609679099449</v>
+        <v>0.04932928038178367</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1665608644341</v>
+        <v>446.6288560277833</v>
       </c>
       <c r="B441" t="n">
-        <v>0.05315076530694364</v>
+        <v>0.04932002905983567</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332272900934</v>
+        <v>447.6462338319469</v>
       </c>
       <c r="B442" t="n">
-        <v>0.05314566338852583</v>
+        <v>0.04931113889687663</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4998937157528</v>
+        <v>448.6636116361104</v>
       </c>
       <c r="B443" t="n">
-        <v>0.05314078115099238</v>
+        <v>0.0493025957937523</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6665601414121</v>
+        <v>449.6809894402739</v>
       </c>
       <c r="B444" t="n">
-        <v>0.05313610913521694</v>
+        <v>0.04929438620172015</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332265670714</v>
+        <v>450.6983672444374</v>
       </c>
       <c r="B445" t="n">
-        <v>0.05313163828936882</v>
+        <v>0.04928649710096211</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9998929927307</v>
+        <v>451.7157450486009</v>
       </c>
       <c r="B446" t="n">
-        <v>0.05312735995137546</v>
+        <v>0.049278915979936</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.16655941839</v>
+        <v>452.7331228527644</v>
       </c>
       <c r="B447" t="n">
-        <v>0.05312326583214003</v>
+        <v>0.04927163081553322</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332258440493</v>
+        <v>453.750500656928</v>
       </c>
       <c r="B448" t="n">
-        <v>0.05311934799948166</v>
+        <v>0.04926463005401092</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4998922697085</v>
+        <v>454.7678784610915</v>
       </c>
       <c r="B449" t="n">
-        <v>0.05311559886276719</v>
+        <v>0.04925790259266859</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6665586953679</v>
+        <v>455.7852562652549</v>
       </c>
       <c r="B450" t="n">
-        <v>0.05311201115820463</v>
+        <v>0.04925143776224003</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332251210272</v>
+        <v>456.8026340694184</v>
       </c>
       <c r="B451" t="n">
-        <v>0.05310857793476987</v>
+        <v>0.04924522530997262</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.9998915466865</v>
+        <v>457.820011873582</v>
       </c>
       <c r="B452" t="n">
-        <v>0.05310529254073939</v>
+        <v>0.04923925538336722</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.1665579723458</v>
+        <v>458.8373896777455</v>
       </c>
       <c r="B453" t="n">
-        <v>0.0531021486108028</v>
+        <v>0.04923351851455282</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332243980051</v>
+        <v>459.854767481909</v>
       </c>
       <c r="B454" t="n">
-        <v>0.05309914005373036</v>
+        <v>0.04922800560527118</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4998908236644</v>
+        <v>460.8721452860725</v>
       </c>
       <c r="B455" t="n">
-        <v>0.05309626104057144</v>
+        <v>0.04922270791244764</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6665572493238</v>
+        <v>461.889523090236</v>
       </c>
       <c r="B456" t="n">
-        <v>0.05309350599336122</v>
+        <v>0.04921761703432527</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332236749831</v>
+        <v>462.9069008943995</v>
       </c>
       <c r="B457" t="n">
-        <v>0.0530908695743136</v>
+        <v>0.04921272489714024</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9998901006423</v>
+        <v>463.9242786985631</v>
       </c>
       <c r="B458" t="n">
-        <v>0.05308834667547944</v>
+        <v>0.04920802374231747</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1665565263016</v>
+        <v>464.9416565027266</v>
       </c>
       <c r="B459" t="n">
-        <v>0.05308593240885021</v>
+        <v>0.04920350611416607</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332229519609</v>
+        <v>465.9590343068901</v>
       </c>
       <c r="B460" t="n">
-        <v>0.05308362209688759</v>
+        <v>0.04919916484805512</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4998893776202</v>
+        <v>466.9764121110536</v>
       </c>
       <c r="B461" t="n">
-        <v>0.053081411263461</v>
+        <v>0.04919499305905115</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6665558032795</v>
+        <v>467.9937899152171</v>
       </c>
       <c r="B462" t="n">
-        <v>0.05307929562517524</v>
+        <v>0.04919098413099909</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332222289389</v>
+        <v>469.0111677193806</v>
       </c>
       <c r="B463" t="n">
-        <v>0.05307727108307166</v>
+        <v>0.04918713170602954</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9998886545982</v>
+        <v>470.0285455235442</v>
       </c>
       <c r="B464" t="n">
-        <v>0.05307533371468653</v>
+        <v>0.04918342967447564</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1665550802575</v>
+        <v>471.0459233277077</v>
       </c>
       <c r="B465" t="n">
-        <v>0.05307347976645149</v>
+        <v>0.0491798721651836</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332215059168</v>
+        <v>472.0633011318712</v>
       </c>
       <c r="B466" t="n">
-        <v>0.05307170564642116</v>
+        <v>0.04917645353620147</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.499887931576</v>
+        <v>473.0806789360347</v>
       </c>
       <c r="B467" t="n">
-        <v>0.05307000791731388</v>
+        <v>0.0491731683658314</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6665543572353</v>
+        <v>474.0980567401982</v>
       </c>
       <c r="B468" t="n">
-        <v>0.05306838328985213</v>
+        <v>0.04917001144403121</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332207828946</v>
+        <v>475.1154345443617</v>
       </c>
       <c r="B469" t="n">
-        <v>0.05306682861638969</v>
+        <v>0.0491669777641517</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.999887208554</v>
+        <v>476.1328123485252</v>
       </c>
       <c r="B470" t="n">
-        <v>0.05306534088481327</v>
+        <v>0.04916406251499639</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1665536342133</v>
+        <v>477.1501901526888</v>
       </c>
       <c r="B471" t="n">
-        <v>0.05306391721270656</v>
+        <v>0.04916126107319137</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332200598726</v>
+        <v>478.1675679568523</v>
       </c>
       <c r="B472" t="n">
-        <v>0.05306255484176578</v>
+        <v>0.04915856899585292</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4998864855319</v>
+        <v>479.1849457610158</v>
       </c>
       <c r="B473" t="n">
-        <v>0.0530612511324555</v>
+        <v>0.04915598201354146</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6665529111912</v>
+        <v>480.2023235651793</v>
       </c>
       <c r="B474" t="n">
-        <v>0.05306000355889472</v>
+        <v>0.04915349602349049</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.8332193368504</v>
+        <v>481.2197013693428</v>
       </c>
       <c r="B475" t="n">
-        <v>0.05305880970396303</v>
+        <v>0.04915110708309994</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9998857625097</v>
+        <v>482.2370791735063</v>
       </c>
       <c r="B476" t="n">
-        <v>0.05305766725461757</v>
+        <v>0.04914881140368343</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.1665521881691</v>
+        <v>483.2544569776699</v>
       </c>
       <c r="B477" t="n">
-        <v>0.05305657399741161</v>
+        <v>0.04914660534445978</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332186138284</v>
+        <v>484.2718347818334</v>
       </c>
       <c r="B478" t="n">
-        <v>0.0530555278142061</v>
+        <v>0.04914448540677889</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4998850394877</v>
+        <v>485.2892125859969</v>
       </c>
       <c r="B479" t="n">
-        <v>0.05305452667806582</v>
+        <v>0.04914244822857322</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.666551465147</v>
+        <v>486.3065903901604</v>
       </c>
       <c r="B480" t="n">
-        <v>0.05305356864933234</v>
+        <v>0.04914049057902576</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332178908063</v>
+        <v>487.3239681943239</v>
       </c>
       <c r="B481" t="n">
-        <v>0.05305265187186597</v>
+        <v>0.04913860935344617</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9998843164656</v>
+        <v>488.3413459984874</v>
       </c>
       <c r="B482" t="n">
-        <v>0.05305177456944958</v>
+        <v>0.04913680156834699</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1665507421249</v>
+        <v>489.358723802651</v>
       </c>
       <c r="B483" t="n">
-        <v>0.05305093504234728</v>
+        <v>0.04913506435671205</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332171677843</v>
+        <v>490.3761016068145</v>
       </c>
       <c r="B484" t="n">
-        <v>0.05305013166401122</v>
+        <v>0.04913339496344959</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4998835934435</v>
+        <v>491.393479410978</v>
       </c>
       <c r="B485" t="n">
-        <v>0.05304936287793025</v>
+        <v>0.04913179074102284</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6665500191028</v>
+        <v>492.4108572151415</v>
       </c>
       <c r="B486" t="n">
-        <v>0.05304862719461423</v>
+        <v>0.04913024914525129</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332164447621</v>
+        <v>493.428235019305</v>
       </c>
       <c r="B487" t="n">
-        <v>0.0530479231887082</v>
+        <v>0.04912876773127575</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9998828704214</v>
+        <v>494.4456128234685</v>
       </c>
       <c r="B488" t="n">
-        <v>0.05304724949623084</v>
+        <v>0.04912734414968099</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1665492960807</v>
+        <v>495.4629906276321</v>
       </c>
       <c r="B489" t="n">
-        <v>0.0530466048119318</v>
+        <v>0.04912597614276976</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.33321572174</v>
+        <v>496.4803684317956</v>
       </c>
       <c r="B490" t="n">
-        <v>0.05304598788676282</v>
+        <v>0.04912466154098222</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4998821473994</v>
+        <v>497.4977462359591</v>
       </c>
       <c r="B491" t="n">
-        <v>0.05304539752545778</v>
+        <v>0.04912339825945519</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6665485730587</v>
+        <v>498.5151240401226</v>
       </c>
       <c r="B492" t="n">
-        <v>0.05304483258421692</v>
+        <v>0.04912218429471572</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332149987179</v>
+        <v>499.5325018442861</v>
       </c>
       <c r="B493" t="n">
-        <v>0.05304429196849075</v>
+        <v>0.04912101772150369</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9998814243772</v>
+        <v>500.5498796484496</v>
       </c>
       <c r="B494" t="n">
-        <v>0.05304377463085943</v>
+        <v>0.04911989668971852</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1665478500365</v>
+        <v>501.5672574526131</v>
       </c>
       <c r="B495" t="n">
-        <v>0.05304327956900342</v>
+        <v>0.04911881942148502</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332142756958</v>
+        <v>502.5846352567767</v>
       </c>
       <c r="B496" t="n">
-        <v>0.05304280582376156</v>
+        <v>0.04911778420833384</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.4998807013552</v>
+        <v>503.6020130609402</v>
       </c>
       <c r="B497" t="n">
-        <v>0.05304235247727272</v>
+        <v>0.04911678940849193</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6665471270145</v>
+        <v>504.6193908651037</v>
       </c>
       <c r="B498" t="n">
-        <v>0.05304191865119746</v>
+        <v>0.04911583344427882</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.8332135526738</v>
+        <v>505.6367686692672</v>
       </c>
       <c r="B499" t="n">
-        <v>0.05304150350501632</v>
+        <v>0.04911491479960454</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.9998799783331</v>
+        <v>506.6541464734307</v>
       </c>
       <c r="B500" t="n">
-        <v>0.05304110623440134</v>
+        <v>0.04911403201756522</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1665464039924</v>
+        <v>507.6715242775942</v>
       </c>
       <c r="B501" t="n">
-        <v>0.05304072606965769</v>
+        <v>0.04911318369813249</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332128296516</v>
+        <v>508.6889020817578</v>
       </c>
       <c r="B502" t="n">
-        <v>0.05304036227423246</v>
+        <v>0.04911236849593321</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4998792553109</v>
+        <v>509.7062798859213</v>
       </c>
       <c r="B503" t="n">
-        <v>0.05304001414328757</v>
+        <v>0.04911158511811575</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6665456809703</v>
+        <v>510.7236576900848</v>
       </c>
       <c r="B504" t="n">
-        <v>0.05303968100233421</v>
+        <v>0.04911083232229967</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332121066296</v>
+        <v>511.7410354942483</v>
       </c>
       <c r="B505" t="n">
-        <v>0.05303936220592602</v>
+        <v>0.04911010891460536</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9998785322889</v>
+        <v>512.7584132984118</v>
       </c>
       <c r="B506" t="n">
-        <v>0.05303905713640861</v>
+        <v>0.04910941374776061</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1665449579482</v>
+        <v>513.7757911025753</v>
       </c>
       <c r="B507" t="n">
-        <v>0.05303876520272285</v>
+        <v>0.04910874571928119</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332113836075</v>
+        <v>514.7931689067389</v>
       </c>
       <c r="B508" t="n">
-        <v>0.05303848583925969</v>
+        <v>0.04910810376972235</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4998778092668</v>
+        <v>515.8105467109024</v>
       </c>
       <c r="B509" t="n">
-        <v>0.0530382185047644</v>
+        <v>0.04910748688099859</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6665442349261</v>
+        <v>516.8279245150659</v>
       </c>
       <c r="B510" t="n">
-        <v>0.0530379626812878</v>
+        <v>0.04910689407476909</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332106605855</v>
+        <v>517.8453023192294</v>
       </c>
       <c r="B511" t="n">
-        <v>0.05303771787318288</v>
+        <v>0.04910632441088614</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9998770862447</v>
+        <v>518.8626801233929</v>
       </c>
       <c r="B512" t="n">
-        <v>0.05303748360614439</v>
+        <v>0.04910577698590408</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.166543511904</v>
+        <v>519.8800579275564</v>
       </c>
       <c r="B513" t="n">
-        <v>0.05303725942628996</v>
+        <v>0.04910525093164658</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332099375633</v>
+        <v>520.89743573172</v>
       </c>
       <c r="B514" t="n">
-        <v>0.05303704489928074</v>
+        <v>0.04910474541382969</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4998763632226</v>
+        <v>521.9148135358835</v>
       </c>
       <c r="B515" t="n">
-        <v>0.0530368396094798</v>
+        <v>0.04910425963073879</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6665427888819</v>
+        <v>522.932191340047</v>
       </c>
       <c r="B516" t="n">
-        <v>0.05303664315914695</v>
+        <v>0.04910379281195709</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332092145412</v>
+        <v>523.9495691442105</v>
       </c>
       <c r="B517" t="n">
-        <v>0.05303645516766806</v>
+        <v>0.04910334421714384</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9998756402006</v>
+        <v>524.966946948374</v>
       </c>
       <c r="B518" t="n">
-        <v>0.0530362752708177</v>
+        <v>0.04910291313486016</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1665420658599</v>
+        <v>525.9843247525375</v>
       </c>
       <c r="B519" t="n">
-        <v>0.0530361031200534</v>
+        <v>0.04910249888144078</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332084915191</v>
+        <v>527.001702556701</v>
       </c>
       <c r="B520" t="n">
-        <v>0.05303593838184043</v>
+        <v>0.04910210079990981</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4998749171784</v>
+        <v>528.0190803608646</v>
       </c>
       <c r="B521" t="n">
-        <v>0.05303578073700555</v>
+        <v>0.04910171825893878</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.6665413428377</v>
+        <v>529.0364581650281</v>
       </c>
       <c r="B522" t="n">
-        <v>0.05303562988011864</v>
+        <v>0.04910135065184543</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833207768497</v>
+        <v>530.0538359691916</v>
       </c>
       <c r="B523" t="n">
-        <v>0.05303548551890092</v>
+        <v>0.04910099739563154</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.9998741941563</v>
+        <v>531.0712137733551</v>
       </c>
       <c r="B524" t="n">
-        <v>0.05303534737365873</v>
+        <v>0.04910065793005836</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1665406198157</v>
+        <v>532.0885915775186</v>
       </c>
       <c r="B525" t="n">
-        <v>0.05303521517674155</v>
+        <v>0.04910033171675809</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.333207045475</v>
+        <v>533.1059693816821</v>
       </c>
       <c r="B526" t="n">
-        <v>0.05303508867202352</v>
+        <v>0.04910001823838006</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4998734711343</v>
+        <v>534.1233471858457</v>
       </c>
       <c r="B527" t="n">
-        <v>0.05303496761440717</v>
+        <v>0.04909971699777029</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6665398967936</v>
+        <v>535.1407249900092</v>
       </c>
       <c r="B528" t="n">
-        <v>0.05303485176934852</v>
+        <v>0.04909942751718301</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332063224528</v>
+        <v>536.1581027941727</v>
       </c>
       <c r="B529" t="n">
-        <v>0.05303474091240275</v>
+        <v>0.04909914933752296</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9998727481121</v>
+        <v>537.1754805983362</v>
       </c>
       <c r="B530" t="n">
-        <v>0.05303463482878927</v>
+        <v>0.04909888201761738</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1665391737714</v>
+        <v>538.1928584024997</v>
       </c>
       <c r="B531" t="n">
-        <v>0.05303453331297561</v>
+        <v>0.04909862513351625</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332055994308</v>
+        <v>539.2102362066632</v>
       </c>
       <c r="B532" t="n">
-        <v>0.05303443616827921</v>
+        <v>0.04909837827782001</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4998720250901</v>
+        <v>540.2276140108268</v>
       </c>
       <c r="B533" t="n">
-        <v>0.0530343432064864</v>
+        <v>0.04909814105903341</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6665384507494</v>
+        <v>541.2449918149903</v>
       </c>
       <c r="B534" t="n">
-        <v>0.05303425424748767</v>
+        <v>0.04909791310094464</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332048764087</v>
+        <v>542.2623696191538</v>
       </c>
       <c r="B535" t="n">
-        <v>0.05303416911892877</v>
+        <v>0.0490976940420287</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.999871302068</v>
+        <v>543.2797474233173</v>
       </c>
       <c r="B536" t="n">
-        <v>0.05303408765587676</v>
+        <v>0.04909748353487402</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1665377277272</v>
+        <v>544.2971252274808</v>
       </c>
       <c r="B537" t="n">
-        <v>0.05303400970050046</v>
+        <v>0.04909728124563149</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332041533866</v>
+        <v>545.3145030316443</v>
       </c>
       <c r="B538" t="n">
-        <v>0.05303393510176466</v>
+        <v>0.04909708685348506</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4998705790459</v>
+        <v>546.3318808358079</v>
       </c>
       <c r="B539" t="n">
-        <v>0.05303386371513751</v>
+        <v>0.04909690005014284</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6665370047052</v>
+        <v>547.3492586399714</v>
       </c>
       <c r="B540" t="n">
-        <v>0.05303379540231046</v>
+        <v>0.04909672053934828</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332034303645</v>
+        <v>548.3666364441349</v>
       </c>
       <c r="B541" t="n">
-        <v>0.05303373003093034</v>
+        <v>0.04909654803641027</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9998698560238</v>
+        <v>549.3840142482984</v>
       </c>
       <c r="B542" t="n">
-        <v>0.0530336674743429</v>
+        <v>0.04909638226775165</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1665362816831</v>
+        <v>550.4013920524619</v>
       </c>
       <c r="B543" t="n">
-        <v>0.05303360761134742</v>
+        <v>0.04909622297047533</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332027073424</v>
+        <v>551.4187698566254</v>
       </c>
       <c r="B544" t="n">
-        <v>0.05303355032596192</v>
+        <v>0.04909606989194738</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4998691330018</v>
+        <v>552.4361476607889</v>
       </c>
       <c r="B545" t="n">
-        <v>0.05303349550719839</v>
+        <v>0.04909592278939634</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.6665355586611</v>
+        <v>553.4535254649525</v>
       </c>
       <c r="B546" t="n">
-        <v>0.05303344304884786</v>
+        <v>0.04909578142952823</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.8332019843203</v>
+        <v>554.470903269116</v>
       </c>
       <c r="B547" t="n">
-        <v>0.05303339284927448</v>
+        <v>0.04909564558815654</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9998684099796</v>
+        <v>555.4882810732795</v>
       </c>
       <c r="B548" t="n">
-        <v>0.05303334481121875</v>
+        <v>0.0490955150498467</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1665348356389</v>
+        <v>556.505658877443</v>
       </c>
       <c r="B549" t="n">
-        <v>0.05303329884160899</v>
+        <v>0.0490953896075744</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332012612982</v>
+        <v>557.5230366816065</v>
       </c>
       <c r="B550" t="n">
-        <v>0.05303325485138104</v>
+        <v>0.04909526906239729</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4998676869575</v>
+        <v>558.54041448577</v>
       </c>
       <c r="B551" t="n">
-        <v>0.05303321275530572</v>
+        <v>0.04909515322313947</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6665341126169</v>
+        <v>559.5577922899336</v>
       </c>
       <c r="B552" t="n">
-        <v>0.05303317247182368</v>
+        <v>0.04909504190608825</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332005382762</v>
+        <v>560.5751700940971</v>
       </c>
       <c r="B553" t="n">
-        <v>0.0530331339228874</v>
+        <v>0.04909493493470286</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9998669639355</v>
+        <v>561.5925478982606</v>
       </c>
       <c r="B554" t="n">
-        <v>0.05303309703380997</v>
+        <v>0.04909483213933443</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1665333895947</v>
+        <v>562.6099257024241</v>
       </c>
       <c r="B555" t="n">
-        <v>0.05303306173312037</v>
+        <v>0.04909473335695697</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.333199815254</v>
+        <v>563.6273035065876</v>
       </c>
       <c r="B556" t="n">
-        <v>0.05303302795242503</v>
+        <v>0.04909463843090876</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4998662409133</v>
+        <v>564.6446813107511</v>
       </c>
       <c r="B557" t="n">
-        <v>0.0530329956262753</v>
+        <v>0.04909454721064399</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6665326665726</v>
+        <v>565.6620591149147</v>
       </c>
       <c r="B558" t="n">
-        <v>0.05303296469204065</v>
+        <v>0.04909445955149392</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.833199092232</v>
+        <v>566.6794369190782</v>
       </c>
       <c r="B559" t="n">
-        <v>0.05303293508978731</v>
+        <v>0.04909437531443749</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9998655178913</v>
+        <v>567.6968147232417</v>
       </c>
       <c r="B560" t="n">
-        <v>0.0530329067621622</v>
+        <v>0.04909429436588084</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1665319435506</v>
+        <v>568.7141925274052</v>
       </c>
       <c r="B561" t="n">
-        <v>0.05303287965428174</v>
+        <v>0.04909421657744541</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3331983692099</v>
+        <v>569.7315703315687</v>
       </c>
       <c r="B562" t="n">
-        <v>0.05303285371362559</v>
+        <v>0.0490941418257644</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4998647948692</v>
+        <v>570.7489481357322</v>
       </c>
       <c r="B563" t="n">
-        <v>0.05303282888993482</v>
+        <v>0.04909406999228703</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6665312205284</v>
+        <v>571.7663259398958</v>
       </c>
       <c r="B564" t="n">
-        <v>0.0530328051351146</v>
+        <v>0.04909400096309064</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8331976461877</v>
+        <v>572.7837037440593</v>
       </c>
       <c r="B565" t="n">
-        <v>0.05303278240314098</v>
+        <v>0.04909393462869991</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9998640718471</v>
+        <v>573.8010815482228</v>
       </c>
       <c r="B566" t="n">
-        <v>0.05303276064997173</v>
+        <v>0.04909387088391331</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1665304975064</v>
+        <v>574.8184593523863</v>
       </c>
       <c r="B567" t="n">
-        <v>0.05303273983346103</v>
+        <v>0.04909380962763622</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3331969231657</v>
+        <v>575.8358371565498</v>
       </c>
       <c r="B568" t="n">
-        <v>0.05303271991327777</v>
+        <v>0.04909375076272062</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.499863348825</v>
+        <v>576.8532149607133</v>
       </c>
       <c r="B569" t="n">
-        <v>0.05303270085082745</v>
+        <v>0.04909369419581103</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.6665297744843</v>
+        <v>577.8705927648768</v>
       </c>
       <c r="B570" t="n">
-        <v>0.05303268260917738</v>
+        <v>0.04909363983719643</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.8331962001436</v>
+        <v>578.8879705690404</v>
       </c>
       <c r="B571" t="n">
-        <v>0.05303266515298515</v>
+        <v>0.049093587600668</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9998626258028</v>
+        <v>579.9053483732039</v>
       </c>
       <c r="B572" t="n">
-        <v>0.05303264844843013</v>
+        <v>0.04909353740338237</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1665290514622</v>
+        <v>580.9227261773674</v>
       </c>
       <c r="B573" t="n">
-        <v>0.05303263246314797</v>
+        <v>0.0490934891657303</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3331954771215</v>
+        <v>581.9401039815309</v>
       </c>
       <c r="B574" t="n">
-        <v>0.05303261716616787</v>
+        <v>0.04909344281121036</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4998619027808</v>
+        <v>582.9574817856944</v>
       </c>
       <c r="B575" t="n">
-        <v>0.05303260252785257</v>
+        <v>0.04909339826630765</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6665283284401</v>
+        <v>583.9748595898579</v>
       </c>
       <c r="B576" t="n">
-        <v>0.05303258851984097</v>
+        <v>0.04909335546037718</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8331947540994</v>
+        <v>584.9922373940215</v>
       </c>
       <c r="B577" t="n">
-        <v>0.05303257511499315</v>
+        <v>0.04909331432553184</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9998611797587</v>
+        <v>586.009615198185</v>
       </c>
       <c r="B578" t="n">
-        <v>0.05303256228733778</v>
+        <v>0.04909327479653475</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1665276054181</v>
+        <v>587.0269930023485</v>
       </c>
       <c r="B579" t="n">
-        <v>0.05303255001202184</v>
+        <v>0.04909323681069579</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3331940310774</v>
+        <v>588.044370806512</v>
       </c>
       <c r="B580" t="n">
-        <v>0.05303253826526242</v>
+        <v>0.04909320030777216</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4998604567367</v>
+        <v>589.0617486106755</v>
       </c>
       <c r="B581" t="n">
-        <v>0.05303252702430068</v>
+        <v>0.04909316522987287</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6665268823959</v>
+        <v>590.079126414839</v>
       </c>
       <c r="B582" t="n">
-        <v>0.05303251626735773</v>
+        <v>0.04909313152136693</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8331933080552</v>
+        <v>591.0965042190026</v>
       </c>
       <c r="B583" t="n">
-        <v>0.05303250597359247</v>
+        <v>0.04909309912879507</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9998597337145</v>
+        <v>592.1138820231661</v>
       </c>
       <c r="B584" t="n">
-        <v>0.05303249612306116</v>
+        <v>0.04909306800078504</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1665261593738</v>
+        <v>593.1312598273296</v>
       </c>
       <c r="B585" t="n">
-        <v>0.05303248669667881</v>
+        <v>0.04909303808797005</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3331925850332</v>
+        <v>594.1486376314931</v>
       </c>
       <c r="B586" t="n">
-        <v>0.05303247767618222</v>
+        <v>0.04909300934291055</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4998590106925</v>
+        <v>595.1660154356566</v>
       </c>
       <c r="B587" t="n">
-        <v>0.05303246904409455</v>
+        <v>0.04909298172001896</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6665254363518</v>
+        <v>596.1833932398201</v>
       </c>
       <c r="B588" t="n">
-        <v>0.05303246078369152</v>
+        <v>0.04909295517548738</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8331918620111</v>
+        <v>597.2007710439837</v>
       </c>
       <c r="B589" t="n">
-        <v>0.05303245287896894</v>
+        <v>0.04909292966721811</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9998582876703</v>
+        <v>598.2181488481472</v>
       </c>
       <c r="B590" t="n">
-        <v>0.05303244531461175</v>
+        <v>0.04909290515475687</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1665247133296</v>
+        <v>599.2355266523107</v>
       </c>
       <c r="B591" t="n">
-        <v>0.05303243807596433</v>
+        <v>0.04909288159922868</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3331911389889</v>
+        <v>600.2529044564742</v>
       </c>
       <c r="B592" t="n">
-        <v>0.05303243114900211</v>
+        <v>0.04909285896327618</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.4998575646483</v>
+        <v>601.2702822606377</v>
       </c>
       <c r="B593" t="n">
-        <v>0.05303242452030439</v>
+        <v>0.04909283721100038</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.6665239903076</v>
+        <v>602.2876600648012</v>
       </c>
       <c r="B594" t="n">
-        <v>0.05303241817702837</v>
+        <v>0.04909281630790376</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.8331904159669</v>
+        <v>603.3050378689647</v>
       </c>
       <c r="B595" t="n">
-        <v>0.05303241210688421</v>
+        <v>0.04909279622083552</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9998568416262</v>
+        <v>604.3224156731283</v>
       </c>
       <c r="B596" t="n">
-        <v>0.05303240629811127</v>
+        <v>0.04909277691793902</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1665232672855</v>
+        <v>605.3397934772918</v>
       </c>
       <c r="B597" t="n">
-        <v>0.0530324007394553</v>
+        <v>0.04909275836860127</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3331896929448</v>
+        <v>606.3571712814553</v>
       </c>
       <c r="B598" t="n">
-        <v>0.05303239542014664</v>
+        <v>0.04909274054340436</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.499856118604</v>
+        <v>607.3745490856188</v>
       </c>
       <c r="B599" t="n">
-        <v>0.05303239032987936</v>
+        <v>0.04909272341407882</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6665225442634</v>
+        <v>608.3919268897823</v>
       </c>
       <c r="B600" t="n">
-        <v>0.05303238545879128</v>
+        <v>0.04909270695345879</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8331889699227</v>
+        <v>609.4093046939458</v>
       </c>
       <c r="B601" t="n">
-        <v>0.05303238079744489</v>
+        <v>0.04909269113543891</v>
       </c>
     </row>
   </sheetData>

--- a/wpercentage.xlsx
+++ b/wpercentage.xlsx
@@ -450,4799 +450,4799 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0526743812154182</v>
+        <v>0.05683835974085123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.017377804163516</v>
+        <v>1.166665719868598</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05377983824263338</v>
+        <v>0.05796799862888449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.034755608327031</v>
+        <v>2.333331439737196</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05486371750266332</v>
+        <v>0.05907331726674877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.052133412490547</v>
+        <v>3.499997159605794</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05592644017880618</v>
+        <v>0.06015483925059018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.069511216654062</v>
+        <v>4.666662879474393</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05696841923314942</v>
+        <v>0.06121307690393544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.086889020817578</v>
+        <v>5.833328599342991</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0579900595670422</v>
+        <v>0.06224853152038259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.104266824981093</v>
+        <v>6.999994319211589</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05899175817843554</v>
+        <v>0.06326169360106686</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.121644629144608</v>
+        <v>8.166660039080186</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0599739043161512</v>
+        <v>0.06425304308701399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.139022433308124</v>
+        <v>9.333325758948785</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06093687963113945</v>
+        <v>0.06522304958649126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.15640023747164</v>
+        <v>10.49999147881738</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06188105832478431</v>
+        <v>0.06617217259746372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.17377804163516</v>
+        <v>11.66665719868598</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06280680729431401</v>
+        <v>0.0671008617252612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.19115584579867</v>
+        <v>12.83332291855458</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06371448627537314</v>
+        <v>0.06800955689555906</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.20853364996219</v>
+        <v>13.99998863842318</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06460444798181188</v>
+        <v>0.06889868856277367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.2259114541257</v>
+        <v>15.16665435829178</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06547703824274657</v>
+        <v>0.06976867791397129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.24328925828922</v>
+        <v>16.33332007816037</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06633259613694514</v>
+        <v>0.07061993706838689</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.26066706245273</v>
+        <v>17.49998579802897</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06717145412458921</v>
+        <v>0.07145286927264759</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.27804486661625</v>
+        <v>18.66665151789757</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0679939381764644</v>
+        <v>0.07226786909179299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.29542267077976</v>
+        <v>19.83331723776617</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06880036790062898</v>
+        <v>0.07306532259618306</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.31280047494328</v>
+        <v>20.99998295763477</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06959105666660984</v>
+        <v>0.07384560754438199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.3301782791068</v>
+        <v>22.16664867750336</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07036631172717447</v>
+        <v>0.07460909356210471</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.34755608327031</v>
+        <v>23.33331439737196</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07112643433772595</v>
+        <v>0.07535614231731086</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.36493388743382</v>
+        <v>24.49998011724056</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0718717198733673</v>
+        <v>0.07608710769152906</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.38231169159734</v>
+        <v>25.66664583710916</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07260245794368102</v>
+        <v>0.07680233594749276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23.39968949576086</v>
+        <v>26.83331155697776</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07331893250526808</v>
+        <v>0.07750216589316701</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24.41706729992437</v>
+        <v>27.99997727684636</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0740214219720903</v>
+        <v>0.07818692904224384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.43444510408789</v>
+        <v>29.16664299671495</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07471019932365883</v>
+        <v>0.07885694977118227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.4518229082514</v>
+        <v>30.33330871658355</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07538553221111095</v>
+        <v>0.07951254547286747</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27.46920071241492</v>
+        <v>31.49997443645215</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07604768306121633</v>
+        <v>0.08015402670696166</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28.48657851657843</v>
+        <v>32.66664015632075</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07669690917835305</v>
+        <v>0.08078169734701809</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29.50395632074195</v>
+        <v>33.83330587618934</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07733346284449323</v>
+        <v>0.08139585472442785</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.52133412490547</v>
+        <v>34.99997159605795</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07795759141723699</v>
+        <v>0.08199678976926748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31.53871192906898</v>
+        <v>36.16663731592654</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07856953742593278</v>
+        <v>0.08258478714811435</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32.5560897332325</v>
+        <v>37.33330303579514</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07916953866592162</v>
+        <v>0.08316012539889493</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33.57346753739601</v>
+        <v>38.49996875566374</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07975782829094162</v>
+        <v>0.08372307706282993</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.59084534155953</v>
+        <v>39.66663447553233</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08033463490372897</v>
+        <v>0.08427390881353869</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.60822314572304</v>
+        <v>40.83330019540094</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08090018264485038</v>
+        <v>0.08481288158336411</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36.62560094988656</v>
+        <v>41.99996591526953</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08145469127980155</v>
+        <v>0.0853402506869779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.64297875405008</v>
+        <v>43.16663163513813</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08199837628440562</v>
+        <v>0.08585626594232465</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38.66035655821359</v>
+        <v>44.33329735500673</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08253144892854462</v>
+        <v>0.08636117178896213</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39.67773436237711</v>
+        <v>45.49996307487532</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08305411635825659</v>
+        <v>0.0868552074038538</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40.69511216654062</v>
+        <v>46.66662879474393</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08356658167623017</v>
+        <v>0.08733860681466836</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41.71248997070413</v>
+        <v>47.83329451461253</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08406904402072805</v>
+        <v>0.08781159901064012</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.72986777486765</v>
+        <v>48.99996023448112</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08456169864296989</v>
+        <v>0.08827440805104254</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.74724557903117</v>
+        <v>50.16662595434972</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08504473698300467</v>
+        <v>0.08872725317132651</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44.76462338319468</v>
+        <v>51.33329167421832</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08551834674410223</v>
+        <v>0.08917034888697351</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45.7820011873582</v>
+        <v>52.49995739408691</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08598271196569257</v>
+        <v>0.08960390509511283</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46.79937899152171</v>
+        <v>53.66662311395552</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08643801309488157</v>
+        <v>0.09002812717395123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47.81675679568523</v>
+        <v>54.83328883382411</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08688442705657065</v>
+        <v>0.09044321608006173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48.83413459984875</v>
+        <v>55.99995455369271</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08732212732220784</v>
+        <v>0.09084936844357802</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49.85151240401226</v>
+        <v>57.16662027356131</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08775128397719685</v>
+        <v>0.09124677666133935</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50.86889020817578</v>
+        <v>58.3332859934299</v>
       </c>
       <c r="B52" t="n">
-        <v>0.08817206378699027</v>
+        <v>0.09163562898803004</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51.88626801233929</v>
+        <v>59.49995171329851</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08858463026189284</v>
+        <v>0.09201610962535692</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52.90364581650281</v>
+        <v>60.6666174331671</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08898914372059964</v>
+        <v>0.09238839880930672</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53.92102362066633</v>
+        <v>61.8332831530357</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08938576135249419</v>
+        <v>0.09275267289552504</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54.93840142482984</v>
+        <v>62.9999488729043</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08977463727873046</v>
+        <v>0.09310910444285704</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55.95577922899336</v>
+        <v>64.1666145927729</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0901559226121226</v>
+        <v>0.09345786229508961</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56.97315703315687</v>
+        <v>65.33328031264149</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0905297655158657</v>
+        <v>0.09379911166093369</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57.99053483732038</v>
+        <v>66.4999460325101</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09089631126111034</v>
+        <v>0.09413301419228469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0079126414839</v>
+        <v>67.66661175237869</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09125570228341333</v>
+        <v>0.0944597280607979</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.02529044564741</v>
+        <v>68.83327747224729</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09160807823808655</v>
+        <v>0.09477940803281544</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61.04266824981093</v>
+        <v>69.99994319211589</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09195357605446544</v>
+        <v>0.09509220554267996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62.06004605397445</v>
+        <v>71.16660891198448</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09229232998911822</v>
+        <v>0.09539826876447</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63.07742385813796</v>
+        <v>72.33327463185309</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09262447167801648</v>
+        <v>0.095697742682191</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64.09480166230148</v>
+        <v>73.49994035172168</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09295013018768739</v>
+        <v>0.09599076915845507</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65.11217946646499</v>
+        <v>74.66660607159028</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09326943206536757</v>
+        <v>0.09627748700168219</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.12955727062851</v>
+        <v>75.83327179145888</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09358250138817789</v>
+        <v>0.09655803203185456</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67.14693507479203</v>
+        <v>76.99993751132747</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09388945981133845</v>
+        <v>0.09683253714485542</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68.16431287895554</v>
+        <v>78.16660323119608</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09419042661544241</v>
+        <v>0.09710113237542253</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69.18169068311906</v>
+        <v>79.33326895106467</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09448551875280714</v>
+        <v>0.09736394495874655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70.19906848728257</v>
+        <v>80.49993467093327</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09477485089292051</v>
+        <v>0.097621099390743</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71.21644629144609</v>
+        <v>81.66660039080188</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09505853546700022</v>
+        <v>0.09787271748702679</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.23382409560961</v>
+        <v>82.83326611067046</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09533668271168326</v>
+        <v>0.09811891844061704</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73.25120189977312</v>
+        <v>83.99993183053907</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09560940071186269</v>
+        <v>0.09835981887839945</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74.26857970393664</v>
+        <v>85.16659755040766</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09587679544268816</v>
+        <v>0.09859553291637327</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75.28595750810015</v>
+        <v>86.33326327027626</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09613897081074668</v>
+        <v>0.09882617221370864</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76.30333531226367</v>
+        <v>87.49992899014487</v>
       </c>
       <c r="B77" t="n">
-        <v>0.09639602869443956</v>
+        <v>0.09905184602564029</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.32071311642719</v>
+        <v>88.66659471001346</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09664806898357117</v>
+        <v>0.0992726612552224</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78.3380909205907</v>
+        <v>89.83326042988206</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09689518961816508</v>
+        <v>0.09948872250396917</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79.35546872475422</v>
+        <v>90.99992614975065</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09713748662652237</v>
+        <v>0.09970013212140526</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80.37284652891773</v>
+        <v>92.16659186961925</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09737505416253718</v>
+        <v>0.09990699025354932</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81.39022433308125</v>
+        <v>93.33325758948786</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09760798454228385</v>
+        <v>0.1001093948903538</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82.40760213724475</v>
+        <v>94.49992330935645</v>
       </c>
       <c r="B83" t="n">
-        <v>0.09783636827988994</v>
+        <v>0.1003074419121235</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83.42497994140827</v>
+        <v>95.66658902922505</v>
       </c>
       <c r="B84" t="n">
-        <v>0.09806029412270895</v>
+        <v>0.1005012251349343</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84.44235774557178</v>
+        <v>96.83325474909364</v>
       </c>
       <c r="B85" t="n">
-        <v>0.09827984908580659</v>
+        <v>0.1006908363550749</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85.4597355497353</v>
+        <v>97.99992046896224</v>
       </c>
       <c r="B86" t="n">
-        <v>0.09849511848577382</v>
+        <v>0.1008763653925308</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86.47711335389882</v>
+        <v>99.16658618883083</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09870618597387994</v>
+        <v>0.1010579001335329</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87.49449115806233</v>
+        <v>100.3332519086994</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09891313356857853</v>
+        <v>0.1012355265721896</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88.51186896222585</v>
+        <v>101.499917628568</v>
       </c>
       <c r="B89" t="n">
-        <v>0.09911604168737891</v>
+        <v>0.1014093288512228</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89.52924676638936</v>
+        <v>102.6665833484366</v>
       </c>
       <c r="B90" t="n">
-        <v>0.09931498917809543</v>
+        <v>0.1015793893018267</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90.54662457055288</v>
+        <v>103.8332490683052</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09951005334948694</v>
+        <v>0.1017457884826689</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91.5640023747164</v>
+        <v>104.9999147881738</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09970131000129799</v>
+        <v>0.1019086052180509</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92.58138017887991</v>
+        <v>106.1665805080424</v>
       </c>
       <c r="B93" t="n">
-        <v>0.09988883345371385</v>
+        <v>0.1020679166352484</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93.59875798304343</v>
+        <v>107.333246227911</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1000726965762405</v>
+        <v>0.1022237982010464</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94.61613578720694</v>
+        <v>108.4999119477796</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1002529708160207</v>
+        <v>0.1023763237574886</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95.63351359137046</v>
+        <v>109.6665776676482</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1004297262255979</v>
+        <v>0.1025255655568566</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96.65089139553398</v>
+        <v>110.8332433875168</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1006030314901377</v>
+        <v>0.1026715942958965</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97.66826919969749</v>
+        <v>111.9999091073854</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1007729539541179</v>
+        <v>0.102814479149308</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98.68564700386101</v>
+        <v>113.166574827254</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1009395596474983</v>
+        <v>0.1029542878025132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99.70302480802452</v>
+        <v>114.3332405471226</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1011029133113786</v>
+        <v>0.1030910864837197</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100.720402612188</v>
+        <v>115.4999062669912</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1012630784231567</v>
+        <v>0.1032249399952928</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101.7377804163516</v>
+        <v>116.6665719868598</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1014201172211948</v>
+        <v>0.1033559117444532</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102.7551582205151</v>
+        <v>117.8332377067284</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1015740907290048</v>
+        <v>0.1034840637733132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103.7725360246786</v>
+        <v>118.999903426597</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1017250587789612</v>
+        <v>0.1036094567882666</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104.7899138288421</v>
+        <v>120.1665691464656</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1018730800355515</v>
+        <v>0.1037321501887455</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105.8072916330056</v>
+        <v>121.3332348663342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1020182120181722</v>
+        <v>0.1038522020953583</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106.8246694371691</v>
+        <v>122.4999005862028</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1021605111234807</v>
+        <v>0.1039696693774215</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107.8420472413327</v>
+        <v>123.6665663060714</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1023000326473097</v>
+        <v>0.1040846076798996</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108.8594250454962</v>
+        <v>124.83323202594</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1024368308061555</v>
+        <v>0.1041970714497638</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109.8768028496597</v>
+        <v>125.9998977458086</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1025709587582448</v>
+        <v>0.1043071139617845</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110.8941806538232</v>
+        <v>127.1665634656772</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1027024686241925</v>
+        <v>0.1044147873437673</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111.9115584579867</v>
+        <v>128.3332291855458</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1028314115072542</v>
+        <v>0.1045201426012468</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112.9289362621502</v>
+        <v>129.4998949054144</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1029578375131851</v>
+        <v>0.1046232296416476</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113.9463140663137</v>
+        <v>130.666560625283</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1030817957697101</v>
+        <v>0.1047240972979263</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114.9636918704772</v>
+        <v>131.8332263451516</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1032033344456146</v>
+        <v>0.1048227933517039</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115.9810696746408</v>
+        <v>132.9998920650202</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1033225007694618</v>
+        <v>0.1049193645559</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116.9984474788043</v>
+        <v>134.1665577848888</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1034393410479458</v>
+        <v>0.1050138566568799</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118.0158252829678</v>
+        <v>135.3332235047574</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1035539006838857</v>
+        <v>0.1051063144161253</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119.0332030871313</v>
+        <v>136.499889224626</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1036662241938685</v>
+        <v>0.1051967816314378</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120.0505808912948</v>
+        <v>137.6665549444946</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1037763552255475</v>
+        <v>0.1052853011576864</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121.0679586954583</v>
+        <v>138.8332206643632</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1038843365746039</v>
+        <v>0.1053719149271077</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122.0853364996219</v>
+        <v>139.9998863842318</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1039902102013763</v>
+        <v>0.1054566639691699</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123.1027143037854</v>
+        <v>141.1665521041004</v>
       </c>
       <c r="B123" t="n">
-        <v>0.104094017247166</v>
+        <v>0.1055395884300085</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124.1200921079489</v>
+        <v>142.333217823969</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1041957980502244</v>
+        <v>0.1056207275914438</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125.1374699121124</v>
+        <v>143.4998835438376</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1042955921614276</v>
+        <v>0.1057001198895891</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126.1548477162759</v>
+        <v>144.6665492637062</v>
       </c>
       <c r="B126" t="n">
-        <v>0.1043934383596454</v>
+        <v>0.1057778029330576</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127.1722255204394</v>
+        <v>145.8332149835748</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1044893746668108</v>
+        <v>0.1058538135207784</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128.189603324603</v>
+        <v>146.9998807034434</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1045834383626945</v>
+        <v>0.1059281876594283</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129.2069811287665</v>
+        <v>148.166546423312</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1046756659993914</v>
+        <v>0.106000960580488</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130.22435893293</v>
+        <v>149.3332121431806</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1047660934155247</v>
+        <v>0.1060721667569318</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131.2417367370935</v>
+        <v>150.4998778630492</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1048547557501718</v>
+        <v>0.1061418399195577</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132.259114541257</v>
+        <v>151.6665435829178</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1049416874565194</v>
+        <v>0.1062100130729655</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133.2764923454205</v>
+        <v>152.8332093027863</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1050269223152516</v>
+        <v>0.1062767185111917</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134.2938701495841</v>
+        <v>153.9998750226549</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1051104934476765</v>
+        <v>0.1063419878330071</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135.3112479537476</v>
+        <v>155.1665407425236</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1051924333285968</v>
+        <v>0.1064058519568857</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136.3286257579111</v>
+        <v>156.3332064623922</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1052727737989294</v>
+        <v>0.1064683411356504</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137.3460035620746</v>
+        <v>157.4998721822608</v>
       </c>
       <c r="B137" t="n">
-        <v>0.1053515460780779</v>
+        <v>0.1065294849708044</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138.3633813662381</v>
+        <v>158.6665379021293</v>
       </c>
       <c r="B138" t="n">
-        <v>0.1054287807760647</v>
+        <v>0.1065893124265534</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139.3807591704016</v>
+        <v>159.8332036219979</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1055045079054253</v>
+        <v>0.1066478518435263</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140.3981369745651</v>
+        <v>160.9998693418665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1055787568928712</v>
+        <v>0.1067051309522002</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141.4155147787287</v>
+        <v>162.1665350617351</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1056515565907242</v>
+        <v>0.1067611768860364</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142.4328925828922</v>
+        <v>163.3332007816038</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1057229352881288</v>
+        <v>0.1068160161943338</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143.4502703870557</v>
+        <v>164.4998665014723</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1057929207220445</v>
+        <v>0.1068696748548057</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144.4676481912192</v>
+        <v>165.6665322213409</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1058615400880242</v>
+        <v>0.1069221782858849</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145.4850259953827</v>
+        <v>166.8331979412095</v>
       </c>
       <c r="B145" t="n">
-        <v>0.1059288200507825</v>
+        <v>0.1069735513587656</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146.5024037995462</v>
+        <v>167.9998636610781</v>
       </c>
       <c r="B146" t="n">
-        <v>0.1059947867545565</v>
+        <v>0.107023818409184</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147.5197816037098</v>
+        <v>169.1665293809467</v>
       </c>
       <c r="B147" t="n">
-        <v>0.106059465833266</v>
+        <v>0.107073003248947</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148.5371594078733</v>
+        <v>170.3331951008153</v>
       </c>
       <c r="B148" t="n">
-        <v>0.106122882420474</v>
+        <v>0.1071211291772115</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149.5545372120368</v>
+        <v>171.4998608206839</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1061850611591535</v>
+        <v>0.107168218991522</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150.5719150162003</v>
+        <v>172.6665265405525</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1062460262112635</v>
+        <v>0.1072142949986091</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151.5892928203638</v>
+        <v>173.8331922604211</v>
       </c>
       <c r="B151" t="n">
-        <v>0.106305801267138</v>
+        <v>0.1072593790249571</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>152.6066706245273</v>
+        <v>174.9998579802897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1063644095546919</v>
+        <v>0.1073034924271427</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153.6240484286909</v>
+        <v>176.1665237001583</v>
       </c>
       <c r="B153" t="n">
-        <v>0.106421873848447</v>
+        <v>0.1073466561019524</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>154.6414262328544</v>
+        <v>177.3331894200269</v>
       </c>
       <c r="B154" t="n">
-        <v>0.106478216478382</v>
+        <v>0.1073888904962807</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155.6588040370179</v>
+        <v>178.4998551398955</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1065334593386097</v>
+        <v>0.1074302156168166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>156.6761818411814</v>
+        <v>179.6665208597641</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1065876238958845</v>
+        <v>0.1074706510395204</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157.6935596453449</v>
+        <v>180.8331865796327</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1066407311979447</v>
+        <v>0.1075102159188973</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158.7109374495084</v>
+        <v>181.9998522995013</v>
       </c>
       <c r="B158" t="n">
-        <v>0.1066928018816909</v>
+        <v>0.1075489289970707</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159.728315253672</v>
+        <v>183.1665180193699</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1067438561812057</v>
+        <v>0.1075868086126606</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>160.7456930578355</v>
+        <v>184.3331837392385</v>
       </c>
       <c r="B160" t="n">
-        <v>0.106793913935616</v>
+        <v>0.1076238727094709</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>161.763070861999</v>
+        <v>185.4998494591071</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1068429945968024</v>
+        <v>0.107660138844989</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.7804486661625</v>
+        <v>186.6665151789757</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1068911172369583</v>
+        <v>0.1076956241987035</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>163.797826470326</v>
+        <v>187.8331808988443</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1069383005560009</v>
+        <v>0.1077303455802417</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>164.8152042744895</v>
+        <v>188.9998466187129</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1069845628888375</v>
+        <v>0.1077643194373328</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165.832582078653</v>
+        <v>190.1665123385815</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1070299222124907</v>
+        <v>0.1077975618635991</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166.8499598828165</v>
+        <v>191.3331780584501</v>
       </c>
       <c r="B166" t="n">
-        <v>0.107074396153084</v>
+        <v>0.1078300886061796</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>167.8673376869801</v>
+        <v>192.4998437783187</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1071180019926906</v>
+        <v>0.1078619150731895</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168.8847154911436</v>
+        <v>193.6665094981873</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1071607566760499</v>
+        <v>0.1078930563410196</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169.9020932953071</v>
+        <v>194.8331752180559</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1072026768171512</v>
+        <v>0.1079235271614773</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>170.9194710994706</v>
+        <v>195.9998409379245</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1072437787056901</v>
+        <v>0.1079533419687752</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>171.9368489036341</v>
+        <v>197.1665066577931</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1072840783133987</v>
+        <v>0.1079825148863685</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>172.9542267077976</v>
+        <v>198.3331723776617</v>
       </c>
       <c r="B172" t="n">
-        <v>0.1073235913002514</v>
+        <v>0.1080110597336451</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>173.9716045119611</v>
+        <v>199.4998380975303</v>
       </c>
       <c r="B173" t="n">
-        <v>0.107362333020551</v>
+        <v>0.1080389900324725</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174.9889823161247</v>
+        <v>200.6665038173989</v>
       </c>
       <c r="B174" t="n">
-        <v>0.1074003185288944</v>
+        <v>0.1080663190136028</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>176.0063601202882</v>
+        <v>201.8331695372675</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1074375625860232</v>
+        <v>0.1080930596229401</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>177.0237379244517</v>
+        <v>202.9998352571361</v>
       </c>
       <c r="B176" t="n">
-        <v>0.1074740796645595</v>
+        <v>0.1081192245276734</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>178.0411157286152</v>
+        <v>204.1665009770047</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1075098839546296</v>
+        <v>0.1081448261222768</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>179.0584935327787</v>
+        <v>205.3331666968733</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1075449893693781</v>
+        <v>0.108169876534381</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>180.0758713369422</v>
+        <v>206.4998324167419</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1075794095503747</v>
+        <v>0.1081943876305182</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>181.0932491411058</v>
+        <v>207.6664981366105</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1076131578729147</v>
+        <v>0.1082183710217434</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>182.1106269452693</v>
+        <v>208.8331638564791</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1076462474512171</v>
+        <v>0.1082418380691347</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>183.1280047494328</v>
+        <v>209.9998295763477</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1076786911435201</v>
+        <v>0.1082647998891747</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>184.1453825535963</v>
+        <v>211.1664952962163</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1077105015570778</v>
+        <v>0.1082872673590169</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>185.1627603577598</v>
+        <v>212.3331610160849</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1077416910530594</v>
+        <v>0.1083092511216381</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>186.1801381619233</v>
+        <v>213.4998267359535</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1077722717513524</v>
+        <v>0.1083307615908801</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>187.1975159660869</v>
+        <v>214.6664924558221</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1078022555352727</v>
+        <v>0.1083518089563827</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>188.2148937702504</v>
+        <v>215.8331581756906</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1078316540561814</v>
+        <v>0.1083724031884107</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>189.2322715744139</v>
+        <v>216.9998238955592</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1078604787380136</v>
+        <v>0.1083925540425768</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>190.2496493785774</v>
+        <v>218.1664896154278</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1078887407817165</v>
+        <v>0.1084122710644628</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>191.2670271827409</v>
+        <v>219.3331553352965</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1079164511696026</v>
+        <v>0.1084315635941416</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>192.2844049869044</v>
+        <v>220.4998210551651</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1079436206696174</v>
+        <v>0.1084504407706017</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>193.301782791068</v>
+        <v>221.6664867750336</v>
       </c>
       <c r="B192" t="n">
-        <v>0.107970259839523</v>
+        <v>0.108468911536076</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>194.3191605952315</v>
+        <v>222.8331524949022</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1079963790310015</v>
+        <v>0.1084869846402783</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>195.336538399395</v>
+        <v>223.9998182147708</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1080219883936771</v>
+        <v>0.1085046686445478</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>196.3539162035585</v>
+        <v>225.1664839346394</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1080470978790605</v>
+        <v>0.1085219719259044</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>197.371294007722</v>
+        <v>226.333149654508</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1080717172444152</v>
+        <v>0.1085389026810177</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>198.3886718118855</v>
+        <v>227.4998153743766</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1080958560565501</v>
+        <v>0.1085554689300891</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>199.406049616049</v>
+        <v>228.6664810942452</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1081195236955362</v>
+        <v>0.1085716785206512</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>200.4234274202126</v>
+        <v>229.8331468141138</v>
       </c>
       <c r="B199" t="n">
-        <v>0.108142729358352</v>
+        <v>0.1085875391312855</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>201.4408052243761</v>
+        <v>230.9998125339824</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1081654820624572</v>
+        <v>0.1086030582752594</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>202.4581830285396</v>
+        <v>232.166478253851</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1081877906492969</v>
+        <v>0.1086182433040858</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>203.4755608327031</v>
+        <v>233.3331439737196</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1082096637877373</v>
+        <v>0.1086331014110048</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>204.4929386368666</v>
+        <v>234.4998096935882</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1082311099774341</v>
+        <v>0.1086476396343918</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>205.5103164410301</v>
+        <v>235.6664754134568</v>
       </c>
       <c r="B204" t="n">
-        <v>0.1082521375521356</v>
+        <v>0.1086618648610916</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>206.5276942451937</v>
+        <v>236.8331411333254</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1082727546829209</v>
+        <v>0.1086757838296803</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>207.5450720493572</v>
+        <v>237.999806853194</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1082929693813754</v>
+        <v>0.1086894031336578</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>208.5624498535207</v>
+        <v>239.1664725730626</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1083127895027036</v>
+        <v>0.1087027292245711</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>209.5798276576842</v>
+        <v>240.3331382929312</v>
       </c>
       <c r="B208" t="n">
-        <v>0.108332222748782</v>
+        <v>0.1087157684150702</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>210.5972054618477</v>
+        <v>241.4998040127998</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1083512766711516</v>
+        <v>0.1087285268818989</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>211.6145832660112</v>
+        <v>242.6664697326684</v>
       </c>
       <c r="B210" t="n">
-        <v>0.1083699586739524</v>
+        <v>0.1087410106688202</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>212.6319610701748</v>
+        <v>243.833135452537</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1083882760168007</v>
+        <v>0.1087532256894799</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>213.6493388743383</v>
+        <v>244.9998011724056</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1084062358176101</v>
+        <v>0.1087651777302074</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>214.6667166785018</v>
+        <v>246.1664668922742</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1084238450553573</v>
+        <v>0.1087768724527567</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>215.6840944826653</v>
+        <v>247.3331326121428</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1084411105727943</v>
+        <v>0.1087883153969891</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>216.7014722868288</v>
+        <v>248.4997983320114</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1084580390791069</v>
+        <v>0.1087995119834966</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>217.7188500909923</v>
+        <v>249.66646405188</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1084746371525226</v>
+        <v>0.1088104675161702</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>218.7362278951558</v>
+        <v>250.8331297717486</v>
       </c>
       <c r="B217" t="n">
-        <v>0.108490911242866</v>
+        <v>0.1088211871847121</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>219.7536056993194</v>
+        <v>251.9997954916172</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1085068676740658</v>
+        <v>0.1088316760670945</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>220.7709835034829</v>
+        <v>253.1664612114858</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1085225126466118</v>
+        <v>0.1088419391319646</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>221.7883613076464</v>
+        <v>254.3331269313544</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1085378522399645</v>
+        <v>0.1088519812409984</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>222.8057391118099</v>
+        <v>255.499792651223</v>
       </c>
       <c r="B221" t="n">
-        <v>0.1085528924149175</v>
+        <v>0.108861807151204</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>223.8231169159734</v>
+        <v>256.6664583710916</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1085676390159136</v>
+        <v>0.1088714215171746</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>224.8404947201369</v>
+        <v>257.8331240909602</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1085820977733163</v>
+        <v>0.1088808288932938</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>225.8578725243005</v>
+        <v>258.9997898108288</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1085962743056363</v>
+        <v>0.1088900337358927</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>226.875250328464</v>
+        <v>260.1664555306974</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1086101741217145</v>
+        <v>0.1088990404053611</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>227.8926281326275</v>
+        <v>261.333121250566</v>
       </c>
       <c r="B226" t="n">
-        <v>0.1086238026228634</v>
+        <v>0.108907853168213</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>228.910005936791</v>
+        <v>262.4997869704346</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1086371651049653</v>
+        <v>0.1089164761991076</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>229.9273837409545</v>
+        <v>263.6664526903032</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1086502667605306</v>
+        <v>0.108924913582827</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>230.944761545118</v>
+        <v>264.8331184101718</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1086631126807154</v>
+        <v>0.1089331693162111</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>231.9621393492815</v>
+        <v>265.9997841300404</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1086757078572997</v>
+        <v>0.1089412473100508</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>232.979517153445</v>
+        <v>267.166449849909</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1086880571846278</v>
+        <v>0.1089491513909409</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>233.9968949576086</v>
+        <v>268.3331155697776</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1087001654615095</v>
+        <v>0.1089568853030924</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>235.0142727617721</v>
+        <v>269.4997812896462</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1087120373930849</v>
+        <v>0.1089644527101065</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>236.0316505659356</v>
+        <v>270.6664470095147</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1087236775926533</v>
+        <v>0.1089718571967098</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>237.0490283700991</v>
+        <v>271.8331127293833</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1087350905834655</v>
+        <v>0.1089791022704525</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>238.0664061742626</v>
+        <v>272.9997784492519</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1087462808004813</v>
+        <v>0.10898619136337</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>239.0837839784261</v>
+        <v>274.1664441691206</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1087572525920934</v>
+        <v>0.1089931278336086</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>240.1011617825897</v>
+        <v>275.3331098889892</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1087680102218166</v>
+        <v>0.1089999149670165</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>241.1185395867532</v>
+        <v>276.4997756088578</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1087785578699449</v>
+        <v>0.1090065559786998</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>242.1359173909167</v>
+        <v>277.6664413287264</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1087888996351758</v>
+        <v>0.1090130540145461</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>243.1532951950802</v>
+        <v>278.833107048595</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1087990395362032</v>
+        <v>0.1090194121527145</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>244.1706729992437</v>
+        <v>279.9997727684636</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1088089815132785</v>
+        <v>0.1090256334050935</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>245.1880508034072</v>
+        <v>281.1664384883322</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1088187294297423</v>
+        <v>0.1090317207187281</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>246.2054286075708</v>
+        <v>282.3331042082007</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1088282870735253</v>
+        <v>0.1090376769772159</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>247.2228064117343</v>
+        <v>283.4997699280693</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1088376581586206</v>
+        <v>0.1090435050020725</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>248.2401842158978</v>
+        <v>284.6664356479379</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1088468463265265</v>
+        <v>0.1090492075540687</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>249.2575620200613</v>
+        <v>285.8331013678065</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1088558551476616</v>
+        <v>0.1090547873345379</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>250.2749398242248</v>
+        <v>286.9997670876751</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1088646881227528</v>
+        <v>0.1090602469866562</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>251.2923176283883</v>
+        <v>288.1664328075437</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1088733486841948</v>
+        <v>0.1090655890966937</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>252.3096954325518</v>
+        <v>289.3330985274123</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1088818401973845</v>
+        <v>0.1090708161952404</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>253.3270732367154</v>
+        <v>290.499764247281</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1088901659620284</v>
+        <v>0.1090759307584047</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>254.3444510408789</v>
+        <v>291.6664299671496</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1088983292134251</v>
+        <v>0.1090809352089861</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>255.3618288450424</v>
+        <v>292.8330956870182</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1089063331237223</v>
+        <v>0.1090858319176233</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>256.3792066492059</v>
+        <v>293.9997614068867</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1089141808031497</v>
+        <v>0.1090906232039168</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>257.3965844533694</v>
+        <v>295.1664271267553</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1089218753012272</v>
+        <v>0.109095311337528</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>258.4139622575329</v>
+        <v>296.3330928466239</v>
       </c>
       <c r="B256" t="n">
-        <v>0.1089294196079504</v>
+        <v>0.1090998985392544</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>259.4313400616965</v>
+        <v>297.4997585664925</v>
       </c>
       <c r="B257" t="n">
-        <v>0.108936816654952</v>
+        <v>0.1091043869820811</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>260.44871786586</v>
+        <v>298.6664242863611</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1089440693166413</v>
+        <v>0.1091087787922108</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>261.4660956700235</v>
+        <v>299.8330900062297</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1089511804113212</v>
+        <v>0.1091130760500705</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>262.483473474187</v>
+        <v>300.9997557260983</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1089581527022831</v>
+        <v>0.1091172807912975</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>263.5008512783505</v>
+        <v>302.1664214459669</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1089649888988809</v>
+        <v>0.1091213950077031</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>264.518229082514</v>
+        <v>303.3330871658355</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1089716916575839</v>
+        <v>0.1091254206482166</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>265.5356068866776</v>
+        <v>304.4997528857041</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1089782635830086</v>
+        <v>0.1091293596198084</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>266.5529846908411</v>
+        <v>305.6664186055727</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1089847072289315</v>
+        <v>0.1091332137883932</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>267.5703624950046</v>
+        <v>306.8330843254413</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1089910250992809</v>
+        <v>0.1091369849797141</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>268.5877402991681</v>
+        <v>307.9997500453099</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1089972196491102</v>
+        <v>0.1091406749802072</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>269.6051181033316</v>
+        <v>309.1664157651785</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1090032932855519</v>
+        <v>0.1091442855378482</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>270.6224959074951</v>
+        <v>310.3330814850471</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1090092483687529</v>
+        <v>0.1091478183629802</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>271.6398737116587</v>
+        <v>311.4997472049157</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1090150872127914</v>
+        <v>0.1091512751291238</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>272.6572515158222</v>
+        <v>312.6664129247843</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1090208120865768</v>
+        <v>0.1091546574737702</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>273.6746293199857</v>
+        <v>313.8330786446529</v>
       </c>
       <c r="B271" t="n">
-        <v>0.1090264252147306</v>
+        <v>0.1091579669991566</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>274.6920071241492</v>
+        <v>314.9997443645215</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1090319287784513</v>
+        <v>0.1091612052730251</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>275.7093849283127</v>
+        <v>316.1664100843901</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1090373249163619</v>
+        <v>0.1091643738293658</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>276.7267627324762</v>
+        <v>317.3330758042587</v>
       </c>
       <c r="B274" t="n">
-        <v>0.109042615725341</v>
+        <v>0.1091674741691431</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>277.7441405366397</v>
+        <v>318.4997415241273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1090478032613374</v>
+        <v>0.1091705077610067</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>278.7615183408033</v>
+        <v>319.6664072439959</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1090528895401694</v>
+        <v>0.1091734760419874</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>279.7788961449668</v>
+        <v>320.8330729638645</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1090578765383078</v>
+        <v>0.1091763804181781</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>280.7962739491303</v>
+        <v>321.9997386837331</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1090627661936439</v>
+        <v>0.1091792222653993</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>281.8136517532938</v>
+        <v>323.1664044036017</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1090675604062428</v>
+        <v>0.1091820029298514</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>282.8310295574573</v>
+        <v>324.3330701234703</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1090722610390818</v>
+        <v>0.1091847237287518</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>283.8484073616208</v>
+        <v>325.4997358433389</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1090768699187739</v>
+        <v>0.1091873859509596</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>284.8657851657844</v>
+        <v>326.6664015632075</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1090813888362779</v>
+        <v>0.1091899908575856</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>285.8831629699479</v>
+        <v>327.833067283076</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1090858195475943</v>
+        <v>0.1091925396825899</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>286.9005407741114</v>
+        <v>328.9997330029447</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1090901637744479</v>
+        <v>0.1091950336333663</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>287.9179185782749</v>
+        <v>330.1663987228133</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1090944232049563</v>
+        <v>0.1091974738913145</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>288.9352963824384</v>
+        <v>331.3330644426819</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1090985994942864</v>
+        <v>0.1091998616123995</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>289.9526741866019</v>
+        <v>332.4997301625505</v>
       </c>
       <c r="B287" t="n">
-        <v>0.1091026942652972</v>
+        <v>0.1092021979276991</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>290.9700519907655</v>
+        <v>333.6663958824191</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1091067091091708</v>
+        <v>0.1092044839439402</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>291.987429794929</v>
+        <v>334.8330616022877</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1091106455860303</v>
+        <v>0.1092067207440226</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>293.0048075990925</v>
+        <v>335.9997273221563</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1091145052255464</v>
+        <v>0.1092089093875319</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>294.022185403256</v>
+        <v>337.1663930420249</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1091182895275317</v>
+        <v>0.1092110509112419</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>295.0395632074195</v>
+        <v>338.3330587618935</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1091219999625233</v>
+        <v>0.1092131463296055</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>296.056941011583</v>
+        <v>339.499724481762</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1091256379723546</v>
+        <v>0.1092151966352349</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>297.0743188157466</v>
+        <v>340.6663902016306</v>
       </c>
       <c r="B294" t="n">
-        <v>0.1091292049707153</v>
+        <v>0.1092172027993723</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>298.0916966199101</v>
+        <v>341.8330559214992</v>
       </c>
       <c r="B295" t="n">
-        <v>0.109132702343701</v>
+        <v>0.1092191657723501</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>299.1090744240736</v>
+        <v>342.9997216413678</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1091361314503514</v>
+        <v>0.1092210864840402</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>300.1264522282371</v>
+        <v>344.1663873612364</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1091394936231788</v>
+        <v>0.1092229658442956</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>301.1438300324006</v>
+        <v>345.333053081105</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1091427901686858</v>
+        <v>0.1092248047433805</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>302.1612078365641</v>
+        <v>346.4997188009737</v>
       </c>
       <c r="B299" t="n">
-        <v>0.109146022367873</v>
+        <v>0.1092266040523927</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>303.1785856407276</v>
+        <v>347.6663845208423</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1091491914767365</v>
+        <v>0.1092283646236757</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>304.1959634448912</v>
+        <v>348.8330502407109</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1091522987267566</v>
+        <v>0.1092300872912229</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>305.2133412490547</v>
+        <v>349.9997159605795</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1068076383741779</v>
+        <v>0.1068102956087689</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>306.2307190532182</v>
+        <v>351.166381680448</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1045545103633743</v>
+        <v>0.1044946964071114</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>307.2480968573817</v>
+        <v>352.3330474003166</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1023893413965838</v>
+        <v>0.1022788033194553</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>308.2654746615452</v>
+        <v>353.4997131201852</v>
       </c>
       <c r="B305" t="n">
-        <v>0.1003086976727144</v>
+        <v>0.1001583231550094</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>309.2828524657087</v>
+        <v>354.6663788400538</v>
       </c>
       <c r="B306" t="n">
-        <v>0.09830927944158473</v>
+        <v>0.09812914758112595</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>310.3002302698723</v>
+        <v>355.8330445599224</v>
       </c>
       <c r="B307" t="n">
-        <v>0.09638791577075929</v>
+        <v>0.09618734516359617</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>311.3176080740358</v>
+        <v>356.999710279791</v>
       </c>
       <c r="B308" t="n">
-        <v>0.09454155951667929</v>
+        <v>0.09432915374967708</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>312.3349858781993</v>
+        <v>358.1663759996596</v>
       </c>
       <c r="B309" t="n">
-        <v>0.09276728249211384</v>
+        <v>0.09255097317909404</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>313.3523636823628</v>
+        <v>359.3330417195282</v>
       </c>
       <c r="B310" t="n">
-        <v>0.09106227082226713</v>
+        <v>0.09084935830889601</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>314.3697414865263</v>
+        <v>360.4997074393968</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08942382048217695</v>
+        <v>0.08922101233864978</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>315.3871192906898</v>
+        <v>361.6663731592654</v>
       </c>
       <c r="B312" t="n">
-        <v>0.08784933300832701</v>
+        <v>0.08766278042304095</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>316.4044970948534</v>
+        <v>362.833038879134</v>
       </c>
       <c r="B313" t="n">
-        <v>0.08633631137767207</v>
+        <v>0.08617164355950646</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>317.4218748990169</v>
+        <v>363.9997045990026</v>
       </c>
       <c r="B314" t="n">
-        <v>0.08488235604754038</v>
+        <v>0.08474471273905623</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>318.4392527031804</v>
+        <v>365.1663703188712</v>
       </c>
       <c r="B315" t="n">
-        <v>0.0834851611501328</v>
+        <v>0.08337922334895125</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>319.4566305073439</v>
+        <v>366.3330360387398</v>
       </c>
       <c r="B316" t="n">
-        <v>0.0821425108355836</v>
+        <v>0.08207252981639374</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>320.4740083115074</v>
+        <v>367.4997017586084</v>
       </c>
       <c r="B317" t="n">
-        <v>0.08085227575778318</v>
+        <v>0.08082210048285175</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>321.4913861156709</v>
+        <v>368.666367478477</v>
       </c>
       <c r="B318" t="n">
-        <v>0.07961240969738934</v>
+        <v>0.07962551269908737</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>322.5087639198345</v>
+        <v>369.8330331983456</v>
       </c>
       <c r="B319" t="n">
-        <v>0.07842094631667171</v>
+        <v>0.07848044813138536</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>323.526141723998</v>
+        <v>370.9996989182142</v>
       </c>
       <c r="B320" t="n">
-        <v>0.07727599604104263</v>
+        <v>0.07738468826988842</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>324.5435195281615</v>
+        <v>372.1663646380828</v>
       </c>
       <c r="B321" t="n">
-        <v>0.07617574306232872</v>
+        <v>0.07633611013033652</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>325.560897332325</v>
+        <v>373.3330303579514</v>
       </c>
       <c r="B322" t="n">
-        <v>0.07511844245903072</v>
+        <v>0.07533268214088264</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>326.5782751364885</v>
+        <v>374.49969607782</v>
       </c>
       <c r="B323" t="n">
-        <v>0.07410241742900446</v>
+        <v>0.07437246020601593</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>327.595652940652</v>
+        <v>375.6663617976886</v>
       </c>
       <c r="B324" t="n">
-        <v>0.07312605663017407</v>
+        <v>0.0734535839399662</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>328.6130307448155</v>
+        <v>376.8330275175572</v>
       </c>
       <c r="B325" t="n">
-        <v>0.0721878116250603</v>
+        <v>0.07257427306229219</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>329.630408548979</v>
+        <v>377.9996932374258</v>
       </c>
       <c r="B326" t="n">
-        <v>0.07128619442507082</v>
+        <v>0.07173282394867019</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>330.6477863531425</v>
+        <v>379.1663589572944</v>
       </c>
       <c r="B327" t="n">
-        <v>0.07041977513065818</v>
+        <v>0.07092760633020039</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>331.665164157306</v>
+        <v>380.333024677163</v>
       </c>
       <c r="B328" t="n">
-        <v>0.06958717966360269</v>
+        <v>0.07015706013483598</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>332.6825419614696</v>
+        <v>381.4996903970316</v>
       </c>
       <c r="B329" t="n">
-        <v>0.06878708758782395</v>
+        <v>0.06941969246481546</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>333.6999197656331</v>
+        <v>382.6663561169002</v>
       </c>
       <c r="B330" t="n">
-        <v>0.06801823001526494</v>
+        <v>0.06871407470424191</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>334.7172975697966</v>
+        <v>383.8330218367688</v>
       </c>
       <c r="B331" t="n">
-        <v>0.06727938759352746</v>
+        <v>0.06803883975120557</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>335.7346753739601</v>
+        <v>384.9996875566374</v>
       </c>
       <c r="B332" t="n">
-        <v>0.06656938857206758</v>
+        <v>0.06739267936908681</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>336.7520531781236</v>
+        <v>386.166353276506</v>
       </c>
       <c r="B333" t="n">
-        <v>0.06588710694388424</v>
+        <v>0.06677434165190795</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>337.7694309822871</v>
+        <v>387.3330189963746</v>
       </c>
       <c r="B334" t="n">
-        <v>0.06523146065975365</v>
+        <v>0.0661826285988231</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>338.7868087864506</v>
+        <v>388.4996847162432</v>
       </c>
       <c r="B335" t="n">
-        <v>0.06460140991217769</v>
+        <v>0.06561639379304669</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>339.8041865906142</v>
+        <v>389.6663504361118</v>
       </c>
       <c r="B336" t="n">
-        <v>0.06399595548632458</v>
+        <v>0.06507454018072378</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>340.8215643947777</v>
+        <v>390.8330161559804</v>
       </c>
       <c r="B337" t="n">
-        <v>0.06341413717534651</v>
+        <v>0.06455601794543873</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>341.8389421989412</v>
+        <v>391.999681875849</v>
       </c>
       <c r="B338" t="n">
-        <v>0.06285503225756116</v>
+        <v>0.06405982247424423</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>342.8563200031047</v>
+        <v>393.1663475957176</v>
       </c>
       <c r="B339" t="n">
-        <v>0.06231775403308198</v>
+        <v>0.06358499241127001</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>343.8736978072682</v>
+        <v>394.3330133155862</v>
       </c>
       <c r="B340" t="n">
-        <v>0.06180145041757647</v>
+        <v>0.06313060779514013</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>344.8910756114317</v>
+        <v>395.4996790354548</v>
       </c>
       <c r="B341" t="n">
-        <v>0.06130530259092209</v>
+        <v>0.06269578827659014</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>345.9084534155953</v>
+        <v>396.6663447553233</v>
       </c>
       <c r="B342" t="n">
-        <v>0.06082852369861694</v>
+        <v>0.06227969141283103</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>346.9258312197588</v>
+        <v>397.8330104751919</v>
       </c>
       <c r="B343" t="n">
-        <v>0.06037035760388551</v>
+        <v>0.06188151103535502</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>347.9432090239223</v>
+        <v>398.9996761950605</v>
       </c>
       <c r="B344" t="n">
-        <v>0.05993007768850053</v>
+        <v>0.06150047568802126</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>348.9605868280858</v>
+        <v>400.1663419149291</v>
       </c>
       <c r="B345" t="n">
-        <v>0.05950698570041916</v>
+        <v>0.06113584713239511</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>349.9779646322493</v>
+        <v>401.3330076347978</v>
       </c>
       <c r="B346" t="n">
-        <v>0.05910041064640578</v>
+        <v>0.06078691891744512</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>350.9953424364128</v>
+        <v>402.4996733546664</v>
       </c>
       <c r="B347" t="n">
-        <v>0.05870970772788541</v>
+        <v>0.06045301501082675</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>352.0127202405764</v>
+        <v>403.666339074535</v>
       </c>
       <c r="B348" t="n">
-        <v>0.05833425731833984</v>
+        <v>0.06013348848910083</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>353.0300980447399</v>
+        <v>404.8330047944036</v>
       </c>
       <c r="B349" t="n">
-        <v>0.05797346398062489</v>
+        <v>0.05982772028434915</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>354.0474758489034</v>
+        <v>405.9996705142722</v>
       </c>
       <c r="B350" t="n">
-        <v>0.05762675552265024</v>
+        <v>0.05953511798475895</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>355.0648536530669</v>
+        <v>407.1663362341408</v>
       </c>
       <c r="B351" t="n">
-        <v>0.05729358208992425</v>
+        <v>0.05925511468685227</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>356.0822314572304</v>
+        <v>408.3330019540093</v>
       </c>
       <c r="B352" t="n">
-        <v>0.05697341529352456</v>
+        <v>0.05898716789713662</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>357.0996092613939</v>
+        <v>409.4996676738779</v>
       </c>
       <c r="B353" t="n">
-        <v>0.05666574737211155</v>
+        <v>0.05873075848104874</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>358.1169870655575</v>
+        <v>410.6663333937465</v>
       </c>
       <c r="B354" t="n">
-        <v>0.05637009038665567</v>
+        <v>0.05848538965715543</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>359.134364869721</v>
+        <v>411.8329991136151</v>
       </c>
       <c r="B355" t="n">
-        <v>0.05608597544660146</v>
+        <v>0.05825058603466225</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>360.1517426738845</v>
+        <v>412.9996648334837</v>
       </c>
       <c r="B356" t="n">
-        <v>0.05581295196624113</v>
+        <v>0.0580258926923659</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>361.169120478048</v>
+        <v>414.1663305533523</v>
       </c>
       <c r="B357" t="n">
-        <v>0.05555058695011827</v>
+        <v>0.05781087429726522</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>362.1864982822115</v>
+        <v>415.3329962732209</v>
       </c>
       <c r="B358" t="n">
-        <v>0.05529846430632845</v>
+        <v>0.05760511426112364</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>363.203876086375</v>
+        <v>416.4996619930895</v>
       </c>
       <c r="B359" t="n">
-        <v>0.05505618418662756</v>
+        <v>0.0574082139333486</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>364.2212538905385</v>
+        <v>417.6663277129582</v>
       </c>
       <c r="B360" t="n">
-        <v>0.05482336235230152</v>
+        <v>0.05721979182862444</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>365.2386316947021</v>
+        <v>418.8329934328268</v>
       </c>
       <c r="B361" t="n">
-        <v>0.0545996295647915</v>
+        <v>0.05703948288780213</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>366.2560094988656</v>
+        <v>419.9996591526953</v>
       </c>
       <c r="B362" t="n">
-        <v>0.05438463100010833</v>
+        <v>0.056866937770614</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>367.2733873030291</v>
+        <v>421.1663248725639</v>
       </c>
       <c r="B363" t="n">
-        <v>0.05417802568610732</v>
+        <v>0.05670182217884307</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>368.2907651071926</v>
+        <v>422.3329905924325</v>
       </c>
       <c r="B364" t="n">
-        <v>0.05397948596173123</v>
+        <v>0.05654381620863565</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>369.3081429113561</v>
+        <v>423.4996563123011</v>
       </c>
       <c r="B365" t="n">
-        <v>0.0537886969573635</v>
+        <v>0.05639261373070235</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>370.3255207155196</v>
+        <v>424.6663220321697</v>
       </c>
       <c r="B366" t="n">
-        <v>0.05360535609546788</v>
+        <v>0.05624792179720668</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>371.3428985196832</v>
+        <v>425.8329877520383</v>
       </c>
       <c r="B367" t="n">
-        <v>0.05342917261072241</v>
+        <v>0.05610946007419212</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>372.3602763238467</v>
+        <v>426.9996534719069</v>
       </c>
       <c r="B368" t="n">
-        <v>0.05325986708888663</v>
+        <v>0.055976960298448</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>373.3776541280102</v>
+        <v>428.1663191917755</v>
       </c>
       <c r="B369" t="n">
-        <v>0.05309717102367089</v>
+        <v>0.05585016575776185</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>374.3950319321737</v>
+        <v>429.3329849116441</v>
       </c>
       <c r="B370" t="n">
-        <v>0.05294082639090481</v>
+        <v>0.05572883079355137</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>375.4124097363372</v>
+        <v>430.4996506315127</v>
       </c>
       <c r="B371" t="n">
-        <v>0.05279058523932965</v>
+        <v>0.05561272032491218</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>376.4297875405007</v>
+        <v>431.6663163513813</v>
       </c>
       <c r="B372" t="n">
-        <v>0.05264620929736558</v>
+        <v>0.05550160939315943</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>377.4471653446643</v>
+        <v>432.8329820712499</v>
       </c>
       <c r="B373" t="n">
-        <v>0.05250746959523019</v>
+        <v>0.05539528272598072</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>378.4645431488278</v>
+        <v>433.9996477911185</v>
       </c>
       <c r="B374" t="n">
-        <v>0.05237414610180908</v>
+        <v>0.05529353432035588</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>379.4819209529913</v>
+        <v>435.1663135109871</v>
       </c>
       <c r="B375" t="n">
-        <v>0.05224602737570237</v>
+        <v>0.05519616704343563</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>380.4992987571548</v>
+        <v>436.3329792308557</v>
       </c>
       <c r="B376" t="n">
-        <v>0.05212291022989402</v>
+        <v>0.05510299225060575</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>381.5166765613183</v>
+        <v>437.4996449507243</v>
       </c>
       <c r="B377" t="n">
-        <v>0.05200459940951192</v>
+        <v>0.05501382941999684</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>382.5340543654818</v>
+        <v>438.6663106705929</v>
       </c>
       <c r="B378" t="n">
-        <v>0.05189090728216782</v>
+        <v>0.05492850580273152</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>383.5514321696454</v>
+        <v>439.8329763904615</v>
       </c>
       <c r="B379" t="n">
-        <v>0.05178165354038593</v>
+        <v>0.05484685608823141</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>384.5688099738089</v>
+        <v>440.9996421103301</v>
       </c>
       <c r="B380" t="n">
-        <v>0.0516766649156484</v>
+        <v>0.05476872208393551</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>385.5861877779724</v>
+        <v>442.1663078301987</v>
       </c>
       <c r="B381" t="n">
-        <v>0.05157577490360392</v>
+        <v>0.05469395240880942</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>386.6035655821359</v>
+        <v>443.3329735500673</v>
       </c>
       <c r="B382" t="n">
-        <v>0.05147882350000394</v>
+        <v>0.05462240220005154</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>387.6209433862994</v>
+        <v>444.4996392699359</v>
       </c>
       <c r="B383" t="n">
-        <v>0.05138565694694752</v>
+        <v>0.05455393283242806</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>388.6383211904629</v>
+        <v>445.6663049898045</v>
       </c>
       <c r="B384" t="n">
-        <v>0.05129612748903239</v>
+        <v>0.05448841164969296</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>389.6556989946264</v>
+        <v>446.8329707096731</v>
       </c>
       <c r="B385" t="n">
-        <v>0.05121009313902568</v>
+        <v>0.05442571170757265</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>390.67307679879</v>
+        <v>447.9996364295417</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05112741745268237</v>
+        <v>0.0543657115278173</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>391.6904546029535</v>
+        <v>449.1663021494103</v>
       </c>
       <c r="B387" t="n">
-        <v>0.05104796931235464</v>
+        <v>0.05430829486284227</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>392.707832407117</v>
+        <v>450.3329678692789</v>
       </c>
       <c r="B388" t="n">
-        <v>0.0509716227190488</v>
+        <v>0.05425335047050384</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>393.7252102112805</v>
+        <v>451.4996335891475</v>
       </c>
       <c r="B389" t="n">
-        <v>0.05089825659259999</v>
+        <v>0.05420077189857264</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>394.742588015444</v>
+        <v>452.6662993090161</v>
       </c>
       <c r="B390" t="n">
-        <v>0.0508277545796478</v>
+        <v>0.05415045727848736</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>395.7599658196075</v>
+        <v>453.8329650288846</v>
       </c>
       <c r="B391" t="n">
-        <v>0.05076000486910832</v>
+        <v>0.05410230912798913</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>396.7773436237711</v>
+        <v>454.9996307487532</v>
       </c>
       <c r="B392" t="n">
-        <v>0.05069490001484982</v>
+        <v>0.05405623416225409</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>397.7947214279346</v>
+        <v>456.1662964686219</v>
       </c>
       <c r="B393" t="n">
-        <v>0.05063233676529097</v>
+        <v>0.05401214311315838</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>398.8120992320981</v>
+        <v>457.3329621884905</v>
       </c>
       <c r="B394" t="n">
-        <v>0.05057221589965135</v>
+        <v>0.05396995055632525</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>399.8294770362616</v>
+        <v>458.4996279083591</v>
       </c>
       <c r="B395" t="n">
-        <v>0.05051444207059444</v>
+        <v>0.05392957474561925</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>400.8468548404251</v>
+        <v>459.6662936282277</v>
       </c>
       <c r="B396" t="n">
-        <v>0.05045892365301369</v>
+        <v>0.0538909374547669</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>401.8642326445886</v>
+        <v>460.8329593480963</v>
       </c>
       <c r="B397" t="n">
-        <v>0.05040557259872171</v>
+        <v>0.05385396382579684</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>402.8816104487522</v>
+        <v>461.9996250679649</v>
       </c>
       <c r="B398" t="n">
-        <v>0.05035430429681224</v>
+        <v>0.05381858222400596</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>403.8989882529157</v>
+        <v>463.1662907878335</v>
       </c>
       <c r="B399" t="n">
-        <v>0.0503050374394734</v>
+        <v>0.0537847240991705</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>404.9163660570792</v>
+        <v>464.3329565077021</v>
       </c>
       <c r="B400" t="n">
-        <v>0.05025769389303934</v>
+        <v>0.05375232385273312</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>405.9337438612427</v>
+        <v>465.4996222275706</v>
       </c>
       <c r="B401" t="n">
-        <v>0.05021219857407595</v>
+        <v>0.05372131871070875</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>406.9511216654062</v>
+        <v>466.6662879474392</v>
       </c>
       <c r="B402" t="n">
-        <v>0.05016847933030399</v>
+        <v>0.05369164860206282</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>407.9684994695697</v>
+        <v>467.8329536673078</v>
       </c>
       <c r="B403" t="n">
-        <v>0.05012646682617076</v>
+        <v>0.05366325604232646</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>408.9858772737333</v>
+        <v>468.9996193871764</v>
       </c>
       <c r="B404" t="n">
-        <v>0.05008609443288894</v>
+        <v>0.05363608602222297</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>410.0032550778968</v>
+        <v>470.166285107045</v>
       </c>
       <c r="B405" t="n">
-        <v>0.0500472981227682</v>
+        <v>0.05361008590108988</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>411.0206328820603</v>
+        <v>471.3329508269136</v>
       </c>
       <c r="B406" t="n">
-        <v>0.05001001636767189</v>
+        <v>0.05358520530489007</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>412.0380106862238</v>
+        <v>472.4996165467822</v>
       </c>
       <c r="B407" t="n">
-        <v>0.04997419004143789</v>
+        <v>0.05356139602861443</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>413.0553884903873</v>
+        <v>473.6662822666509</v>
       </c>
       <c r="B408" t="n">
-        <v>0.04993976232610879</v>
+        <v>0.05353861194288684</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>414.0727662945508</v>
+        <v>474.8329479865195</v>
       </c>
       <c r="B409" t="n">
-        <v>0.04990667862182273</v>
+        <v>0.05351680890459068</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>415.0901440987143</v>
+        <v>475.9996137063881</v>
       </c>
       <c r="B410" t="n">
-        <v>0.04987488646022197</v>
+        <v>0.0534959446713435</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>416.1075219028779</v>
+        <v>477.1662794262566</v>
       </c>
       <c r="B411" t="n">
-        <v>0.04984433542124191</v>
+        <v>0.05347597881965441</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>417.1248997070414</v>
+        <v>478.3329451461252</v>
       </c>
       <c r="B412" t="n">
-        <v>0.04981497705314845</v>
+        <v>0.05345687266660541</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>418.1422775112049</v>
+        <v>479.4996108659938</v>
       </c>
       <c r="B413" t="n">
-        <v>0.04978676479569713</v>
+        <v>0.053438589194905</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>419.1596553153684</v>
+        <v>480.6662765858624</v>
       </c>
       <c r="B414" t="n">
-        <v>0.04975965390629191</v>
+        <v>0.05342109298116893</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>420.1770331195319</v>
+        <v>481.832942305731</v>
       </c>
       <c r="B415" t="n">
-        <v>0.04973360138902666</v>
+        <v>0.05340435012728897</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>421.1944109236954</v>
+        <v>482.9996080255996</v>
       </c>
       <c r="B416" t="n">
-        <v>0.04970856592649678</v>
+        <v>0.05338832819475691</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>422.211788727859</v>
+        <v>484.1662737454682</v>
       </c>
       <c r="B417" t="n">
-        <v>0.04968450781427278</v>
+        <v>0.05337299614181646</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>423.2291665320225</v>
+        <v>485.3329394653368</v>
       </c>
       <c r="B418" t="n">
-        <v>0.04966138889793195</v>
+        <v>0.05335832426332125</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>424.246544336186</v>
+        <v>486.4996051852054</v>
       </c>
       <c r="B419" t="n">
-        <v>0.04963917251254817</v>
+        <v>0.0533442841331825</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>425.2639221403495</v>
+        <v>487.666270905074</v>
       </c>
       <c r="B420" t="n">
-        <v>0.04961782342454404</v>
+        <v>0.05333084854929476</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>426.281299944513</v>
+        <v>488.8329366249426</v>
       </c>
       <c r="B421" t="n">
-        <v>0.04959730777581295</v>
+        <v>0.0533179914808331</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>427.2986777486765</v>
+        <v>489.9996023448112</v>
       </c>
       <c r="B422" t="n">
-        <v>0.04957759303002258</v>
+        <v>0.0533056880178196</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>428.3160555528401</v>
+        <v>491.1662680646798</v>
       </c>
       <c r="B423" t="n">
-        <v>0.04955864792101467</v>
+        <v>0.05329391432286135</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>429.3334333570036</v>
+        <v>492.3329337845484</v>
       </c>
       <c r="B424" t="n">
-        <v>0.04954044240321909</v>
+        <v>0.0532826475849667</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>430.3508111611671</v>
+        <v>493.499599504417</v>
       </c>
       <c r="B425" t="n">
-        <v>0.04952294760400381</v>
+        <v>0.05327186597534993</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>431.3681889653306</v>
+        <v>494.6662652242856</v>
       </c>
       <c r="B426" t="n">
-        <v>0.04950613577788495</v>
+        <v>0.05326154860513901</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>432.3855667694941</v>
+        <v>495.8329309441542</v>
       </c>
       <c r="B427" t="n">
-        <v>0.04948998026252448</v>
+        <v>0.05325167548490438</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>433.4029445736576</v>
+        <v>496.9995966640228</v>
       </c>
       <c r="B428" t="n">
-        <v>0.04947445543644569</v>
+        <v>0.05324222748593035</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>434.4203223778212</v>
+        <v>498.1662623838914</v>
       </c>
       <c r="B429" t="n">
-        <v>0.04945953667839934</v>
+        <v>0.05323318630315411</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>435.4377001819847</v>
+        <v>499.33292810376</v>
       </c>
       <c r="B430" t="n">
-        <v>0.0494452003283162</v>
+        <v>0.05322453441970045</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>436.4550779861482</v>
+        <v>500.4995938236286</v>
       </c>
       <c r="B431" t="n">
-        <v>0.04943142364978386</v>
+        <v>0.05321625507294371</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>437.4724557903117</v>
+        <v>501.6662595434972</v>
       </c>
       <c r="B432" t="n">
-        <v>0.04941818479398843</v>
+        <v>0.05320833222203089</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>438.4898335944752</v>
+        <v>502.8329252633658</v>
       </c>
       <c r="B433" t="n">
-        <v>0.04940546276506391</v>
+        <v>0.05320075051680329</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>439.5072113986387</v>
+        <v>503.9995909832344</v>
       </c>
       <c r="B434" t="n">
-        <v>0.04939323738679428</v>
+        <v>0.05319349526805624</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>440.5245892028022</v>
+        <v>505.166256703103</v>
       </c>
       <c r="B435" t="n">
-        <v>0.04938148927061545</v>
+        <v>0.05318655241907948</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>441.5419670069658</v>
+        <v>506.3329224229716</v>
       </c>
       <c r="B436" t="n">
-        <v>0.04937019978486645</v>
+        <v>0.05317990851842291</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>442.5593448111293</v>
+        <v>507.4995881428402</v>
       </c>
       <c r="B437" t="n">
-        <v>0.04935935102524092</v>
+        <v>0.05317355069383504</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>443.5767226152928</v>
+        <v>508.6662538627088</v>
       </c>
       <c r="B438" t="n">
-        <v>0.0493489257863922</v>
+        <v>0.05316746662732356</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>444.5941004194563</v>
+        <v>509.8329195825774</v>
       </c>
       <c r="B439" t="n">
-        <v>0.0493389075346469</v>
+        <v>0.05316164453128986</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>445.6114782236198</v>
+        <v>510.999585302446</v>
       </c>
       <c r="B440" t="n">
-        <v>0.04932928038178367</v>
+        <v>0.05315607312569104</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>446.6288560277833</v>
+        <v>512.1662510223146</v>
       </c>
       <c r="B441" t="n">
-        <v>0.04932002905983567</v>
+        <v>0.05315074161618537</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>447.6462338319469</v>
+        <v>513.3329167421832</v>
       </c>
       <c r="B442" t="n">
-        <v>0.04931113889687663</v>
+        <v>0.05314563967321875</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>448.6636116361104</v>
+        <v>514.4995824620518</v>
       </c>
       <c r="B443" t="n">
-        <v>0.0493025957937523</v>
+        <v>0.0531407574120117</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>449.6809894402739</v>
+        <v>515.6662481819204</v>
       </c>
       <c r="B444" t="n">
-        <v>0.04929438620172015</v>
+        <v>0.053136085373408</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>450.6983672444374</v>
+        <v>516.832913901789</v>
       </c>
       <c r="B445" t="n">
-        <v>0.04928649710096211</v>
+        <v>0.05313161450554806</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>451.7157450486009</v>
+        <v>517.9995796216575</v>
       </c>
       <c r="B446" t="n">
-        <v>0.049278915979936</v>
+        <v>0.05312733614633133</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>452.7331228527644</v>
+        <v>519.1662453415262</v>
       </c>
       <c r="B447" t="n">
-        <v>0.04927163081553322</v>
+        <v>0.05312324200663389</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>453.750500656928</v>
+        <v>520.3329110613947</v>
       </c>
       <c r="B448" t="n">
-        <v>0.04926463005401092</v>
+        <v>0.05311932415424866</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>454.7678784610915</v>
+        <v>521.4995767812634</v>
       </c>
       <c r="B449" t="n">
-        <v>0.04925790259266859</v>
+        <v>0.0531155749985171</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>455.7852562652549</v>
+        <v>522.6662425011319</v>
       </c>
       <c r="B450" t="n">
-        <v>0.04925143776224003</v>
+        <v>0.05311198727562267</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>456.8026340694184</v>
+        <v>523.8329082210006</v>
       </c>
       <c r="B451" t="n">
-        <v>0.04924522530997262</v>
+        <v>0.05310855403451752</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>457.820011873582</v>
+        <v>524.9995739408691</v>
       </c>
       <c r="B452" t="n">
-        <v>0.04923925538336722</v>
+        <v>0.05310526862345514</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>458.8373896777455</v>
+        <v>526.1662396607378</v>
       </c>
       <c r="B453" t="n">
-        <v>0.04923351851455282</v>
+        <v>0.05310212467710292</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>459.854767481909</v>
+        <v>527.3329053806063</v>
       </c>
       <c r="B454" t="n">
-        <v>0.04922800560527118</v>
+        <v>0.05309911610420964</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>460.8721452860725</v>
+        <v>528.4995711004749</v>
       </c>
       <c r="B455" t="n">
-        <v>0.04922270791244764</v>
+        <v>0.05309623707580387</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>461.889523090236</v>
+        <v>529.6662368203436</v>
       </c>
       <c r="B456" t="n">
-        <v>0.04921761703432527</v>
+        <v>0.05309348201390069</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>462.9069008943995</v>
+        <v>530.8329025402121</v>
       </c>
       <c r="B457" t="n">
-        <v>0.04921272489714024</v>
+        <v>0.05309084558069457</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>463.9242786985631</v>
+        <v>531.9995682600808</v>
       </c>
       <c r="B458" t="n">
-        <v>0.04920802374231747</v>
+        <v>0.05308832266821761</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>464.9416565027266</v>
+        <v>533.1662339799493</v>
       </c>
       <c r="B459" t="n">
-        <v>0.04920350611416607</v>
+        <v>0.05308590838844309</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>465.9590343068901</v>
+        <v>534.332899699818</v>
       </c>
       <c r="B460" t="n">
-        <v>0.04919916484805512</v>
+        <v>0.05308359806381515</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>466.9764121110536</v>
+        <v>535.4995654196865</v>
       </c>
       <c r="B461" t="n">
-        <v>0.04919499305905115</v>
+        <v>0.05308138721818624</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>467.9937899152171</v>
+        <v>536.6662311395552</v>
       </c>
       <c r="B462" t="n">
-        <v>0.04919098413099909</v>
+        <v>0.05307927156814479</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>469.0111677193806</v>
+        <v>537.8328968594237</v>
       </c>
       <c r="B463" t="n">
-        <v>0.04918713170602954</v>
+        <v>0.05307724701471628</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>470.0285455235442</v>
+        <v>538.9995625792924</v>
       </c>
       <c r="B464" t="n">
-        <v>0.04918342967447564</v>
+        <v>0.05307530963542171</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>471.0459233277077</v>
+        <v>540.1662282991609</v>
       </c>
       <c r="B465" t="n">
-        <v>0.0491798721651836</v>
+        <v>0.05307345567667793</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>472.0633011318712</v>
+        <v>541.3328940190295</v>
       </c>
       <c r="B466" t="n">
-        <v>0.04917645353620147</v>
+        <v>0.05307168154652527</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>473.0806789360347</v>
+        <v>542.4995597388981</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0491731683658314</v>
+        <v>0.05306998380766827</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>474.0980567401982</v>
+        <v>543.6662254587667</v>
       </c>
       <c r="B468" t="n">
-        <v>0.04917001144403121</v>
+        <v>0.0530683591708161</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>475.1154345443617</v>
+        <v>544.8328911786354</v>
       </c>
       <c r="B469" t="n">
-        <v>0.0491669777641517</v>
+        <v>0.05306680448830969</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>476.1328123485252</v>
+        <v>545.9995568985039</v>
       </c>
       <c r="B470" t="n">
-        <v>0.04916406251499639</v>
+        <v>0.05306531674802329</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>477.1501901526888</v>
+        <v>547.1662226183726</v>
       </c>
       <c r="B471" t="n">
-        <v>0.04916126107319137</v>
+        <v>0.05306389306752863</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>478.1675679568523</v>
+        <v>548.3328883382411</v>
       </c>
       <c r="B472" t="n">
-        <v>0.04915856899585292</v>
+        <v>0.05306253068851032</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>479.1849457610158</v>
+        <v>549.4995540581098</v>
       </c>
       <c r="B473" t="n">
-        <v>0.04915598201354146</v>
+        <v>0.05306122697142177</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>480.2023235651793</v>
+        <v>550.6662197779783</v>
       </c>
       <c r="B474" t="n">
-        <v>0.04915349602349049</v>
+        <v>0.05305997939037117</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>481.2197013693428</v>
+        <v>551.8328854978469</v>
       </c>
       <c r="B475" t="n">
-        <v>0.04915110708309994</v>
+        <v>0.05305878552822769</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>482.2370791735063</v>
+        <v>552.9995512177155</v>
       </c>
       <c r="B476" t="n">
-        <v>0.04914881140368343</v>
+        <v>0.05305764307193842</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>483.2544569776699</v>
+        <v>554.1662169375841</v>
       </c>
       <c r="B477" t="n">
-        <v>0.04914660534445978</v>
+        <v>0.05305654980804694</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>484.2718347818334</v>
+        <v>555.3328826574527</v>
       </c>
       <c r="B478" t="n">
-        <v>0.04914448540677889</v>
+        <v>0.0530555036184048</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>485.2892125859969</v>
+        <v>556.4995483773213</v>
       </c>
       <c r="B479" t="n">
-        <v>0.04914244822857322</v>
+        <v>0.05305450247606775</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>486.3065903901604</v>
+        <v>557.6662140971899</v>
       </c>
       <c r="B480" t="n">
-        <v>0.04914049057902576</v>
+        <v>0.05305354444136864</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>487.3239681943239</v>
+        <v>558.8328798170585</v>
       </c>
       <c r="B481" t="n">
-        <v>0.04913860935344617</v>
+        <v>0.05305262765815937</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>488.3413459984874</v>
+        <v>559.9995455369271</v>
       </c>
       <c r="B482" t="n">
-        <v>0.04913680156834699</v>
+        <v>0.05305175035021469</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>489.358723802651</v>
+        <v>561.1662112567957</v>
       </c>
       <c r="B483" t="n">
-        <v>0.04913506435671205</v>
+        <v>0.05305091081779088</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>490.3761016068145</v>
+        <v>562.3328769766644</v>
       </c>
       <c r="B484" t="n">
-        <v>0.04913339496344959</v>
+        <v>0.05305010743433251</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>491.393479410978</v>
+        <v>563.4995426965329</v>
       </c>
       <c r="B485" t="n">
-        <v>0.04913179074102284</v>
+        <v>0.05304933864332117</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>492.4108572151415</v>
+        <v>564.6662084164014</v>
       </c>
       <c r="B486" t="n">
-        <v>0.04913024914525129</v>
+        <v>0.05304860295525966</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>493.428235019305</v>
+        <v>565.8328741362701</v>
       </c>
       <c r="B487" t="n">
-        <v>0.04912876773127575</v>
+        <v>0.05304789894478626</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>494.4456128234685</v>
+        <v>566.9995398561387</v>
       </c>
       <c r="B488" t="n">
-        <v>0.04912734414968099</v>
+        <v>0.0530472252479131</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>495.4629906276321</v>
+        <v>568.1662055760073</v>
       </c>
       <c r="B489" t="n">
-        <v>0.04912597614276976</v>
+        <v>0.05304658055938353</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>496.4803684317956</v>
+        <v>569.3328712958759</v>
       </c>
       <c r="B490" t="n">
-        <v>0.04912466154098222</v>
+        <v>0.0530459636301432</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>497.4977462359591</v>
+        <v>570.4995370157445</v>
       </c>
       <c r="B491" t="n">
-        <v>0.04912339825945519</v>
+        <v>0.05304537326492013</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>498.5151240401226</v>
+        <v>571.6662027356131</v>
       </c>
       <c r="B492" t="n">
-        <v>0.04912218429471572</v>
+        <v>0.0530448083199089</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>499.5325018442861</v>
+        <v>572.8328684554817</v>
       </c>
       <c r="B493" t="n">
-        <v>0.04912101772150369</v>
+        <v>0.05304426770055457</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>500.5498796484496</v>
+        <v>573.9995341753503</v>
       </c>
       <c r="B494" t="n">
-        <v>0.04911989668971852</v>
+        <v>0.05304375035943204</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>501.5672574526131</v>
+        <v>575.1661998952188</v>
       </c>
       <c r="B495" t="n">
-        <v>0.04911881942148502</v>
+        <v>0.05304325529421672</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>502.5846352567767</v>
+        <v>576.3328656150875</v>
       </c>
       <c r="B496" t="n">
-        <v>0.04911778420833384</v>
+        <v>0.05304278154574255</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>503.6020130609402</v>
+        <v>577.499531334956</v>
       </c>
       <c r="B497" t="n">
-        <v>0.04911678940849193</v>
+        <v>0.05304232819614368</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>504.6193908651037</v>
+        <v>578.6661970548247</v>
       </c>
       <c r="B498" t="n">
-        <v>0.04911583344427882</v>
+        <v>0.05304189436707616</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>505.6367686692672</v>
+        <v>579.8328627746932</v>
       </c>
       <c r="B499" t="n">
-        <v>0.04911491479960454</v>
+        <v>0.05304147921801614</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>506.6541464734307</v>
+        <v>580.9995284945619</v>
       </c>
       <c r="B500" t="n">
-        <v>0.04911403201756522</v>
+        <v>0.05304108194463145</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>507.6715242775942</v>
+        <v>582.1661942144304</v>
       </c>
       <c r="B501" t="n">
-        <v>0.04911318369813249</v>
+        <v>0.05304070177722318</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>508.6889020817578</v>
+        <v>583.3328599342991</v>
       </c>
       <c r="B502" t="n">
-        <v>0.04911236849593321</v>
+        <v>0.05304033797923452</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>509.7062798859213</v>
+        <v>584.4995256541677</v>
       </c>
       <c r="B503" t="n">
-        <v>0.04911158511811575</v>
+        <v>0.05303998984582361</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>510.7236576900848</v>
+        <v>585.6661913740363</v>
       </c>
       <c r="B504" t="n">
-        <v>0.04911083232229967</v>
+        <v>0.05303965670249799</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>511.7410354942483</v>
+        <v>586.8328570939049</v>
       </c>
       <c r="B505" t="n">
-        <v>0.04911010891460536</v>
+        <v>0.05303933790380783</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>512.7584132984118</v>
+        <v>587.9995228137734</v>
       </c>
       <c r="B506" t="n">
-        <v>0.04910941374776061</v>
+        <v>0.05303903283209535</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>513.7757911025753</v>
+        <v>589.1661885336421</v>
       </c>
       <c r="B507" t="n">
-        <v>0.04910874571928119</v>
+        <v>0.05303874089629815</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>514.7931689067389</v>
+        <v>590.3328542535106</v>
       </c>
       <c r="B508" t="n">
-        <v>0.04910810376972235</v>
+        <v>0.05303846153080407</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>515.8105467109024</v>
+        <v>591.4995199733793</v>
       </c>
       <c r="B509" t="n">
-        <v>0.04910748688099859</v>
+        <v>0.05303819419435533</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>516.8279245150659</v>
+        <v>592.6661856932478</v>
       </c>
       <c r="B510" t="n">
-        <v>0.04910689407476909</v>
+        <v>0.05303793836899989</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>517.8453023192294</v>
+        <v>593.8328514131165</v>
       </c>
       <c r="B511" t="n">
-        <v>0.04910632441088614</v>
+        <v>0.0530376935590879</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>518.8626801233929</v>
+        <v>594.999517132985</v>
       </c>
       <c r="B512" t="n">
-        <v>0.04910577698590408</v>
+        <v>0.05303745929031142</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>519.8800579275564</v>
+        <v>596.1661828528537</v>
       </c>
       <c r="B513" t="n">
-        <v>0.04910525093164658</v>
+        <v>0.0530372351087855</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>520.89743573172</v>
+        <v>597.3328485727222</v>
       </c>
       <c r="B514" t="n">
-        <v>0.04910474541382969</v>
+        <v>0.05303702058016876</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>521.9148135358835</v>
+        <v>598.4995142925908</v>
       </c>
       <c r="B515" t="n">
-        <v>0.04910425963073879</v>
+        <v>0.05303681528882188</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>522.932191340047</v>
+        <v>599.6661800124594</v>
       </c>
       <c r="B516" t="n">
-        <v>0.04910379281195709</v>
+        <v>0.05303661883700234</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>523.9495691442105</v>
+        <v>600.832845732328</v>
       </c>
       <c r="B517" t="n">
-        <v>0.04910334421714384</v>
+        <v>0.05303643084409377</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>524.966946948374</v>
+        <v>601.9995114521967</v>
       </c>
       <c r="B518" t="n">
-        <v>0.04910291313486016</v>
+        <v>0.05303625094586858</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>525.9843247525375</v>
+        <v>603.1661771720652</v>
       </c>
       <c r="B519" t="n">
-        <v>0.04910249888144078</v>
+        <v>0.05303607879378226</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>527.001702556701</v>
+        <v>604.3328428919339</v>
       </c>
       <c r="B520" t="n">
-        <v>0.04910210079990981</v>
+        <v>0.05303591405429804</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>528.0190803608646</v>
+        <v>605.4995086118024</v>
       </c>
       <c r="B521" t="n">
-        <v>0.04910171825893878</v>
+        <v>0.05303575640824078</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>529.0364581650281</v>
+        <v>606.6661743316711</v>
       </c>
       <c r="B522" t="n">
-        <v>0.04910135065184543</v>
+        <v>0.05303560555017851</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>530.0538359691916</v>
+        <v>607.8328400515396</v>
       </c>
       <c r="B523" t="n">
-        <v>0.04910099739563154</v>
+        <v>0.05303546118783066</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>531.0712137733551</v>
+        <v>608.9995057714082</v>
       </c>
       <c r="B524" t="n">
-        <v>0.04910065793005836</v>
+        <v>0.05303532304150185</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>532.0885915775186</v>
+        <v>610.1661714912768</v>
       </c>
       <c r="B525" t="n">
-        <v>0.04910033171675809</v>
+        <v>0.05303519084353992</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>533.1059693816821</v>
+        <v>611.3328372111454</v>
       </c>
       <c r="B526" t="n">
-        <v>0.04910001823838006</v>
+        <v>0.05303506433781742</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>534.1233471858457</v>
+        <v>612.499502931014</v>
       </c>
       <c r="B527" t="n">
-        <v>0.04909971699777029</v>
+        <v>0.05303494327923533</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>535.1407249900092</v>
+        <v>613.6661686508826</v>
       </c>
       <c r="B528" t="n">
-        <v>0.04909942751718301</v>
+        <v>0.05303482743324822</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>536.1581027941727</v>
+        <v>614.8328343707512</v>
       </c>
       <c r="B529" t="n">
-        <v>0.04909914933752296</v>
+        <v>0.05303471657540983</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>537.1754805983362</v>
+        <v>615.9995000906198</v>
       </c>
       <c r="B530" t="n">
-        <v>0.04909888201761738</v>
+        <v>0.05303461049093822</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>538.1928584024997</v>
+        <v>617.1661658104885</v>
       </c>
       <c r="B531" t="n">
-        <v>0.04909862513351625</v>
+        <v>0.05303450897429959</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>539.2102362066632</v>
+        <v>618.332831530357</v>
       </c>
       <c r="B532" t="n">
-        <v>0.04909837827782001</v>
+        <v>0.05303441182881014</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>540.2276140108268</v>
+        <v>619.4994972502257</v>
       </c>
       <c r="B533" t="n">
-        <v>0.04909814105903341</v>
+        <v>0.05303431886625495</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>541.2449918149903</v>
+        <v>620.6661629700942</v>
       </c>
       <c r="B534" t="n">
-        <v>0.04909791310094464</v>
+        <v>0.05303422990652335</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>542.2623696191538</v>
+        <v>621.8328286899628</v>
       </c>
       <c r="B535" t="n">
-        <v>0.0490976940420287</v>
+        <v>0.05303414477725998</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>543.2797474233173</v>
+        <v>622.9994944098314</v>
       </c>
       <c r="B536" t="n">
-        <v>0.04909748353487402</v>
+        <v>0.05303406331353079</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>544.2971252274808</v>
+        <v>624.1661601297</v>
       </c>
       <c r="B537" t="n">
-        <v>0.04909728124563149</v>
+        <v>0.05303398535750357</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>545.3145030316443</v>
+        <v>625.3328258495686</v>
       </c>
       <c r="B538" t="n">
-        <v>0.04909708685348506</v>
+        <v>0.05303391075814209</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>546.3318808358079</v>
+        <v>626.4994915694372</v>
       </c>
       <c r="B539" t="n">
-        <v>0.04909690005014284</v>
+        <v>0.05303383937091355</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>547.3492586399714</v>
+        <v>627.6661572893058</v>
       </c>
       <c r="B540" t="n">
-        <v>0.04909672053934828</v>
+        <v>0.05303377105750846</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>548.3666364441349</v>
+        <v>628.8328230091744</v>
       </c>
       <c r="B541" t="n">
-        <v>0.04909654803641027</v>
+        <v>0.05303370568557276</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>549.3840142482984</v>
+        <v>629.999488729043</v>
       </c>
       <c r="B542" t="n">
-        <v>0.04909638226775165</v>
+        <v>0.05303364312845132</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>550.4013920524619</v>
+        <v>631.1661544489116</v>
       </c>
       <c r="B543" t="n">
-        <v>0.04909622297047533</v>
+        <v>0.05303358326494262</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>551.4187698566254</v>
+        <v>632.3328201687801</v>
       </c>
       <c r="B544" t="n">
-        <v>0.04909606989194738</v>
+        <v>0.05303352597906385</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>552.4361476607889</v>
+        <v>633.4994858886488</v>
       </c>
       <c r="B545" t="n">
-        <v>0.04909592278939634</v>
+        <v>0.05303347115982626</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>553.4535254649525</v>
+        <v>634.6661516085173</v>
       </c>
       <c r="B546" t="n">
-        <v>0.04909578142952823</v>
+        <v>0.05303341870102012</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>554.470903269116</v>
+        <v>635.832817328386</v>
       </c>
       <c r="B547" t="n">
-        <v>0.04909564558815654</v>
+        <v>0.05303336850100888</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>555.4882810732795</v>
+        <v>636.9994830482545</v>
       </c>
       <c r="B548" t="n">
-        <v>0.0490955150498467</v>
+        <v>0.05303332046253236</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>556.505658877443</v>
+        <v>638.1661487681232</v>
       </c>
       <c r="B549" t="n">
-        <v>0.0490953896075744</v>
+        <v>0.05303327449251821</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>557.5230366816065</v>
+        <v>639.3328144879918</v>
       </c>
       <c r="B550" t="n">
-        <v>0.04909526906239729</v>
+        <v>0.05303323050190165</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>558.54041448577</v>
+        <v>640.4994802078604</v>
       </c>
       <c r="B551" t="n">
-        <v>0.04909515322313947</v>
+        <v>0.05303318840545287</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>559.5577922899336</v>
+        <v>641.666145927729</v>
       </c>
       <c r="B552" t="n">
-        <v>0.04909504190608825</v>
+        <v>0.05303314812161197</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>560.5751700940971</v>
+        <v>642.8328116475976</v>
       </c>
       <c r="B553" t="n">
-        <v>0.04909493493470286</v>
+        <v>0.05303310957233083</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>561.5925478982606</v>
+        <v>643.9994773674662</v>
       </c>
       <c r="B554" t="n">
-        <v>0.04909483213933443</v>
+        <v>0.05303307268292202</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>562.6099257024241</v>
+        <v>645.1661430873347</v>
       </c>
       <c r="B555" t="n">
-        <v>0.04909473335695697</v>
+        <v>0.053033037381914</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>563.6273035065876</v>
+        <v>646.3328088072034</v>
       </c>
       <c r="B556" t="n">
-        <v>0.04909463843090876</v>
+        <v>0.05303300360091269</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>564.6446813107511</v>
+        <v>647.4994745270719</v>
       </c>
       <c r="B557" t="n">
-        <v>0.04909454721064399</v>
+        <v>0.05303297127446896</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>565.6620591149147</v>
+        <v>648.6661402469406</v>
       </c>
       <c r="B558" t="n">
-        <v>0.04909445955149392</v>
+        <v>0.05303294033995181</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>566.6794369190782</v>
+        <v>649.8328059668091</v>
       </c>
       <c r="B559" t="n">
-        <v>0.04909437531443749</v>
+        <v>0.05303291073742705</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>567.6968147232417</v>
+        <v>650.9994716866778</v>
       </c>
       <c r="B560" t="n">
-        <v>0.04909429436588084</v>
+        <v>0.05303288240954113</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>568.7141925274052</v>
+        <v>652.1661374065463</v>
       </c>
       <c r="B561" t="n">
-        <v>0.04909421657744541</v>
+        <v>0.0530328553014101</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>569.7315703315687</v>
+        <v>653.332803126415</v>
       </c>
       <c r="B562" t="n">
-        <v>0.0490941418257644</v>
+        <v>0.05303282936051318</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>570.7489481357322</v>
+        <v>654.4994688462835</v>
       </c>
       <c r="B563" t="n">
-        <v>0.04909406999228703</v>
+        <v>0.05303280453659109</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>571.7663259398958</v>
+        <v>655.6661345661521</v>
       </c>
       <c r="B564" t="n">
-        <v>0.04909400096309064</v>
+        <v>0.05303278078154863</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>572.7837037440593</v>
+        <v>656.8328002860208</v>
       </c>
       <c r="B565" t="n">
-        <v>0.04909393462869991</v>
+        <v>0.0530327580493615</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>573.8010815482228</v>
+        <v>657.9994660058893</v>
       </c>
       <c r="B566" t="n">
-        <v>0.04909387088391331</v>
+        <v>0.05303273629598712</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>574.8184593523863</v>
+        <v>659.166131725758</v>
       </c>
       <c r="B567" t="n">
-        <v>0.04909380962763622</v>
+        <v>0.05303271547927934</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>575.8358371565498</v>
+        <v>660.3327974456265</v>
       </c>
       <c r="B568" t="n">
-        <v>0.04909375076272062</v>
+        <v>0.05303269555890675</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>576.8532149607133</v>
+        <v>661.4994631654952</v>
       </c>
       <c r="B569" t="n">
-        <v>0.04909369419581103</v>
+        <v>0.05303267649627453</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>577.8705927648768</v>
+        <v>662.6661288853637</v>
       </c>
       <c r="B570" t="n">
-        <v>0.04909363983719643</v>
+        <v>0.05303265825444973</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>578.8879705690404</v>
+        <v>663.8327946052324</v>
       </c>
       <c r="B571" t="n">
-        <v>0.049093587600668</v>
+        <v>0.05303264079808963</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>579.9053483732039</v>
+        <v>664.9994603251009</v>
       </c>
       <c r="B572" t="n">
-        <v>0.04909353740338237</v>
+        <v>0.05303262409337337</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>580.9227261773674</v>
+        <v>666.1661260449696</v>
       </c>
       <c r="B573" t="n">
-        <v>0.0490934891657303</v>
+        <v>0.05303260810793629</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>581.9401039815309</v>
+        <v>667.3327917648381</v>
       </c>
       <c r="B574" t="n">
-        <v>0.04909344281121036</v>
+        <v>0.05303259281080738</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>582.9574817856944</v>
+        <v>668.4994574847067</v>
       </c>
       <c r="B575" t="n">
-        <v>0.04909339826630765</v>
+        <v>0.05303257817234913</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>583.9748595898579</v>
+        <v>669.6661232045753</v>
       </c>
       <c r="B576" t="n">
-        <v>0.04909335546037718</v>
+        <v>0.05303256416420022</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>584.9922373940215</v>
+        <v>670.8327889244439</v>
       </c>
       <c r="B577" t="n">
-        <v>0.04909331432553184</v>
+        <v>0.0530325507592205</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>586.009615198185</v>
+        <v>671.9994546443126</v>
       </c>
       <c r="B578" t="n">
-        <v>0.04909327479653475</v>
+        <v>0.05303253793143843</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>587.0269930023485</v>
+        <v>673.1661203641811</v>
       </c>
       <c r="B579" t="n">
-        <v>0.04909323681069579</v>
+        <v>0.05303252565600079</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>588.044370806512</v>
+        <v>674.3327860840498</v>
       </c>
       <c r="B580" t="n">
-        <v>0.04909320030777216</v>
+        <v>0.05303251390912447</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>589.0617486106755</v>
+        <v>675.4994518039183</v>
       </c>
       <c r="B581" t="n">
-        <v>0.04909316522987287</v>
+        <v>0.05303250266805044</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>590.079126414839</v>
+        <v>676.666117523787</v>
       </c>
       <c r="B582" t="n">
-        <v>0.04909313152136693</v>
+        <v>0.05303249191099965</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>591.0965042190026</v>
+        <v>677.8327832436555</v>
       </c>
       <c r="B583" t="n">
-        <v>0.04909309912879507</v>
+        <v>0.0530324816171308</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>592.1138820231661</v>
+        <v>678.9994489635241</v>
       </c>
       <c r="B584" t="n">
-        <v>0.04909306800078504</v>
+        <v>0.0530324717665</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>593.1312598273296</v>
+        <v>680.1661146833927</v>
       </c>
       <c r="B585" t="n">
-        <v>0.04909303808797005</v>
+        <v>0.0530324623400221</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>594.1486376314931</v>
+        <v>681.3327804032613</v>
       </c>
       <c r="B586" t="n">
-        <v>0.04909300934291055</v>
+        <v>0.05303245331943372</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>595.1660154356566</v>
+        <v>682.4994461231299</v>
       </c>
       <c r="B587" t="n">
-        <v>0.04909298172001896</v>
+        <v>0.05303244468725791</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>596.1833932398201</v>
+        <v>683.6661118429985</v>
       </c>
       <c r="B588" t="n">
-        <v>0.04909295517548738</v>
+        <v>0.05303243642677021</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>597.2007710439837</v>
+        <v>684.8327775628671</v>
       </c>
       <c r="B589" t="n">
-        <v>0.04909292966721811</v>
+        <v>0.05303242852196632</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>598.2181488481472</v>
+        <v>685.9994432827357</v>
       </c>
       <c r="B590" t="n">
-        <v>0.04909290515475687</v>
+        <v>0.05303242095753103</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>599.2355266523107</v>
+        <v>687.1661090026043</v>
       </c>
       <c r="B591" t="n">
-        <v>0.04909288159922868</v>
+        <v>0.05303241371880861</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>600.2529044564742</v>
+        <v>688.3327747224729</v>
       </c>
       <c r="B592" t="n">
-        <v>0.04909285896327618</v>
+        <v>0.05303240679177436</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>601.2702822606377</v>
+        <v>689.4994404423414</v>
       </c>
       <c r="B593" t="n">
-        <v>0.04909283721100038</v>
+        <v>0.05303240016300747</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>602.2876600648012</v>
+        <v>690.6661061622101</v>
       </c>
       <c r="B594" t="n">
-        <v>0.04909281630790376</v>
+        <v>0.05303239381966501</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>603.3050378689647</v>
+        <v>691.8327718820786</v>
       </c>
       <c r="B595" t="n">
-        <v>0.04909279622083552</v>
+        <v>0.05303238774945706</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>604.3224156731283</v>
+        <v>692.9994376019473</v>
       </c>
       <c r="B596" t="n">
-        <v>0.04909277691793902</v>
+        <v>0.05303238194062285</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>605.3397934772918</v>
+        <v>694.1661033218159</v>
       </c>
       <c r="B597" t="n">
-        <v>0.04909275836860127</v>
+        <v>0.05303237638190805</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>606.3571712814553</v>
+        <v>695.3327690416845</v>
       </c>
       <c r="B598" t="n">
-        <v>0.04909274054340436</v>
+        <v>0.05303237106254289</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>607.3745490856188</v>
+        <v>696.4994347615531</v>
       </c>
       <c r="B599" t="n">
-        <v>0.04909272341407882</v>
+        <v>0.05303236597222135</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>608.3919268897823</v>
+        <v>697.6661004814217</v>
       </c>
       <c r="B600" t="n">
-        <v>0.04909270695345879</v>
+        <v>0.05303236110108117</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>609.4093046939458</v>
+        <v>698.8327662012903</v>
       </c>
       <c r="B601" t="n">
-        <v>0.04909269113543891</v>
+        <v>0.05303235643968474</v>
       </c>
     </row>
   </sheetData>
